--- a/AAII_Financials/Quarterly/MBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>MBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2114000</v>
+        <v>1406500</v>
       </c>
       <c r="E8" s="3">
-        <v>1976100</v>
+        <v>1901100</v>
       </c>
       <c r="F8" s="3">
-        <v>1863600</v>
+        <v>1777100</v>
       </c>
       <c r="G8" s="3">
-        <v>2053700</v>
+        <v>1676000</v>
       </c>
       <c r="H8" s="3">
-        <v>2020500</v>
+        <v>1437600</v>
       </c>
       <c r="I8" s="3">
-        <v>1805500</v>
+        <v>1817000</v>
       </c>
       <c r="J8" s="3">
+        <v>1623700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1704100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3563400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1764300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3257400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1612100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3331500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1702900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>774700</v>
+        <v>577000</v>
       </c>
       <c r="E9" s="3">
-        <v>736000</v>
+        <v>696700</v>
       </c>
       <c r="F9" s="3">
-        <v>672300</v>
+        <v>661900</v>
       </c>
       <c r="G9" s="3">
-        <v>791800</v>
+        <v>604600</v>
       </c>
       <c r="H9" s="3">
-        <v>780200</v>
+        <v>597200</v>
       </c>
       <c r="I9" s="3">
-        <v>637000</v>
+        <v>701600</v>
       </c>
       <c r="J9" s="3">
+        <v>572900</v>
+      </c>
+      <c r="K9" s="3">
         <v>574300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1379600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>664200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1229200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>609400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1325300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>676300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1339300</v>
+        <v>829500</v>
       </c>
       <c r="E10" s="3">
-        <v>1240100</v>
+        <v>1204500</v>
       </c>
       <c r="F10" s="3">
-        <v>1191300</v>
+        <v>1115200</v>
       </c>
       <c r="G10" s="3">
-        <v>1261900</v>
+        <v>1071300</v>
       </c>
       <c r="H10" s="3">
-        <v>1240300</v>
+        <v>840400</v>
       </c>
       <c r="I10" s="3">
-        <v>1168500</v>
+        <v>1115400</v>
       </c>
       <c r="J10" s="3">
+        <v>1050800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1129900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2183800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1100200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2028300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1002700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2006200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1026700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +985,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>45300</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>40700</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>60700</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>54100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>58100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17600</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>425200</v>
+        <v>226600</v>
       </c>
       <c r="E15" s="3">
-        <v>425900</v>
+        <v>382400</v>
       </c>
       <c r="F15" s="3">
-        <v>417100</v>
+        <v>383000</v>
       </c>
       <c r="G15" s="3">
-        <v>418800</v>
+        <v>375100</v>
       </c>
       <c r="H15" s="3">
-        <v>417700</v>
+        <v>246000</v>
       </c>
       <c r="I15" s="3">
-        <v>415100</v>
+        <v>375700</v>
       </c>
       <c r="J15" s="3">
+        <v>373300</v>
+      </c>
+      <c r="K15" s="3">
         <v>399800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>610900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>308800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>619800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>310000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>614800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1547400</v>
+        <v>1117500</v>
       </c>
       <c r="E17" s="3">
-        <v>1516400</v>
+        <v>1391600</v>
       </c>
       <c r="F17" s="3">
-        <v>1408200</v>
+        <v>1363700</v>
       </c>
       <c r="G17" s="3">
-        <v>1596800</v>
+        <v>1266400</v>
       </c>
       <c r="H17" s="3">
-        <v>1501900</v>
+        <v>1128400</v>
       </c>
       <c r="I17" s="3">
-        <v>1369700</v>
+        <v>1350600</v>
       </c>
       <c r="J17" s="3">
+        <v>1231800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1280900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2785300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1339700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2555600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1277700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2624300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1336300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>566600</v>
+        <v>289000</v>
       </c>
       <c r="E18" s="3">
-        <v>459700</v>
+        <v>509600</v>
       </c>
       <c r="F18" s="3">
-        <v>455400</v>
+        <v>413400</v>
       </c>
       <c r="G18" s="3">
-        <v>456900</v>
+        <v>409500</v>
       </c>
       <c r="H18" s="3">
-        <v>518600</v>
+        <v>309200</v>
       </c>
       <c r="I18" s="3">
-        <v>435800</v>
+        <v>466400</v>
       </c>
       <c r="J18" s="3">
+        <v>391900</v>
+      </c>
+      <c r="K18" s="3">
         <v>423200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>778100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>424600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>701900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>334400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>707200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>366600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-169900</v>
+        <v>-191300</v>
       </c>
       <c r="E20" s="3">
-        <v>-201500</v>
+        <v>-152700</v>
       </c>
       <c r="F20" s="3">
-        <v>-163000</v>
+        <v>-181200</v>
       </c>
       <c r="G20" s="3">
-        <v>-146200</v>
+        <v>-146600</v>
       </c>
       <c r="H20" s="3">
-        <v>-114000</v>
+        <v>-125300</v>
       </c>
       <c r="I20" s="3">
-        <v>-147300</v>
+        <v>-102500</v>
       </c>
       <c r="J20" s="3">
+        <v>-132500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-103000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-152100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-60800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-164100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-83800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-136400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-66600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>822000</v>
+        <v>475800</v>
       </c>
       <c r="E21" s="3">
-        <v>684100</v>
+        <v>739200</v>
       </c>
       <c r="F21" s="3">
-        <v>709500</v>
+        <v>615200</v>
       </c>
       <c r="G21" s="3">
-        <v>729600</v>
+        <v>638000</v>
       </c>
       <c r="H21" s="3">
-        <v>822300</v>
+        <v>560500</v>
       </c>
       <c r="I21" s="3">
-        <v>703600</v>
+        <v>739500</v>
       </c>
       <c r="J21" s="3">
+        <v>632700</v>
+      </c>
+      <c r="K21" s="3">
         <v>720000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1236800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>672600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1157600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>560600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1211100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>630800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1292,8 +1331,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1304,102 +1343,111 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>396800</v>
+        <v>97700</v>
       </c>
       <c r="E23" s="3">
-        <v>258200</v>
+        <v>356800</v>
       </c>
       <c r="F23" s="3">
-        <v>292300</v>
+        <v>232200</v>
       </c>
       <c r="G23" s="3">
-        <v>310700</v>
+        <v>262900</v>
       </c>
       <c r="H23" s="3">
-        <v>404600</v>
+        <v>183800</v>
       </c>
       <c r="I23" s="3">
-        <v>288500</v>
+        <v>363800</v>
       </c>
       <c r="J23" s="3">
+        <v>259400</v>
+      </c>
+      <c r="K23" s="3">
         <v>320200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>625900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>363900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>537800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>250600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>570800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>102000</v>
+        <v>23800</v>
       </c>
       <c r="E24" s="3">
-        <v>54900</v>
+        <v>91700</v>
       </c>
       <c r="F24" s="3">
-        <v>65300</v>
+        <v>49400</v>
       </c>
       <c r="G24" s="3">
-        <v>34000</v>
+        <v>58700</v>
       </c>
       <c r="H24" s="3">
-        <v>98200</v>
+        <v>8200</v>
       </c>
       <c r="I24" s="3">
-        <v>60700</v>
+        <v>88300</v>
       </c>
       <c r="J24" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K24" s="3">
         <v>75000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>177400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>85200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>114800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>56600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>127800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>294700</v>
+        <v>73900</v>
       </c>
       <c r="E26" s="3">
-        <v>203200</v>
+        <v>265100</v>
       </c>
       <c r="F26" s="3">
-        <v>227000</v>
+        <v>182800</v>
       </c>
       <c r="G26" s="3">
-        <v>276800</v>
+        <v>204200</v>
       </c>
       <c r="H26" s="3">
-        <v>306400</v>
+        <v>175600</v>
       </c>
       <c r="I26" s="3">
-        <v>227800</v>
+        <v>275500</v>
       </c>
       <c r="J26" s="3">
+        <v>204800</v>
+      </c>
+      <c r="K26" s="3">
         <v>245200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>448500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>278600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>423000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>194000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>443000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>235800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>290400</v>
+        <v>71200</v>
       </c>
       <c r="E27" s="3">
-        <v>200600</v>
+        <v>261200</v>
       </c>
       <c r="F27" s="3">
-        <v>223400</v>
+        <v>180400</v>
       </c>
       <c r="G27" s="3">
-        <v>275700</v>
+        <v>200900</v>
       </c>
       <c r="H27" s="3">
-        <v>295800</v>
+        <v>174700</v>
       </c>
       <c r="I27" s="3">
-        <v>225500</v>
+        <v>266000</v>
       </c>
       <c r="J27" s="3">
+        <v>202800</v>
+      </c>
+      <c r="K27" s="3">
         <v>243500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>444000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>276500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>419000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>192200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>439200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,52 +1631,58 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>54400</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-52100</v>
+        <v>48900</v>
       </c>
       <c r="H29" s="3">
-        <v>-880300</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>26400</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-791700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-61000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-43900</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>169900</v>
+        <v>191300</v>
       </c>
       <c r="E32" s="3">
-        <v>201500</v>
+        <v>152700</v>
       </c>
       <c r="F32" s="3">
-        <v>163000</v>
+        <v>181200</v>
       </c>
       <c r="G32" s="3">
-        <v>146200</v>
+        <v>146600</v>
       </c>
       <c r="H32" s="3">
-        <v>114000</v>
+        <v>125300</v>
       </c>
       <c r="I32" s="3">
-        <v>147300</v>
+        <v>102500</v>
       </c>
       <c r="J32" s="3">
+        <v>132500</v>
+      </c>
+      <c r="K32" s="3">
         <v>103000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>152100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>60800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>164100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>83800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>136400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>66600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>290400</v>
+        <v>78800</v>
       </c>
       <c r="E33" s="3">
-        <v>200600</v>
+        <v>261200</v>
       </c>
       <c r="F33" s="3">
-        <v>277800</v>
+        <v>180400</v>
       </c>
       <c r="G33" s="3">
-        <v>223600</v>
+        <v>249800</v>
       </c>
       <c r="H33" s="3">
-        <v>-584500</v>
+        <v>201100</v>
       </c>
       <c r="I33" s="3">
-        <v>225500</v>
+        <v>-525700</v>
       </c>
       <c r="J33" s="3">
+        <v>202800</v>
+      </c>
+      <c r="K33" s="3">
         <v>243500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>444000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>276500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>419000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>192200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>378100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>290400</v>
+        <v>78800</v>
       </c>
       <c r="E35" s="3">
-        <v>200600</v>
+        <v>261200</v>
       </c>
       <c r="F35" s="3">
-        <v>277800</v>
+        <v>180400</v>
       </c>
       <c r="G35" s="3">
-        <v>223600</v>
+        <v>249800</v>
       </c>
       <c r="H35" s="3">
-        <v>-584500</v>
+        <v>201100</v>
       </c>
       <c r="I35" s="3">
-        <v>225500</v>
+        <v>-525700</v>
       </c>
       <c r="J35" s="3">
+        <v>202800</v>
+      </c>
+      <c r="K35" s="3">
         <v>243500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>444000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>276500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>419000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>192200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>378100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2052,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>829300</v>
+        <v>540600</v>
       </c>
       <c r="E41" s="3">
-        <v>809100</v>
+        <v>745800</v>
       </c>
       <c r="F41" s="3">
-        <v>1047600</v>
+        <v>727700</v>
       </c>
       <c r="G41" s="3">
-        <v>1327500</v>
+        <v>942100</v>
       </c>
       <c r="H41" s="3">
-        <v>1597100</v>
+        <v>1193900</v>
       </c>
       <c r="I41" s="3">
-        <v>904600</v>
+        <v>1436200</v>
       </c>
       <c r="J41" s="3">
+        <v>813500</v>
+      </c>
+      <c r="K41" s="3">
         <v>898800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>471000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>360800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>527800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>390400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>280400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>553900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>580600</v>
+        <v>570500</v>
       </c>
       <c r="E42" s="3">
-        <v>594000</v>
+        <v>522100</v>
       </c>
       <c r="F42" s="3">
-        <v>719200</v>
+        <v>534200</v>
       </c>
       <c r="G42" s="3">
-        <v>1046900</v>
+        <v>646700</v>
       </c>
       <c r="H42" s="3">
-        <v>1111800</v>
+        <v>941500</v>
       </c>
       <c r="I42" s="3">
-        <v>657700</v>
+        <v>999900</v>
       </c>
       <c r="J42" s="3">
+        <v>591400</v>
+      </c>
+      <c r="K42" s="3">
         <v>416100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>781700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>933200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1017900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>685700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>131400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>177400</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>961400</v>
+        <v>836300</v>
       </c>
       <c r="E43" s="3">
-        <v>900100</v>
+        <v>864600</v>
       </c>
       <c r="F43" s="3">
-        <v>801700</v>
+        <v>809500</v>
       </c>
       <c r="G43" s="3">
-        <v>902000</v>
+        <v>721000</v>
       </c>
       <c r="H43" s="3">
-        <v>948100</v>
+        <v>811100</v>
       </c>
       <c r="I43" s="3">
-        <v>559600</v>
+        <v>852600</v>
       </c>
       <c r="J43" s="3">
+        <v>503300</v>
+      </c>
+      <c r="K43" s="3">
         <v>364200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>329000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>228600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>244700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>202700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>198900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>260500</v>
+        <v>220300</v>
       </c>
       <c r="E44" s="3">
-        <v>230900</v>
+        <v>234300</v>
       </c>
       <c r="F44" s="3">
-        <v>263300</v>
+        <v>207600</v>
       </c>
       <c r="G44" s="3">
-        <v>294500</v>
+        <v>236800</v>
       </c>
       <c r="H44" s="3">
-        <v>313100</v>
+        <v>264900</v>
       </c>
       <c r="I44" s="3">
-        <v>273300</v>
+        <v>281600</v>
       </c>
       <c r="J44" s="3">
+        <v>245800</v>
+      </c>
+      <c r="K44" s="3">
         <v>210300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>153900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>181600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>173500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>188300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>217500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>197600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>91600</v>
+        <v>90000</v>
       </c>
       <c r="E45" s="3">
-        <v>84400</v>
+        <v>82400</v>
       </c>
       <c r="F45" s="3">
-        <v>90200</v>
+        <v>75900</v>
       </c>
       <c r="G45" s="3">
-        <v>130100</v>
+        <v>81100</v>
       </c>
       <c r="H45" s="3">
-        <v>91800</v>
+        <v>117000</v>
       </c>
       <c r="I45" s="3">
-        <v>97200</v>
+        <v>82500</v>
       </c>
       <c r="J45" s="3">
+        <v>87400</v>
+      </c>
+      <c r="K45" s="3">
         <v>79500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>81900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>71900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>77700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>78500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3323100</v>
+        <v>2763100</v>
       </c>
       <c r="E46" s="3">
-        <v>3203000</v>
+        <v>2988500</v>
       </c>
       <c r="F46" s="3">
-        <v>3482700</v>
+        <v>2880400</v>
       </c>
       <c r="G46" s="3">
-        <v>4246500</v>
+        <v>3132000</v>
       </c>
       <c r="H46" s="3">
-        <v>4492200</v>
+        <v>3818900</v>
       </c>
       <c r="I46" s="3">
-        <v>2966100</v>
+        <v>4039900</v>
       </c>
       <c r="J46" s="3">
+        <v>2667400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2409700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2248900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2290600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2525400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1982300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1381300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1683100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1354500</v>
+        <v>1259300</v>
       </c>
       <c r="E47" s="3">
-        <v>1273500</v>
+        <v>1218100</v>
       </c>
       <c r="F47" s="3">
-        <v>1200100</v>
+        <v>1145200</v>
       </c>
       <c r="G47" s="3">
-        <v>1075900</v>
+        <v>1079200</v>
       </c>
       <c r="H47" s="3">
-        <v>948900</v>
+        <v>967500</v>
       </c>
       <c r="I47" s="3">
-        <v>304000</v>
+        <v>853400</v>
       </c>
       <c r="J47" s="3">
+        <v>273400</v>
+      </c>
+      <c r="K47" s="3">
         <v>260100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>312600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>461900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>483900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>478000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>978200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>950200</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6832600</v>
+        <v>5783400</v>
       </c>
       <c r="E48" s="3">
-        <v>6771700</v>
+        <v>6144600</v>
       </c>
       <c r="F48" s="3">
-        <v>6707400</v>
+        <v>6089800</v>
       </c>
       <c r="G48" s="3">
-        <v>6752200</v>
+        <v>6032000</v>
       </c>
       <c r="H48" s="3">
-        <v>6670800</v>
+        <v>6072300</v>
       </c>
       <c r="I48" s="3">
-        <v>6433100</v>
+        <v>5999100</v>
       </c>
       <c r="J48" s="3">
+        <v>5785300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6290300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4057400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4044900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4071700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4045000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4146800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4190200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2128200</v>
+        <v>1681300</v>
       </c>
       <c r="E49" s="3">
-        <v>2115000</v>
+        <v>1913900</v>
       </c>
       <c r="F49" s="3">
-        <v>2088800</v>
+        <v>1902000</v>
       </c>
       <c r="G49" s="3">
-        <v>2132700</v>
+        <v>1878500</v>
       </c>
       <c r="H49" s="3">
-        <v>2036900</v>
+        <v>1918000</v>
       </c>
       <c r="I49" s="3">
-        <v>2046100</v>
+        <v>1831800</v>
       </c>
       <c r="J49" s="3">
+        <v>1840100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1994200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1750600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1635500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1636200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1642600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1651800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1620100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>292500</v>
+        <v>212400</v>
       </c>
       <c r="E52" s="3">
-        <v>273400</v>
+        <v>263100</v>
       </c>
       <c r="F52" s="3">
-        <v>264100</v>
+        <v>245900</v>
       </c>
       <c r="G52" s="3">
-        <v>256200</v>
+        <v>237500</v>
       </c>
       <c r="H52" s="3">
-        <v>180400</v>
+        <v>230400</v>
       </c>
       <c r="I52" s="3">
-        <v>127800</v>
+        <v>162300</v>
       </c>
       <c r="J52" s="3">
+        <v>114900</v>
+      </c>
+      <c r="K52" s="3">
         <v>131300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>116900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>140000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>137800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>128600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>107000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13930900</v>
+        <v>11699500</v>
       </c>
       <c r="E54" s="3">
-        <v>13636500</v>
+        <v>12528100</v>
       </c>
       <c r="F54" s="3">
-        <v>13743200</v>
+        <v>12263400</v>
       </c>
       <c r="G54" s="3">
-        <v>14463500</v>
+        <v>12359300</v>
       </c>
       <c r="H54" s="3">
-        <v>14329400</v>
+        <v>13007100</v>
       </c>
       <c r="I54" s="3">
-        <v>11877100</v>
+        <v>12886400</v>
       </c>
       <c r="J54" s="3">
+        <v>10681100</v>
+      </c>
+      <c r="K54" s="3">
         <v>11085700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8486500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8573000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8855100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8276600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8265100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8552500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2748,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1036200</v>
+        <v>1019700</v>
       </c>
       <c r="E57" s="3">
-        <v>1331100</v>
+        <v>931800</v>
       </c>
       <c r="F57" s="3">
-        <v>764000</v>
+        <v>1197100</v>
       </c>
       <c r="G57" s="3">
-        <v>846700</v>
+        <v>687100</v>
       </c>
       <c r="H57" s="3">
-        <v>874900</v>
+        <v>761400</v>
       </c>
       <c r="I57" s="3">
-        <v>1471000</v>
+        <v>786800</v>
       </c>
       <c r="J57" s="3">
+        <v>1322900</v>
+      </c>
+      <c r="K57" s="3">
         <v>666400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>745600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1162100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1201800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>595100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>645000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1132500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1842100</v>
+        <v>1235000</v>
       </c>
       <c r="E58" s="3">
-        <v>1363200</v>
+        <v>1656600</v>
       </c>
       <c r="F58" s="3">
-        <v>934500</v>
+        <v>1225900</v>
       </c>
       <c r="G58" s="3">
-        <v>298000</v>
+        <v>840400</v>
       </c>
       <c r="H58" s="3">
-        <v>470300</v>
+        <v>268000</v>
       </c>
       <c r="I58" s="3">
-        <v>1198200</v>
+        <v>422900</v>
       </c>
       <c r="J58" s="3">
+        <v>1077500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1392200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>992900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>785100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>631000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>762100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>716600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>898700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3115200</v>
+        <v>2693400</v>
       </c>
       <c r="E59" s="3">
-        <v>2598200</v>
+        <v>2801500</v>
       </c>
       <c r="F59" s="3">
-        <v>2660800</v>
+        <v>2336500</v>
       </c>
       <c r="G59" s="3">
-        <v>3520700</v>
+        <v>2392900</v>
       </c>
       <c r="H59" s="3">
-        <v>3211600</v>
+        <v>3166200</v>
       </c>
       <c r="I59" s="3">
-        <v>767400</v>
+        <v>2888200</v>
       </c>
       <c r="J59" s="3">
+        <v>690200</v>
+      </c>
+      <c r="K59" s="3">
         <v>806400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>674200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>519200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>528000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>604200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>574600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>626700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5993500</v>
+        <v>4948100</v>
       </c>
       <c r="E60" s="3">
-        <v>5292400</v>
+        <v>5390000</v>
       </c>
       <c r="F60" s="3">
-        <v>4359300</v>
+        <v>4759500</v>
       </c>
       <c r="G60" s="3">
-        <v>4665500</v>
+        <v>3920300</v>
       </c>
       <c r="H60" s="3">
-        <v>4556800</v>
+        <v>4195700</v>
       </c>
       <c r="I60" s="3">
-        <v>3436600</v>
+        <v>4097900</v>
       </c>
       <c r="J60" s="3">
+        <v>3090600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2865000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2412700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2466400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2360700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1961500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1936100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2657900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6693500</v>
+        <v>5845500</v>
       </c>
       <c r="E61" s="3">
-        <v>7199700</v>
+        <v>6019500</v>
       </c>
       <c r="F61" s="3">
-        <v>7764100</v>
+        <v>6474700</v>
       </c>
       <c r="G61" s="3">
-        <v>8049900</v>
+        <v>6982200</v>
       </c>
       <c r="H61" s="3">
-        <v>7963000</v>
+        <v>7239300</v>
       </c>
       <c r="I61" s="3">
-        <v>6178800</v>
+        <v>7161100</v>
       </c>
       <c r="J61" s="3">
+        <v>5556600</v>
+      </c>
+      <c r="K61" s="3">
         <v>5585300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3682100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3647600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3938600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3550100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3599400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3304700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>491500</v>
+        <v>389200</v>
       </c>
       <c r="E62" s="3">
-        <v>504300</v>
+        <v>442000</v>
       </c>
       <c r="F62" s="3">
-        <v>503100</v>
+        <v>453500</v>
       </c>
       <c r="G62" s="3">
-        <v>523400</v>
+        <v>452400</v>
       </c>
       <c r="H62" s="3">
-        <v>672100</v>
+        <v>470700</v>
       </c>
       <c r="I62" s="3">
-        <v>485200</v>
+        <v>604400</v>
       </c>
       <c r="J62" s="3">
+        <v>436300</v>
+      </c>
+      <c r="K62" s="3">
         <v>490800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>478900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>530800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>543700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>540500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>544400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>538500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13242800</v>
+        <v>11230000</v>
       </c>
       <c r="E66" s="3">
-        <v>13056700</v>
+        <v>11909300</v>
       </c>
       <c r="F66" s="3">
-        <v>12701700</v>
+        <v>11741900</v>
       </c>
       <c r="G66" s="3">
-        <v>13432900</v>
+        <v>11422700</v>
       </c>
       <c r="H66" s="3">
-        <v>13386000</v>
+        <v>12080200</v>
       </c>
       <c r="I66" s="3">
-        <v>10151800</v>
+        <v>12038100</v>
       </c>
       <c r="J66" s="3">
+        <v>9129500</v>
+      </c>
+      <c r="K66" s="3">
         <v>9007600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6636500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6705300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6901300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6127900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6151500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6570400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3">
+        <v>1315100</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3">
-        <v>1520100</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="3">
+        <v>1367000</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="3">
-        <v>1735000</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="3">
+        <v>1560300</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="3">
-        <v>2192700</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="3">
+        <v>1971900</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2189700</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2103500</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2119000</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>688000</v>
+        <v>469600</v>
       </c>
       <c r="E76" s="3">
-        <v>579800</v>
+        <v>618800</v>
       </c>
       <c r="F76" s="3">
-        <v>1041500</v>
+        <v>521500</v>
       </c>
       <c r="G76" s="3">
-        <v>1030700</v>
+        <v>936600</v>
       </c>
       <c r="H76" s="3">
-        <v>943300</v>
+        <v>926900</v>
       </c>
       <c r="I76" s="3">
-        <v>1725300</v>
+        <v>848300</v>
       </c>
       <c r="J76" s="3">
+        <v>1551600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2078100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1849900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1867800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1953700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2148700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2113600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1982100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>290400</v>
+        <v>78800</v>
       </c>
       <c r="E81" s="3">
-        <v>200600</v>
+        <v>261200</v>
       </c>
       <c r="F81" s="3">
-        <v>277800</v>
+        <v>180400</v>
       </c>
       <c r="G81" s="3">
-        <v>223600</v>
+        <v>249800</v>
       </c>
       <c r="H81" s="3">
-        <v>-584500</v>
+        <v>201100</v>
       </c>
       <c r="I81" s="3">
-        <v>225500</v>
+        <v>-525700</v>
       </c>
       <c r="J81" s="3">
+        <v>202800</v>
+      </c>
+      <c r="K81" s="3">
         <v>243500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>444000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>276500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>419000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>192200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>378100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>425200</v>
+        <v>378100</v>
       </c>
       <c r="E83" s="3">
-        <v>425900</v>
+        <v>382400</v>
       </c>
       <c r="F83" s="3">
-        <v>417100</v>
+        <v>383000</v>
       </c>
       <c r="G83" s="3">
-        <v>418800</v>
+        <v>375100</v>
       </c>
       <c r="H83" s="3">
-        <v>417700</v>
+        <v>376700</v>
       </c>
       <c r="I83" s="3">
-        <v>415100</v>
+        <v>375700</v>
       </c>
       <c r="J83" s="3">
+        <v>373300</v>
+      </c>
+      <c r="K83" s="3">
         <v>399800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>610900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>308800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>619800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>310000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>640300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1032600</v>
+        <v>516900</v>
       </c>
       <c r="E89" s="3">
-        <v>330800</v>
+        <v>928600</v>
       </c>
       <c r="F89" s="3">
-        <v>-254100</v>
+        <v>297500</v>
       </c>
       <c r="G89" s="3">
-        <v>697400</v>
+        <v>-228500</v>
       </c>
       <c r="H89" s="3">
-        <v>634100</v>
+        <v>627200</v>
       </c>
       <c r="I89" s="3">
-        <v>542700</v>
+        <v>570300</v>
       </c>
       <c r="J89" s="3">
+        <v>488000</v>
+      </c>
+      <c r="K89" s="3">
         <v>563600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1228400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>571400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>999100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>512900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1015400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>625800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-276100</v>
+        <v>-333200</v>
       </c>
       <c r="E91" s="3">
-        <v>-237700</v>
+        <v>-248300</v>
       </c>
       <c r="F91" s="3">
-        <v>-196700</v>
+        <v>-213800</v>
       </c>
       <c r="G91" s="3">
-        <v>-316900</v>
+        <v>-176900</v>
       </c>
       <c r="H91" s="3">
-        <v>-267000</v>
+        <v>-285000</v>
       </c>
       <c r="I91" s="3">
-        <v>-231400</v>
+        <v>-240100</v>
       </c>
       <c r="J91" s="3">
+        <v>-208100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-206800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-520500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-256600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-301300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-117700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-666100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-275400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-322300</v>
+        <v>45400</v>
       </c>
       <c r="E94" s="3">
-        <v>-240400</v>
+        <v>-289800</v>
       </c>
       <c r="F94" s="3">
-        <v>45600</v>
+        <v>-216200</v>
       </c>
       <c r="G94" s="3">
-        <v>-427500</v>
+        <v>41000</v>
       </c>
       <c r="H94" s="3">
-        <v>-20900</v>
+        <v>-384400</v>
       </c>
       <c r="I94" s="3">
-        <v>-728300</v>
+        <v>-18800</v>
       </c>
       <c r="J94" s="3">
+        <v>-655000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-61100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-438100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-241700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-817200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-285300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-448800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,28 +4380,29 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-577000</v>
+        <v>-226700</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-518900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-75900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-714400</v>
+        <v>-68300</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-642400</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4187,13 +4420,16 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-801600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-439400</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-694600</v>
+        <v>-747300</v>
       </c>
       <c r="E100" s="3">
-        <v>-328400</v>
+        <v>-624600</v>
       </c>
       <c r="F100" s="3">
-        <v>-47900</v>
+        <v>-295300</v>
       </c>
       <c r="G100" s="3">
-        <v>-553600</v>
+        <v>-43100</v>
       </c>
       <c r="H100" s="3">
-        <v>70500</v>
+        <v>-497900</v>
       </c>
       <c r="I100" s="3">
-        <v>163500</v>
+        <v>63400</v>
       </c>
       <c r="J100" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-89700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-844500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-492200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>67600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-99000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-637500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-435000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4400</v>
+        <v>-20100</v>
       </c>
       <c r="E101" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
-        <v>-23500</v>
-      </c>
       <c r="G101" s="3">
-        <v>14100</v>
+        <v>-21100</v>
       </c>
       <c r="H101" s="3">
-        <v>8700</v>
+        <v>12700</v>
       </c>
       <c r="I101" s="3">
-        <v>28000</v>
+        <v>7800</v>
       </c>
       <c r="J101" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K101" s="3">
         <v>3100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-22500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-27500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20100</v>
+        <v>-205200</v>
       </c>
       <c r="E102" s="3">
-        <v>-238500</v>
+        <v>18100</v>
       </c>
       <c r="F102" s="3">
-        <v>-279900</v>
+        <v>-214500</v>
       </c>
       <c r="G102" s="3">
-        <v>-269500</v>
+        <v>-251800</v>
       </c>
       <c r="H102" s="3">
-        <v>692400</v>
+        <v>-242400</v>
       </c>
       <c r="I102" s="3">
-        <v>5800</v>
+        <v>622700</v>
       </c>
       <c r="J102" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K102" s="3">
         <v>415900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-56800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-167000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>243400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>106000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-98500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>175100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>MBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1406500</v>
+        <v>1584800</v>
       </c>
       <c r="E8" s="3">
-        <v>1901100</v>
+        <v>1312400</v>
       </c>
       <c r="F8" s="3">
-        <v>1777100</v>
+        <v>1773900</v>
       </c>
       <c r="G8" s="3">
-        <v>1676000</v>
+        <v>1539200</v>
       </c>
       <c r="H8" s="3">
-        <v>1437600</v>
+        <v>1455300</v>
       </c>
       <c r="I8" s="3">
-        <v>1817000</v>
+        <v>1341400</v>
       </c>
       <c r="J8" s="3">
+        <v>1695400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1623700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1704100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3563400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1764300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3257400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1612100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3331500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1702900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>577000</v>
+        <v>592400</v>
       </c>
       <c r="E9" s="3">
-        <v>696700</v>
+        <v>538400</v>
       </c>
       <c r="F9" s="3">
-        <v>661900</v>
+        <v>650100</v>
       </c>
       <c r="G9" s="3">
-        <v>604600</v>
+        <v>582800</v>
       </c>
       <c r="H9" s="3">
-        <v>597200</v>
+        <v>532900</v>
       </c>
       <c r="I9" s="3">
-        <v>701600</v>
+        <v>557300</v>
       </c>
       <c r="J9" s="3">
+        <v>654700</v>
+      </c>
+      <c r="K9" s="3">
         <v>572900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>574300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1379600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>664200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1229200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>609400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1325300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>676300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>829500</v>
+        <v>992400</v>
       </c>
       <c r="E10" s="3">
-        <v>1204500</v>
+        <v>774100</v>
       </c>
       <c r="F10" s="3">
-        <v>1115200</v>
+        <v>1123900</v>
       </c>
       <c r="G10" s="3">
-        <v>1071300</v>
+        <v>956400</v>
       </c>
       <c r="H10" s="3">
-        <v>840400</v>
+        <v>922400</v>
       </c>
       <c r="I10" s="3">
-        <v>1115400</v>
+        <v>784100</v>
       </c>
       <c r="J10" s="3">
+        <v>1040700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1050800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1129900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2183800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1100200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2028300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1002700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2006200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1026700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,102 +1005,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>108000</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>4200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100800</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>40700</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>38000</v>
       </c>
       <c r="H14" s="3">
-        <v>54100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>50500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>58100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17600</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>226600</v>
+        <v>327300</v>
       </c>
       <c r="E15" s="3">
-        <v>382400</v>
+        <v>211400</v>
       </c>
       <c r="F15" s="3">
-        <v>383000</v>
+        <v>356800</v>
       </c>
       <c r="G15" s="3">
-        <v>375100</v>
+        <v>320100</v>
       </c>
       <c r="H15" s="3">
-        <v>246000</v>
+        <v>312700</v>
       </c>
       <c r="I15" s="3">
-        <v>375700</v>
+        <v>229500</v>
       </c>
       <c r="J15" s="3">
+        <v>350500</v>
+      </c>
+      <c r="K15" s="3">
         <v>373300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>399800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>610900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>308800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>619800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>310000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>614800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1117500</v>
+        <v>1233400</v>
       </c>
       <c r="E17" s="3">
-        <v>1391600</v>
+        <v>1042800</v>
       </c>
       <c r="F17" s="3">
-        <v>1363700</v>
+        <v>1298500</v>
       </c>
       <c r="G17" s="3">
-        <v>1266400</v>
+        <v>1180000</v>
       </c>
       <c r="H17" s="3">
-        <v>1128400</v>
+        <v>1095800</v>
       </c>
       <c r="I17" s="3">
-        <v>1350600</v>
+        <v>1052900</v>
       </c>
       <c r="J17" s="3">
+        <v>1260300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1231800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1280900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2785300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1339700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2555600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1277700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2624300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1336300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>289000</v>
+        <v>351400</v>
       </c>
       <c r="E18" s="3">
-        <v>509600</v>
+        <v>269700</v>
       </c>
       <c r="F18" s="3">
-        <v>413400</v>
+        <v>475500</v>
       </c>
       <c r="G18" s="3">
-        <v>409500</v>
+        <v>359200</v>
       </c>
       <c r="H18" s="3">
-        <v>309200</v>
+        <v>359400</v>
       </c>
       <c r="I18" s="3">
-        <v>466400</v>
+        <v>288500</v>
       </c>
       <c r="J18" s="3">
+        <v>435200</v>
+      </c>
+      <c r="K18" s="3">
         <v>391900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>423200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>778100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>424600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>701900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>334400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>707200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>366600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-191300</v>
+        <v>-58000</v>
       </c>
       <c r="E20" s="3">
-        <v>-152700</v>
+        <v>-178500</v>
       </c>
       <c r="F20" s="3">
-        <v>-181200</v>
+        <v>-142500</v>
       </c>
       <c r="G20" s="3">
-        <v>-146600</v>
+        <v>-165300</v>
       </c>
       <c r="H20" s="3">
-        <v>-125300</v>
+        <v>-135100</v>
       </c>
       <c r="I20" s="3">
-        <v>-102500</v>
+        <v>-116900</v>
       </c>
       <c r="J20" s="3">
+        <v>-95700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-132500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-103000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-152100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-60800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-164100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-83800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-136400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-66600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>475800</v>
+        <v>620700</v>
       </c>
       <c r="E21" s="3">
-        <v>739200</v>
+        <v>444000</v>
       </c>
       <c r="F21" s="3">
-        <v>615200</v>
+        <v>689800</v>
       </c>
       <c r="G21" s="3">
-        <v>638000</v>
+        <v>551400</v>
       </c>
       <c r="H21" s="3">
-        <v>560500</v>
+        <v>574400</v>
       </c>
       <c r="I21" s="3">
-        <v>739500</v>
+        <v>523000</v>
       </c>
       <c r="J21" s="3">
+        <v>690000</v>
+      </c>
+      <c r="K21" s="3">
         <v>632700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>720000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1236800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>672600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1157600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>560600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1211100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>630800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1334,8 +1374,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1346,108 +1386,117 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>97700</v>
+        <v>293400</v>
       </c>
       <c r="E23" s="3">
-        <v>356800</v>
+        <v>91200</v>
       </c>
       <c r="F23" s="3">
-        <v>232200</v>
+        <v>332900</v>
       </c>
       <c r="G23" s="3">
-        <v>262900</v>
+        <v>193900</v>
       </c>
       <c r="H23" s="3">
-        <v>183800</v>
+        <v>224400</v>
       </c>
       <c r="I23" s="3">
-        <v>363800</v>
+        <v>171500</v>
       </c>
       <c r="J23" s="3">
+        <v>339500</v>
+      </c>
+      <c r="K23" s="3">
         <v>259400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>320200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>625900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>363900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>537800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>250600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>570800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23800</v>
+        <v>61300</v>
       </c>
       <c r="E24" s="3">
-        <v>91700</v>
+        <v>22200</v>
       </c>
       <c r="F24" s="3">
-        <v>49400</v>
+        <v>85600</v>
       </c>
       <c r="G24" s="3">
-        <v>58700</v>
+        <v>41700</v>
       </c>
       <c r="H24" s="3">
-        <v>8200</v>
+        <v>49600</v>
       </c>
       <c r="I24" s="3">
-        <v>88300</v>
+        <v>7700</v>
       </c>
       <c r="J24" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K24" s="3">
         <v>54600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>75000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>177400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>85200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>114800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>56600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>127800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>73900</v>
+        <v>232100</v>
       </c>
       <c r="E26" s="3">
-        <v>265100</v>
+        <v>69000</v>
       </c>
       <c r="F26" s="3">
-        <v>182800</v>
+        <v>247300</v>
       </c>
       <c r="G26" s="3">
-        <v>204200</v>
+        <v>152300</v>
       </c>
       <c r="H26" s="3">
-        <v>175600</v>
+        <v>174800</v>
       </c>
       <c r="I26" s="3">
-        <v>275500</v>
+        <v>163900</v>
       </c>
       <c r="J26" s="3">
+        <v>257100</v>
+      </c>
+      <c r="K26" s="3">
         <v>204800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>245200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>448500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>278600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>423000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>194000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>443000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>235800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>71200</v>
+        <v>229800</v>
       </c>
       <c r="E27" s="3">
-        <v>261200</v>
+        <v>66400</v>
       </c>
       <c r="F27" s="3">
-        <v>180400</v>
+        <v>243700</v>
       </c>
       <c r="G27" s="3">
-        <v>200900</v>
+        <v>150100</v>
       </c>
       <c r="H27" s="3">
-        <v>174700</v>
+        <v>171700</v>
       </c>
       <c r="I27" s="3">
-        <v>266000</v>
+        <v>163000</v>
       </c>
       <c r="J27" s="3">
+        <v>248200</v>
+      </c>
+      <c r="K27" s="3">
         <v>202800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>243500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>444000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>276500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>419000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>192200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>439200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,55 +1692,61 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>7600</v>
+        <v>5300</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>48900</v>
+        <v>18300</v>
       </c>
       <c r="H29" s="3">
-        <v>26400</v>
+        <v>61400</v>
       </c>
       <c r="I29" s="3">
-        <v>-791700</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+        <v>24600</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-738700</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-43900</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>191300</v>
+        <v>58000</v>
       </c>
       <c r="E32" s="3">
-        <v>152700</v>
+        <v>178500</v>
       </c>
       <c r="F32" s="3">
-        <v>181200</v>
+        <v>142500</v>
       </c>
       <c r="G32" s="3">
-        <v>146600</v>
+        <v>165300</v>
       </c>
       <c r="H32" s="3">
-        <v>125300</v>
+        <v>135100</v>
       </c>
       <c r="I32" s="3">
-        <v>102500</v>
+        <v>116900</v>
       </c>
       <c r="J32" s="3">
+        <v>95700</v>
+      </c>
+      <c r="K32" s="3">
         <v>132500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>103000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>152100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>60800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>164100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>83800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>136400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>66600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>78800</v>
+        <v>235100</v>
       </c>
       <c r="E33" s="3">
-        <v>261200</v>
+        <v>73500</v>
       </c>
       <c r="F33" s="3">
-        <v>180400</v>
+        <v>243700</v>
       </c>
       <c r="G33" s="3">
-        <v>249800</v>
+        <v>168400</v>
       </c>
       <c r="H33" s="3">
-        <v>201100</v>
+        <v>233100</v>
       </c>
       <c r="I33" s="3">
-        <v>-525700</v>
+        <v>187700</v>
       </c>
       <c r="J33" s="3">
+        <v>-490500</v>
+      </c>
+      <c r="K33" s="3">
         <v>202800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>243500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>444000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>276500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>419000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>192200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>378100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>78800</v>
+        <v>235100</v>
       </c>
       <c r="E35" s="3">
-        <v>261200</v>
+        <v>73500</v>
       </c>
       <c r="F35" s="3">
-        <v>180400</v>
+        <v>243700</v>
       </c>
       <c r="G35" s="3">
-        <v>249800</v>
+        <v>168400</v>
       </c>
       <c r="H35" s="3">
-        <v>201100</v>
+        <v>233100</v>
       </c>
       <c r="I35" s="3">
-        <v>-525700</v>
+        <v>187700</v>
       </c>
       <c r="J35" s="3">
+        <v>-490500</v>
+      </c>
+      <c r="K35" s="3">
         <v>202800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>243500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>444000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>276500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>419000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>192200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>378100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2139,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>540600</v>
+        <v>1340400</v>
       </c>
       <c r="E41" s="3">
-        <v>745800</v>
+        <v>504400</v>
       </c>
       <c r="F41" s="3">
-        <v>727700</v>
+        <v>695900</v>
       </c>
       <c r="G41" s="3">
-        <v>942100</v>
+        <v>679000</v>
       </c>
       <c r="H41" s="3">
-        <v>1193900</v>
+        <v>879100</v>
       </c>
       <c r="I41" s="3">
-        <v>1436200</v>
+        <v>1114000</v>
       </c>
       <c r="J41" s="3">
+        <v>1340200</v>
+      </c>
+      <c r="K41" s="3">
         <v>813500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>898800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>471000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>360800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>527800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>390400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>280400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>553900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>570500</v>
+        <v>675400</v>
       </c>
       <c r="E42" s="3">
-        <v>522100</v>
+        <v>532300</v>
       </c>
       <c r="F42" s="3">
-        <v>534200</v>
+        <v>487200</v>
       </c>
       <c r="G42" s="3">
-        <v>646700</v>
+        <v>498500</v>
       </c>
       <c r="H42" s="3">
-        <v>941500</v>
+        <v>603500</v>
       </c>
       <c r="I42" s="3">
-        <v>999900</v>
+        <v>878500</v>
       </c>
       <c r="J42" s="3">
+        <v>933000</v>
+      </c>
+      <c r="K42" s="3">
         <v>591400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>416100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>781700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>933200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1017900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>685700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>131400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>177400</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>836300</v>
+        <v>977200</v>
       </c>
       <c r="E43" s="3">
-        <v>864600</v>
+        <v>780300</v>
       </c>
       <c r="F43" s="3">
-        <v>809500</v>
+        <v>806700</v>
       </c>
       <c r="G43" s="3">
-        <v>721000</v>
+        <v>755300</v>
       </c>
       <c r="H43" s="3">
-        <v>811100</v>
+        <v>672700</v>
       </c>
       <c r="I43" s="3">
-        <v>852600</v>
+        <v>756900</v>
       </c>
       <c r="J43" s="3">
+        <v>795600</v>
+      </c>
+      <c r="K43" s="3">
         <v>503300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>364200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>329000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>228600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>244700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>202700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>198900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>220300</v>
+        <v>195800</v>
       </c>
       <c r="E44" s="3">
-        <v>234300</v>
+        <v>205600</v>
       </c>
       <c r="F44" s="3">
-        <v>207600</v>
+        <v>218600</v>
       </c>
       <c r="G44" s="3">
-        <v>236800</v>
+        <v>193700</v>
       </c>
       <c r="H44" s="3">
-        <v>264900</v>
+        <v>221000</v>
       </c>
       <c r="I44" s="3">
-        <v>281600</v>
+        <v>247200</v>
       </c>
       <c r="J44" s="3">
+        <v>262800</v>
+      </c>
+      <c r="K44" s="3">
         <v>245800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>210300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>153900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>181600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>173500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>188300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>217500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>197600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>84000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>76900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>70800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>75700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>109200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>77000</v>
+      </c>
+      <c r="K45" s="3">
+        <v>87400</v>
+      </c>
+      <c r="L45" s="3">
+        <v>79500</v>
+      </c>
+      <c r="M45" s="3">
+        <v>81900</v>
+      </c>
+      <c r="N45" s="3">
+        <v>71900</v>
+      </c>
+      <c r="O45" s="3">
+        <v>77700</v>
+      </c>
+      <c r="P45" s="3">
+        <v>78500</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100700</v>
+      </c>
+      <c r="R45" s="3">
         <v>90000</v>
       </c>
-      <c r="E45" s="3">
-        <v>82400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>75900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>81100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>117000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>82500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>87400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>79500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>81900</v>
-      </c>
-      <c r="M45" s="3">
-        <v>71900</v>
-      </c>
-      <c r="N45" s="3">
-        <v>77700</v>
-      </c>
-      <c r="O45" s="3">
-        <v>78500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100700</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2763100</v>
+        <v>3768700</v>
       </c>
       <c r="E46" s="3">
-        <v>2988500</v>
+        <v>2578300</v>
       </c>
       <c r="F46" s="3">
-        <v>2880400</v>
+        <v>2788500</v>
       </c>
       <c r="G46" s="3">
-        <v>3132000</v>
+        <v>2687700</v>
       </c>
       <c r="H46" s="3">
-        <v>3818900</v>
+        <v>2922500</v>
       </c>
       <c r="I46" s="3">
-        <v>4039900</v>
+        <v>3563400</v>
       </c>
       <c r="J46" s="3">
+        <v>3769600</v>
+      </c>
+      <c r="K46" s="3">
         <v>2667400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2409700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2248900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2290600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2525400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1982300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1381300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1683100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1259300</v>
+        <v>1284400</v>
       </c>
       <c r="E47" s="3">
-        <v>1218100</v>
+        <v>1175000</v>
       </c>
       <c r="F47" s="3">
-        <v>1145200</v>
+        <v>1136600</v>
       </c>
       <c r="G47" s="3">
-        <v>1079200</v>
+        <v>1068600</v>
       </c>
       <c r="H47" s="3">
-        <v>967500</v>
+        <v>1007000</v>
       </c>
       <c r="I47" s="3">
-        <v>853400</v>
+        <v>902800</v>
       </c>
       <c r="J47" s="3">
+        <v>796300</v>
+      </c>
+      <c r="K47" s="3">
         <v>273400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>260100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>312600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>461900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>483900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>478000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>978200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>950200</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5783400</v>
+        <v>5394000</v>
       </c>
       <c r="E48" s="3">
-        <v>6144600</v>
+        <v>5396500</v>
       </c>
       <c r="F48" s="3">
-        <v>6089800</v>
+        <v>5733500</v>
       </c>
       <c r="G48" s="3">
-        <v>6032000</v>
+        <v>5668000</v>
       </c>
       <c r="H48" s="3">
-        <v>6072300</v>
+        <v>5628500</v>
       </c>
       <c r="I48" s="3">
-        <v>5999100</v>
+        <v>5666100</v>
       </c>
       <c r="J48" s="3">
+        <v>5597800</v>
+      </c>
+      <c r="K48" s="3">
         <v>5785300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6290300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4057400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4044900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4071700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4045000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4146800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4190200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1681300</v>
+        <v>1593600</v>
       </c>
       <c r="E49" s="3">
-        <v>1913900</v>
+        <v>1568900</v>
       </c>
       <c r="F49" s="3">
-        <v>1902000</v>
+        <v>1785900</v>
       </c>
       <c r="G49" s="3">
-        <v>1878500</v>
+        <v>1789200</v>
       </c>
       <c r="H49" s="3">
-        <v>1918000</v>
+        <v>1752800</v>
       </c>
       <c r="I49" s="3">
-        <v>1831800</v>
+        <v>1789700</v>
       </c>
       <c r="J49" s="3">
+        <v>1709300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1840100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1994200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1750600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1635500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1636200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1642600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1651800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1620100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>212400</v>
+        <v>205000</v>
       </c>
       <c r="E52" s="3">
-        <v>263100</v>
+        <v>198200</v>
       </c>
       <c r="F52" s="3">
-        <v>245900</v>
+        <v>245500</v>
       </c>
       <c r="G52" s="3">
-        <v>237500</v>
+        <v>229400</v>
       </c>
       <c r="H52" s="3">
-        <v>230400</v>
+        <v>221600</v>
       </c>
       <c r="I52" s="3">
-        <v>162300</v>
+        <v>215000</v>
       </c>
       <c r="J52" s="3">
+        <v>151400</v>
+      </c>
+      <c r="K52" s="3">
         <v>114900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>131300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>116900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>140000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>137800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>128600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>107000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11699500</v>
+        <v>12245700</v>
       </c>
       <c r="E54" s="3">
-        <v>12528100</v>
+        <v>10916800</v>
       </c>
       <c r="F54" s="3">
-        <v>12263400</v>
+        <v>11689900</v>
       </c>
       <c r="G54" s="3">
-        <v>12359300</v>
+        <v>11442900</v>
       </c>
       <c r="H54" s="3">
-        <v>13007100</v>
+        <v>11532400</v>
       </c>
       <c r="I54" s="3">
-        <v>12886400</v>
+        <v>12136900</v>
       </c>
       <c r="J54" s="3">
+        <v>12024300</v>
+      </c>
+      <c r="K54" s="3">
         <v>10681100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11085700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8486500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8573000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8855100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8276600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8265100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8552500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1019700</v>
+        <v>686700</v>
       </c>
       <c r="E57" s="3">
-        <v>931800</v>
+        <v>951500</v>
       </c>
       <c r="F57" s="3">
-        <v>1197100</v>
+        <v>869500</v>
       </c>
       <c r="G57" s="3">
-        <v>687100</v>
+        <v>1117000</v>
       </c>
       <c r="H57" s="3">
-        <v>761400</v>
+        <v>641100</v>
       </c>
       <c r="I57" s="3">
-        <v>786800</v>
+        <v>710500</v>
       </c>
       <c r="J57" s="3">
+        <v>734200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1322900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>666400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>745600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1162100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1201800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>595100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>645000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1132500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1235000</v>
+        <v>685600</v>
       </c>
       <c r="E58" s="3">
-        <v>1656600</v>
+        <v>1152400</v>
       </c>
       <c r="F58" s="3">
-        <v>1225900</v>
+        <v>1545800</v>
       </c>
       <c r="G58" s="3">
-        <v>840400</v>
+        <v>1143900</v>
       </c>
       <c r="H58" s="3">
-        <v>268000</v>
+        <v>784100</v>
       </c>
       <c r="I58" s="3">
-        <v>422900</v>
+        <v>250100</v>
       </c>
       <c r="J58" s="3">
+        <v>394600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1077500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1392200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>992900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>785100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>631000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>762100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>716600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>898700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2693400</v>
+        <v>2694100</v>
       </c>
       <c r="E59" s="3">
-        <v>2801500</v>
+        <v>2513200</v>
       </c>
       <c r="F59" s="3">
-        <v>2336500</v>
+        <v>2614100</v>
       </c>
       <c r="G59" s="3">
-        <v>2392900</v>
+        <v>2180200</v>
       </c>
       <c r="H59" s="3">
-        <v>3166200</v>
+        <v>2232800</v>
       </c>
       <c r="I59" s="3">
-        <v>2888200</v>
+        <v>2954400</v>
       </c>
       <c r="J59" s="3">
+        <v>2695000</v>
+      </c>
+      <c r="K59" s="3">
         <v>690200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>806400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>674200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>519200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>528000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>604200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>574600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>626700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4948100</v>
+        <v>4066400</v>
       </c>
       <c r="E60" s="3">
-        <v>5390000</v>
+        <v>4617100</v>
       </c>
       <c r="F60" s="3">
-        <v>4759500</v>
+        <v>5029400</v>
       </c>
       <c r="G60" s="3">
-        <v>3920300</v>
+        <v>4441100</v>
       </c>
       <c r="H60" s="3">
-        <v>4195700</v>
+        <v>3658100</v>
       </c>
       <c r="I60" s="3">
-        <v>4097900</v>
+        <v>3915000</v>
       </c>
       <c r="J60" s="3">
+        <v>3823800</v>
+      </c>
+      <c r="K60" s="3">
         <v>3090600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2865000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2412700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2466400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2360700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1961500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1936100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2657900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5845500</v>
+        <v>7021500</v>
       </c>
       <c r="E61" s="3">
-        <v>6019500</v>
+        <v>5454400</v>
       </c>
       <c r="F61" s="3">
-        <v>6474700</v>
+        <v>5616800</v>
       </c>
       <c r="G61" s="3">
-        <v>6982200</v>
+        <v>6041600</v>
       </c>
       <c r="H61" s="3">
-        <v>7239300</v>
+        <v>6515100</v>
       </c>
       <c r="I61" s="3">
-        <v>7161100</v>
+        <v>6755000</v>
       </c>
       <c r="J61" s="3">
+        <v>6682000</v>
+      </c>
+      <c r="K61" s="3">
         <v>5556600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5585300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3682100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3647600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3938600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3550100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3599400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3304700</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>389200</v>
+        <v>395100</v>
       </c>
       <c r="E62" s="3">
-        <v>442000</v>
+        <v>363100</v>
       </c>
       <c r="F62" s="3">
-        <v>453500</v>
+        <v>412400</v>
       </c>
       <c r="G62" s="3">
-        <v>452400</v>
+        <v>423200</v>
       </c>
       <c r="H62" s="3">
-        <v>470700</v>
+        <v>422100</v>
       </c>
       <c r="I62" s="3">
-        <v>604400</v>
+        <v>439200</v>
       </c>
       <c r="J62" s="3">
+        <v>564000</v>
+      </c>
+      <c r="K62" s="3">
         <v>436300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>490800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>478900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>530800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>543700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>540500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>544400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>538500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11230000</v>
+        <v>11529300</v>
       </c>
       <c r="E66" s="3">
-        <v>11909300</v>
+        <v>10478700</v>
       </c>
       <c r="F66" s="3">
-        <v>11741900</v>
+        <v>11112600</v>
       </c>
       <c r="G66" s="3">
-        <v>11422700</v>
+        <v>10956400</v>
       </c>
       <c r="H66" s="3">
-        <v>12080200</v>
+        <v>10658500</v>
       </c>
       <c r="I66" s="3">
-        <v>12038100</v>
+        <v>11272000</v>
       </c>
       <c r="J66" s="3">
+        <v>11232700</v>
+      </c>
+      <c r="K66" s="3">
         <v>9129500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9007600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6636500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6705300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6901300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6127900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6151500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6570400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>1315100</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="3">
-        <v>1367000</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="E72" s="3">
+        <v>1227200</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="3">
-        <v>1560300</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="G72" s="3">
+        <v>1275600</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="I72" s="3">
+        <v>1455900</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>1971900</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2189700</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2103500</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2119000</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>469600</v>
+        <v>716400</v>
       </c>
       <c r="E76" s="3">
-        <v>618800</v>
+        <v>438200</v>
       </c>
       <c r="F76" s="3">
-        <v>521500</v>
+        <v>577400</v>
       </c>
       <c r="G76" s="3">
-        <v>936600</v>
+        <v>486600</v>
       </c>
       <c r="H76" s="3">
-        <v>926900</v>
+        <v>873900</v>
       </c>
       <c r="I76" s="3">
-        <v>848300</v>
+        <v>864900</v>
       </c>
       <c r="J76" s="3">
+        <v>791600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1551600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2078100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1849900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1867800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1953700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2148700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2113600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1982100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>78800</v>
+        <v>235100</v>
       </c>
       <c r="E81" s="3">
-        <v>261200</v>
+        <v>73500</v>
       </c>
       <c r="F81" s="3">
-        <v>180400</v>
+        <v>243700</v>
       </c>
       <c r="G81" s="3">
-        <v>249800</v>
+        <v>168400</v>
       </c>
       <c r="H81" s="3">
-        <v>201100</v>
+        <v>233100</v>
       </c>
       <c r="I81" s="3">
-        <v>-525700</v>
+        <v>187700</v>
       </c>
       <c r="J81" s="3">
+        <v>-490500</v>
+      </c>
+      <c r="K81" s="3">
         <v>202800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>243500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>444000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>276500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>419000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>192200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>378100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>378100</v>
+        <v>327300</v>
       </c>
       <c r="E83" s="3">
-        <v>382400</v>
+        <v>352800</v>
       </c>
       <c r="F83" s="3">
-        <v>383000</v>
+        <v>356800</v>
       </c>
       <c r="G83" s="3">
-        <v>375100</v>
+        <v>357400</v>
       </c>
       <c r="H83" s="3">
-        <v>376700</v>
+        <v>350000</v>
       </c>
       <c r="I83" s="3">
-        <v>375700</v>
+        <v>351500</v>
       </c>
       <c r="J83" s="3">
+        <v>350500</v>
+      </c>
+      <c r="K83" s="3">
         <v>373300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>399800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>610900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>308800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>619800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>310000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>640300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>516900</v>
+        <v>523400</v>
       </c>
       <c r="E89" s="3">
-        <v>928600</v>
+        <v>482300</v>
       </c>
       <c r="F89" s="3">
-        <v>297500</v>
+        <v>866500</v>
       </c>
       <c r="G89" s="3">
-        <v>-228500</v>
+        <v>277600</v>
       </c>
       <c r="H89" s="3">
-        <v>627200</v>
+        <v>-213200</v>
       </c>
       <c r="I89" s="3">
-        <v>570300</v>
+        <v>585200</v>
       </c>
       <c r="J89" s="3">
+        <v>532100</v>
+      </c>
+      <c r="K89" s="3">
         <v>488000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>563600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1228400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>571400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>999100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>512900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1015400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>625800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-333200</v>
+        <v>-190300</v>
       </c>
       <c r="E91" s="3">
-        <v>-248300</v>
+        <v>-310900</v>
       </c>
       <c r="F91" s="3">
-        <v>-213800</v>
+        <v>-231700</v>
       </c>
       <c r="G91" s="3">
-        <v>-176900</v>
+        <v>-199500</v>
       </c>
       <c r="H91" s="3">
-        <v>-285000</v>
+        <v>-165100</v>
       </c>
       <c r="I91" s="3">
-        <v>-240100</v>
+        <v>-265900</v>
       </c>
       <c r="J91" s="3">
+        <v>-224000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-208100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-206800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-520500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-256600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-301300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-117700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-666100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-275400</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>45400</v>
+        <v>-241700</v>
       </c>
       <c r="E94" s="3">
-        <v>-289800</v>
+        <v>42300</v>
       </c>
       <c r="F94" s="3">
-        <v>-216200</v>
+        <v>-270400</v>
       </c>
       <c r="G94" s="3">
-        <v>41000</v>
+        <v>-201800</v>
       </c>
       <c r="H94" s="3">
-        <v>-384400</v>
+        <v>38300</v>
       </c>
       <c r="I94" s="3">
-        <v>-18800</v>
+        <v>-358700</v>
       </c>
       <c r="J94" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-655000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-61100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-438100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-241700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-817200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-285300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-448800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,31 +4614,32 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-226700</v>
+        <v>-303700</v>
       </c>
       <c r="E96" s="3">
-        <v>-518900</v>
+        <v>-211500</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-484100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-68300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-642400</v>
+        <v>-63700</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-599500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4423,13 +4657,16 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-801600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-439400</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-747300</v>
+        <v>540700</v>
       </c>
       <c r="E100" s="3">
-        <v>-624600</v>
+        <v>-697300</v>
       </c>
       <c r="F100" s="3">
-        <v>-295300</v>
+        <v>-582800</v>
       </c>
       <c r="G100" s="3">
-        <v>-43100</v>
+        <v>-275500</v>
       </c>
       <c r="H100" s="3">
-        <v>-497900</v>
+        <v>-40200</v>
       </c>
       <c r="I100" s="3">
-        <v>63400</v>
+        <v>-464600</v>
       </c>
       <c r="J100" s="3">
+        <v>59200</v>
+      </c>
+      <c r="K100" s="3">
         <v>147000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-89700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-844500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-492200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>67600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-99000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-637500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-435000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20100</v>
+        <v>13500</v>
       </c>
       <c r="E101" s="3">
-        <v>3900</v>
+        <v>-18700</v>
       </c>
       <c r="F101" s="3">
-        <v>-500</v>
+        <v>3700</v>
       </c>
       <c r="G101" s="3">
-        <v>-21100</v>
+        <v>-400</v>
       </c>
       <c r="H101" s="3">
-        <v>12700</v>
+        <v>-19700</v>
       </c>
       <c r="I101" s="3">
-        <v>7800</v>
+        <v>11900</v>
       </c>
       <c r="J101" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K101" s="3">
         <v>25200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-22500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-205200</v>
+        <v>836000</v>
       </c>
       <c r="E102" s="3">
-        <v>18100</v>
+        <v>-191400</v>
       </c>
       <c r="F102" s="3">
-        <v>-214500</v>
+        <v>16900</v>
       </c>
       <c r="G102" s="3">
-        <v>-251800</v>
+        <v>-200100</v>
       </c>
       <c r="H102" s="3">
-        <v>-242400</v>
+        <v>-234900</v>
       </c>
       <c r="I102" s="3">
-        <v>622700</v>
+        <v>-226200</v>
       </c>
       <c r="J102" s="3">
+        <v>581000</v>
+      </c>
+      <c r="K102" s="3">
         <v>5200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>415900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-56800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-167000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>243400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>106000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-98500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>175100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>MBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1584800</v>
+        <v>1702100</v>
       </c>
       <c r="E8" s="3">
-        <v>1312400</v>
+        <v>1552900</v>
       </c>
       <c r="F8" s="3">
-        <v>1773900</v>
+        <v>1577600</v>
       </c>
       <c r="G8" s="3">
-        <v>1539200</v>
+        <v>1306500</v>
       </c>
       <c r="H8" s="3">
-        <v>1455300</v>
+        <v>1623000</v>
       </c>
       <c r="I8" s="3">
+        <v>1532200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1448700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1341400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1695400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1623700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1704100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3563400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1764300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3257400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1612100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3331500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1702900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>592400</v>
+        <v>651100</v>
       </c>
       <c r="E9" s="3">
-        <v>538400</v>
+        <v>581600</v>
       </c>
       <c r="F9" s="3">
-        <v>650100</v>
+        <v>589700</v>
       </c>
       <c r="G9" s="3">
-        <v>582800</v>
+        <v>535900</v>
       </c>
       <c r="H9" s="3">
-        <v>532900</v>
+        <v>607200</v>
       </c>
       <c r="I9" s="3">
+        <v>580100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>530500</v>
+      </c>
+      <c r="K9" s="3">
         <v>557300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>654700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>572900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>574300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1379600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>664200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1229200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>609400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1325300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>676300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>992400</v>
+        <v>1051000</v>
       </c>
       <c r="E10" s="3">
-        <v>774100</v>
+        <v>971200</v>
       </c>
       <c r="F10" s="3">
-        <v>1123900</v>
+        <v>987900</v>
       </c>
       <c r="G10" s="3">
-        <v>956400</v>
+        <v>770500</v>
       </c>
       <c r="H10" s="3">
-        <v>922400</v>
+        <v>1015800</v>
       </c>
       <c r="I10" s="3">
+        <v>952100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>918200</v>
+      </c>
+      <c r="K10" s="3">
         <v>784100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1040700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1050800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1129900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2183800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1100200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2028300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1002700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2006200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1026700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1042,126 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>101100</v>
+      </c>
+      <c r="F14" s="3">
         <v>4200</v>
       </c>
-      <c r="E14" s="3">
-        <v>100800</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>100300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>37800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>50500</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>38000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>50500</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>58100</v>
+      </c>
+      <c r="P14" s="3">
+        <v>17600</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>58100</v>
-      </c>
-      <c r="N14" s="3">
-        <v>17600</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>327300</v>
+        <v>334400</v>
       </c>
       <c r="E15" s="3">
-        <v>211400</v>
+        <v>325100</v>
       </c>
       <c r="F15" s="3">
-        <v>356800</v>
+        <v>325800</v>
       </c>
       <c r="G15" s="3">
-        <v>320100</v>
+        <v>210500</v>
       </c>
       <c r="H15" s="3">
-        <v>312700</v>
+        <v>317300</v>
       </c>
       <c r="I15" s="3">
+        <v>318600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>311300</v>
+      </c>
+      <c r="K15" s="3">
         <v>229500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>350500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>373300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>399800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>610900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>308800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>619800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>310000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>614800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1233400</v>
+        <v>1264100</v>
       </c>
       <c r="E17" s="3">
-        <v>1042800</v>
+        <v>1210100</v>
       </c>
       <c r="F17" s="3">
-        <v>1298500</v>
+        <v>1227800</v>
       </c>
       <c r="G17" s="3">
-        <v>1180000</v>
+        <v>1038000</v>
       </c>
       <c r="H17" s="3">
-        <v>1095800</v>
+        <v>1192600</v>
       </c>
       <c r="I17" s="3">
+        <v>1174600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1090900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1052900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1260300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1231800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1280900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2785300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1339700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2555600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1277700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2624300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1336300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>351400</v>
+        <v>438000</v>
       </c>
       <c r="E18" s="3">
-        <v>269700</v>
+        <v>342700</v>
       </c>
       <c r="F18" s="3">
-        <v>475500</v>
+        <v>349900</v>
       </c>
       <c r="G18" s="3">
-        <v>359200</v>
+        <v>268400</v>
       </c>
       <c r="H18" s="3">
-        <v>359400</v>
+        <v>430400</v>
       </c>
       <c r="I18" s="3">
+        <v>357600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>357800</v>
+      </c>
+      <c r="K18" s="3">
         <v>288500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>435200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>391900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>423200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>778100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>424600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>701900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>334400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>707200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>366600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1311,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-58000</v>
+        <v>-118500</v>
       </c>
       <c r="E20" s="3">
-        <v>-178500</v>
+        <v>-149300</v>
       </c>
       <c r="F20" s="3">
-        <v>-142500</v>
+        <v>-57700</v>
       </c>
       <c r="G20" s="3">
-        <v>-165300</v>
+        <v>-177700</v>
       </c>
       <c r="H20" s="3">
-        <v>-135100</v>
+        <v>-141200</v>
       </c>
       <c r="I20" s="3">
+        <v>-164500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-134500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-116900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-95700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-132500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-103000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-152100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-60800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-164100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-83800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-136400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-66600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>620700</v>
+        <v>653900</v>
       </c>
       <c r="E21" s="3">
-        <v>444000</v>
+        <v>518600</v>
       </c>
       <c r="F21" s="3">
-        <v>689800</v>
+        <v>617900</v>
       </c>
       <c r="G21" s="3">
-        <v>551400</v>
+        <v>441900</v>
       </c>
       <c r="H21" s="3">
-        <v>574400</v>
+        <v>644500</v>
       </c>
       <c r="I21" s="3">
+        <v>548900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>571800</v>
+      </c>
+      <c r="K21" s="3">
         <v>523000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>690000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>632700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>720000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1236800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>672600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1157600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>560600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1211100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>630800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1377,11 +1457,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1389,114 +1469,132 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>293400</v>
+        <v>319500</v>
       </c>
       <c r="E23" s="3">
-        <v>91200</v>
+        <v>193400</v>
       </c>
       <c r="F23" s="3">
-        <v>332900</v>
+        <v>292100</v>
       </c>
       <c r="G23" s="3">
-        <v>193900</v>
+        <v>90800</v>
       </c>
       <c r="H23" s="3">
-        <v>224400</v>
+        <v>289200</v>
       </c>
       <c r="I23" s="3">
+        <v>193100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>223300</v>
+      </c>
+      <c r="K23" s="3">
         <v>171500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>339500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>259400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>320200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>625900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>363900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>537800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>250600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>570800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>61300</v>
+        <v>74800</v>
       </c>
       <c r="E24" s="3">
-        <v>22200</v>
+        <v>60700</v>
       </c>
       <c r="F24" s="3">
-        <v>85600</v>
+        <v>61100</v>
       </c>
       <c r="G24" s="3">
-        <v>41700</v>
+        <v>22100</v>
       </c>
       <c r="H24" s="3">
-        <v>49600</v>
+        <v>74900</v>
       </c>
       <c r="I24" s="3">
+        <v>41500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K24" s="3">
         <v>7700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>82400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>54600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>75000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>177400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>85200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>114800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>56600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>127800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>232100</v>
+        <v>244700</v>
       </c>
       <c r="E26" s="3">
-        <v>69000</v>
+        <v>132700</v>
       </c>
       <c r="F26" s="3">
-        <v>247300</v>
+        <v>231100</v>
       </c>
       <c r="G26" s="3">
-        <v>152300</v>
+        <v>68700</v>
       </c>
       <c r="H26" s="3">
-        <v>174800</v>
+        <v>214400</v>
       </c>
       <c r="I26" s="3">
+        <v>151600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>174000</v>
+      </c>
+      <c r="K26" s="3">
         <v>163900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>257100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>204800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>245200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>448500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>278600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>423000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>194000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>443000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>235800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>229800</v>
+        <v>242400</v>
       </c>
       <c r="E27" s="3">
-        <v>66400</v>
+        <v>130800</v>
       </c>
       <c r="F27" s="3">
-        <v>243700</v>
+        <v>228700</v>
       </c>
       <c r="G27" s="3">
-        <v>150100</v>
+        <v>66100</v>
       </c>
       <c r="H27" s="3">
-        <v>171700</v>
+        <v>210800</v>
       </c>
       <c r="I27" s="3">
+        <v>149400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>171000</v>
+      </c>
+      <c r="K27" s="3">
         <v>163000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>248200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>202800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>243500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>444000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>276500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>419000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>192200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>439200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,58 +1811,70 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>5300</v>
+        <v>5800</v>
       </c>
       <c r="E29" s="3">
-        <v>7100</v>
+        <v>24200</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="G29" s="3">
-        <v>18300</v>
+        <v>7000</v>
       </c>
       <c r="H29" s="3">
-        <v>61400</v>
+        <v>31900</v>
       </c>
       <c r="I29" s="3">
+        <v>18200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>61100</v>
+      </c>
+      <c r="K29" s="3">
         <v>24600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-738700</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-61000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-43900</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>58000</v>
+        <v>118500</v>
       </c>
       <c r="E32" s="3">
-        <v>178500</v>
+        <v>149300</v>
       </c>
       <c r="F32" s="3">
-        <v>142500</v>
+        <v>57700</v>
       </c>
       <c r="G32" s="3">
-        <v>165300</v>
+        <v>177700</v>
       </c>
       <c r="H32" s="3">
-        <v>135100</v>
+        <v>141200</v>
       </c>
       <c r="I32" s="3">
+        <v>164500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>134500</v>
+      </c>
+      <c r="K32" s="3">
         <v>116900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>95700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>132500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>103000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>152100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>60800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>164100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>83800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>136400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>66600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>235100</v>
+        <v>248200</v>
       </c>
       <c r="E33" s="3">
-        <v>73500</v>
+        <v>155000</v>
       </c>
       <c r="F33" s="3">
-        <v>243700</v>
+        <v>234000</v>
       </c>
       <c r="G33" s="3">
-        <v>168400</v>
+        <v>73200</v>
       </c>
       <c r="H33" s="3">
-        <v>233100</v>
+        <v>242600</v>
       </c>
       <c r="I33" s="3">
+        <v>167600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>232100</v>
+      </c>
+      <c r="K33" s="3">
         <v>187700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-490500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>202800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>243500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>444000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>276500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>419000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>192200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>378100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>235100</v>
+        <v>248200</v>
       </c>
       <c r="E35" s="3">
-        <v>73500</v>
+        <v>155000</v>
       </c>
       <c r="F35" s="3">
-        <v>243700</v>
+        <v>234000</v>
       </c>
       <c r="G35" s="3">
-        <v>168400</v>
+        <v>73200</v>
       </c>
       <c r="H35" s="3">
-        <v>233100</v>
+        <v>242600</v>
       </c>
       <c r="I35" s="3">
+        <v>167600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>232100</v>
+      </c>
+      <c r="K35" s="3">
         <v>187700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-490500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>202800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>243500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>444000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>276500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>419000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>192200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>378100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2312,514 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1340400</v>
+        <v>1090100</v>
       </c>
       <c r="E41" s="3">
-        <v>504400</v>
+        <v>1296000</v>
       </c>
       <c r="F41" s="3">
-        <v>695900</v>
+        <v>1334300</v>
       </c>
       <c r="G41" s="3">
-        <v>679000</v>
+        <v>502100</v>
       </c>
       <c r="H41" s="3">
-        <v>879100</v>
+        <v>692700</v>
       </c>
       <c r="I41" s="3">
+        <v>675900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>875100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1114000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1340200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>813500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>898800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>471000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>360800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>527800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>390400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>280400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>553900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>675400</v>
+        <v>658900</v>
       </c>
       <c r="E42" s="3">
-        <v>532300</v>
+        <v>620200</v>
       </c>
       <c r="F42" s="3">
-        <v>487200</v>
+        <v>672300</v>
       </c>
       <c r="G42" s="3">
-        <v>498500</v>
+        <v>529900</v>
       </c>
       <c r="H42" s="3">
-        <v>603500</v>
+        <v>485000</v>
       </c>
       <c r="I42" s="3">
+        <v>496200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>600700</v>
+      </c>
+      <c r="K42" s="3">
         <v>878500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>933000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>591400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>416100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>781700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>933200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1017900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>685700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>131400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>177400</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>977200</v>
+        <v>913300</v>
       </c>
       <c r="E43" s="3">
-        <v>780300</v>
+        <v>838300</v>
       </c>
       <c r="F43" s="3">
-        <v>806700</v>
+        <v>972800</v>
       </c>
       <c r="G43" s="3">
-        <v>755300</v>
+        <v>776800</v>
       </c>
       <c r="H43" s="3">
-        <v>672700</v>
+        <v>803100</v>
       </c>
       <c r="I43" s="3">
+        <v>751900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>669700</v>
+      </c>
+      <c r="K43" s="3">
         <v>756900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>795600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>503300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>364200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>329000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>228600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>244700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>202700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>198900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>195800</v>
+        <v>210600</v>
       </c>
       <c r="E44" s="3">
-        <v>205600</v>
+        <v>238300</v>
       </c>
       <c r="F44" s="3">
-        <v>218600</v>
+        <v>194900</v>
       </c>
       <c r="G44" s="3">
-        <v>193700</v>
+        <v>204600</v>
       </c>
       <c r="H44" s="3">
-        <v>221000</v>
+        <v>217600</v>
       </c>
       <c r="I44" s="3">
+        <v>192900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>220000</v>
+      </c>
+      <c r="K44" s="3">
         <v>247200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>262800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>245800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>210300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>153900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>181600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>173500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>188300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>217500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>197600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>73300</v>
+        <v>76300</v>
       </c>
       <c r="E45" s="3">
-        <v>84000</v>
+        <v>74400</v>
       </c>
       <c r="F45" s="3">
-        <v>76900</v>
+        <v>73000</v>
       </c>
       <c r="G45" s="3">
-        <v>70800</v>
+        <v>83600</v>
       </c>
       <c r="H45" s="3">
-        <v>75700</v>
+        <v>76500</v>
       </c>
       <c r="I45" s="3">
+        <v>70500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K45" s="3">
         <v>109200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>77000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>87400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>79500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>81900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>71900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>77700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>78500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>100700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3768700</v>
+        <v>3434500</v>
       </c>
       <c r="E46" s="3">
-        <v>2578300</v>
+        <v>3549800</v>
       </c>
       <c r="F46" s="3">
-        <v>2788500</v>
+        <v>3751700</v>
       </c>
       <c r="G46" s="3">
-        <v>2687700</v>
+        <v>2566600</v>
       </c>
       <c r="H46" s="3">
-        <v>2922500</v>
+        <v>2775900</v>
       </c>
       <c r="I46" s="3">
+        <v>2675600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2909300</v>
+      </c>
+      <c r="K46" s="3">
         <v>3563400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3769600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2667400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2409700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2248900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2290600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2525400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1982300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1381300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1683100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1284400</v>
+        <v>1302800</v>
       </c>
       <c r="E47" s="3">
-        <v>1175000</v>
+        <v>1231200</v>
       </c>
       <c r="F47" s="3">
-        <v>1136600</v>
+        <v>1278600</v>
       </c>
       <c r="G47" s="3">
-        <v>1068600</v>
+        <v>1169700</v>
       </c>
       <c r="H47" s="3">
-        <v>1007000</v>
+        <v>1131400</v>
       </c>
       <c r="I47" s="3">
+        <v>1063800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1002500</v>
+      </c>
+      <c r="K47" s="3">
         <v>902800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>796300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>273400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>260100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>312600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>461900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>483900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>478000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>978200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>950200</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5394000</v>
+        <v>5351700</v>
       </c>
       <c r="E48" s="3">
-        <v>5396500</v>
+        <v>5333300</v>
       </c>
       <c r="F48" s="3">
-        <v>5733500</v>
+        <v>5369600</v>
       </c>
       <c r="G48" s="3">
-        <v>5668000</v>
+        <v>5372000</v>
       </c>
       <c r="H48" s="3">
-        <v>5628500</v>
+        <v>5707500</v>
       </c>
       <c r="I48" s="3">
+        <v>5642300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5603000</v>
+      </c>
+      <c r="K48" s="3">
         <v>5666100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5597800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5785300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6290300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4057400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4044900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4071700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4045000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>4146800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>4190200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1593600</v>
+        <v>1627800</v>
       </c>
       <c r="E49" s="3">
-        <v>1568900</v>
+        <v>1586800</v>
       </c>
       <c r="F49" s="3">
-        <v>1785900</v>
+        <v>1586300</v>
       </c>
       <c r="G49" s="3">
-        <v>1789200</v>
+        <v>1561700</v>
       </c>
       <c r="H49" s="3">
-        <v>1752800</v>
+        <v>1777800</v>
       </c>
       <c r="I49" s="3">
+        <v>1781100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1744900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1789700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1709300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1840100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1994200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1750600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1635500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1636200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1642600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1651800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1620100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>205000</v>
+        <v>211200</v>
       </c>
       <c r="E52" s="3">
-        <v>198200</v>
+        <v>202100</v>
       </c>
       <c r="F52" s="3">
-        <v>245500</v>
+        <v>204000</v>
       </c>
       <c r="G52" s="3">
-        <v>229400</v>
+        <v>197300</v>
       </c>
       <c r="H52" s="3">
-        <v>221600</v>
+        <v>244400</v>
       </c>
       <c r="I52" s="3">
+        <v>228400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>220600</v>
+      </c>
+      <c r="K52" s="3">
         <v>215000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>151400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>114900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>131300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>116900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>140000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>137800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>128600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>107000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12245700</v>
+        <v>11928000</v>
       </c>
       <c r="E54" s="3">
-        <v>10916800</v>
+        <v>11903200</v>
       </c>
       <c r="F54" s="3">
-        <v>11689900</v>
+        <v>12190200</v>
       </c>
       <c r="G54" s="3">
-        <v>11442900</v>
+        <v>10867400</v>
       </c>
       <c r="H54" s="3">
-        <v>11532400</v>
+        <v>11637000</v>
       </c>
       <c r="I54" s="3">
+        <v>11391100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>11480200</v>
+      </c>
+      <c r="K54" s="3">
         <v>12136900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12024300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10681100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11085700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8486500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8573000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8855100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8276600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8265100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>8552500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3140,346 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>686700</v>
+        <v>918600</v>
       </c>
       <c r="E57" s="3">
-        <v>951500</v>
+        <v>1153600</v>
       </c>
       <c r="F57" s="3">
-        <v>869500</v>
+        <v>683600</v>
       </c>
       <c r="G57" s="3">
-        <v>1117000</v>
+        <v>947100</v>
       </c>
       <c r="H57" s="3">
-        <v>641100</v>
+        <v>865600</v>
       </c>
       <c r="I57" s="3">
+        <v>1111900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>638200</v>
+      </c>
+      <c r="K57" s="3">
         <v>710500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>734200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1322900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>666400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>745600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1162100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1201800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>595100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>645000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1132500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>685600</v>
+        <v>537000</v>
       </c>
       <c r="E58" s="3">
-        <v>1152400</v>
+        <v>377400</v>
       </c>
       <c r="F58" s="3">
-        <v>1545800</v>
+        <v>682500</v>
       </c>
       <c r="G58" s="3">
-        <v>1143900</v>
+        <v>1147200</v>
       </c>
       <c r="H58" s="3">
-        <v>784100</v>
+        <v>1538800</v>
       </c>
       <c r="I58" s="3">
+        <v>1138700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>780600</v>
+      </c>
+      <c r="K58" s="3">
         <v>250100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>394600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1077500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1392200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>992900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>785100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>631000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>762100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>716600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>898700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2694100</v>
+        <v>2726600</v>
       </c>
       <c r="E59" s="3">
-        <v>2513200</v>
+        <v>2548000</v>
       </c>
       <c r="F59" s="3">
-        <v>2614100</v>
+        <v>2681900</v>
       </c>
       <c r="G59" s="3">
-        <v>2180200</v>
+        <v>2501800</v>
       </c>
       <c r="H59" s="3">
-        <v>2232800</v>
+        <v>2602300</v>
       </c>
       <c r="I59" s="3">
+        <v>2170300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2222700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2954400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2695000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>690200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>806400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>674200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>519200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>528000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>604200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>574600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>626700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4066400</v>
+        <v>4182200</v>
       </c>
       <c r="E60" s="3">
-        <v>4617100</v>
+        <v>4079100</v>
       </c>
       <c r="F60" s="3">
-        <v>5029400</v>
+        <v>4048000</v>
       </c>
       <c r="G60" s="3">
-        <v>4441100</v>
+        <v>4596100</v>
       </c>
       <c r="H60" s="3">
-        <v>3658100</v>
+        <v>5006600</v>
       </c>
       <c r="I60" s="3">
+        <v>4421000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3641500</v>
+      </c>
+      <c r="K60" s="3">
         <v>3915000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3823800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3090600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2865000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2412700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2466400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2360700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1961500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1936100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2657900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7021500</v>
+        <v>6959000</v>
       </c>
       <c r="E61" s="3">
-        <v>5454400</v>
+        <v>7039000</v>
       </c>
       <c r="F61" s="3">
-        <v>5616800</v>
+        <v>6989700</v>
       </c>
       <c r="G61" s="3">
-        <v>6041600</v>
+        <v>5429700</v>
       </c>
       <c r="H61" s="3">
-        <v>6515100</v>
+        <v>5591300</v>
       </c>
       <c r="I61" s="3">
+        <v>6014200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>6485600</v>
+      </c>
+      <c r="K61" s="3">
         <v>6755000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6682000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5556600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5585300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3682100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3647600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3938600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3550100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3599400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3304700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>395100</v>
+        <v>387500</v>
       </c>
       <c r="E62" s="3">
-        <v>363100</v>
+        <v>379200</v>
       </c>
       <c r="F62" s="3">
-        <v>412400</v>
+        <v>393400</v>
       </c>
       <c r="G62" s="3">
-        <v>423200</v>
+        <v>361500</v>
       </c>
       <c r="H62" s="3">
-        <v>422100</v>
+        <v>410600</v>
       </c>
       <c r="I62" s="3">
+        <v>421200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>420200</v>
+      </c>
+      <c r="K62" s="3">
         <v>439200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>564000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>436300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>490800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>478900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>530800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>543700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>540500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>544400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>538500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11529300</v>
+        <v>11579200</v>
       </c>
       <c r="E66" s="3">
-        <v>10478700</v>
+        <v>11545300</v>
       </c>
       <c r="F66" s="3">
-        <v>11112600</v>
+        <v>11477100</v>
       </c>
       <c r="G66" s="3">
-        <v>10956400</v>
+        <v>10431200</v>
       </c>
       <c r="H66" s="3">
-        <v>10658500</v>
+        <v>11062300</v>
       </c>
       <c r="I66" s="3">
+        <v>10906700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>10610200</v>
+      </c>
+      <c r="K66" s="3">
         <v>11272000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11232700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9129500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9007600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6636500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6705300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6901300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6127900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6151500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6570400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3942,14 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3609,49 +3957,55 @@
         <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>1227200</v>
+        <v>1151800</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="3">
-        <v>1275600</v>
+        <v>1221600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="3">
-        <v>1455900</v>
+        <v>1269800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K72" s="3">
-        <v>1971900</v>
+        <v>1455900</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M72" s="3">
-        <v>2189700</v>
+        <v>1971900</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O72" s="3">
-        <v>2103500</v>
+        <v>2189700</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q72" s="3">
-        <v>2119000</v>
+        <v>2103500</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>2119000</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>716400</v>
+        <v>348900</v>
       </c>
       <c r="E76" s="3">
-        <v>438200</v>
+        <v>357900</v>
       </c>
       <c r="F76" s="3">
-        <v>577400</v>
+        <v>713100</v>
       </c>
       <c r="G76" s="3">
-        <v>486600</v>
+        <v>436200</v>
       </c>
       <c r="H76" s="3">
-        <v>873900</v>
+        <v>574700</v>
       </c>
       <c r="I76" s="3">
+        <v>484400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>870000</v>
+      </c>
+      <c r="K76" s="3">
         <v>864900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>791600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1551600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2078100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1849900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1867800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1953700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2148700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2113600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1982100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>235100</v>
+        <v>248200</v>
       </c>
       <c r="E81" s="3">
-        <v>73500</v>
+        <v>155000</v>
       </c>
       <c r="F81" s="3">
-        <v>243700</v>
+        <v>234000</v>
       </c>
       <c r="G81" s="3">
-        <v>168400</v>
+        <v>73200</v>
       </c>
       <c r="H81" s="3">
-        <v>233100</v>
+        <v>242600</v>
       </c>
       <c r="I81" s="3">
+        <v>167600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>232100</v>
+      </c>
+      <c r="K81" s="3">
         <v>187700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-490500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>202800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>243500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>444000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>276500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>419000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>192200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>378100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4421,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>327300</v>
+        <v>334400</v>
       </c>
       <c r="E83" s="3">
-        <v>352800</v>
+        <v>325100</v>
       </c>
       <c r="F83" s="3">
-        <v>356800</v>
+        <v>325800</v>
       </c>
       <c r="G83" s="3">
-        <v>357400</v>
+        <v>351200</v>
       </c>
       <c r="H83" s="3">
-        <v>350000</v>
+        <v>355200</v>
       </c>
       <c r="I83" s="3">
+        <v>355800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>348500</v>
+      </c>
+      <c r="K83" s="3">
         <v>351500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>350500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>373300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>399800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>610900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>308800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>619800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>310000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>640300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>523400</v>
+        <v>587700</v>
       </c>
       <c r="E89" s="3">
-        <v>482300</v>
+        <v>330600</v>
       </c>
       <c r="F89" s="3">
-        <v>866500</v>
+        <v>521100</v>
       </c>
       <c r="G89" s="3">
-        <v>277600</v>
+        <v>480100</v>
       </c>
       <c r="H89" s="3">
-        <v>-213200</v>
+        <v>862500</v>
       </c>
       <c r="I89" s="3">
+        <v>276400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-212300</v>
+      </c>
+      <c r="K89" s="3">
         <v>585200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>532100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>488000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>563600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1228400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>571400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>999100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>512900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1015400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>625800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-190300</v>
+        <v>-218100</v>
       </c>
       <c r="E91" s="3">
-        <v>-310900</v>
+        <v>-180600</v>
       </c>
       <c r="F91" s="3">
-        <v>-231700</v>
+        <v>-189400</v>
       </c>
       <c r="G91" s="3">
-        <v>-199500</v>
+        <v>-309500</v>
       </c>
       <c r="H91" s="3">
-        <v>-165100</v>
+        <v>-230700</v>
       </c>
       <c r="I91" s="3">
+        <v>-198600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-164300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-265900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-224000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-208100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-206800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-520500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-256600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-301300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-117700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-666100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-275400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-272100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-161200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-240600</v>
+      </c>
+      <c r="G94" s="3">
+        <v>42100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-269200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-200800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-358700</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-655000</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-438100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-241700</v>
       </c>
-      <c r="E94" s="3">
-        <v>42300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-270400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-201800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>38300</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-358700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-655000</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-61100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-438100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-241700</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-817200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-285300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-448800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,38 +5081,40 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-303700</v>
+        <v>-480500</v>
       </c>
       <c r="E96" s="3">
-        <v>-211500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-484100</v>
+        <v>-302300</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-210600</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-481900</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-63700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-599500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4660,13 +5128,19 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-801600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-439400</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5301,178 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>540700</v>
+        <v>-563600</v>
       </c>
       <c r="E100" s="3">
-        <v>-697300</v>
+        <v>-177000</v>
       </c>
       <c r="F100" s="3">
-        <v>-582800</v>
+        <v>538300</v>
       </c>
       <c r="G100" s="3">
-        <v>-275500</v>
+        <v>-694200</v>
       </c>
       <c r="H100" s="3">
-        <v>-40200</v>
+        <v>-580200</v>
       </c>
       <c r="I100" s="3">
+        <v>-274300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-464600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>59200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>147000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-89700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-844500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-492200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>67600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-99000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-637500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-435000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="F101" s="3">
         <v>13500</v>
       </c>
-      <c r="E101" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="H101" s="3">
         <v>3700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
-        <v>-19700</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="K101" s="3">
         <v>11900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>7300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>25200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-4500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-6200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-27500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>836000</v>
+        <v>-205800</v>
       </c>
       <c r="E102" s="3">
-        <v>-191400</v>
+        <v>-38400</v>
       </c>
       <c r="F102" s="3">
-        <v>16900</v>
+        <v>832200</v>
       </c>
       <c r="G102" s="3">
-        <v>-200100</v>
+        <v>-190600</v>
       </c>
       <c r="H102" s="3">
-        <v>-234900</v>
+        <v>16800</v>
       </c>
       <c r="I102" s="3">
+        <v>-199200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-233800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-226200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>581000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>5200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>415900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-56800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-167000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>243400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>106000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-98500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>175100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>MBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1702100</v>
+        <v>1690300</v>
       </c>
       <c r="E8" s="3">
-        <v>1552900</v>
+        <v>1697000</v>
       </c>
       <c r="F8" s="3">
-        <v>1577600</v>
+        <v>1548100</v>
       </c>
       <c r="G8" s="3">
-        <v>1306500</v>
+        <v>1572800</v>
       </c>
       <c r="H8" s="3">
-        <v>1623000</v>
+        <v>1598500</v>
       </c>
       <c r="I8" s="3">
-        <v>1532200</v>
+        <v>1618000</v>
       </c>
       <c r="J8" s="3">
+        <v>1527600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1448700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1341400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1695400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1623700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1704100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3563400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1764300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3257400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1612100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3331500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1702900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>651100</v>
+        <v>621400</v>
       </c>
       <c r="E9" s="3">
-        <v>581600</v>
+        <v>649100</v>
       </c>
       <c r="F9" s="3">
-        <v>589700</v>
+        <v>579800</v>
       </c>
       <c r="G9" s="3">
-        <v>535900</v>
+        <v>587900</v>
       </c>
       <c r="H9" s="3">
-        <v>607200</v>
+        <v>561400</v>
       </c>
       <c r="I9" s="3">
-        <v>580100</v>
+        <v>605300</v>
       </c>
       <c r="J9" s="3">
+        <v>578400</v>
+      </c>
+      <c r="K9" s="3">
         <v>530500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>557300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>654700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>572900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>574300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1379600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>664200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1229200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>609400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1325300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>676300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1051000</v>
+        <v>1068900</v>
       </c>
       <c r="E10" s="3">
-        <v>971200</v>
+        <v>1047800</v>
       </c>
       <c r="F10" s="3">
-        <v>987900</v>
+        <v>968300</v>
       </c>
       <c r="G10" s="3">
-        <v>770500</v>
+        <v>984900</v>
       </c>
       <c r="H10" s="3">
-        <v>1015800</v>
+        <v>1037100</v>
       </c>
       <c r="I10" s="3">
-        <v>952100</v>
+        <v>1012700</v>
       </c>
       <c r="J10" s="3">
+        <v>949200</v>
+      </c>
+      <c r="K10" s="3">
         <v>918200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>784100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1040700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1050800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1129900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2183800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1100200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2028300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1002700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2006200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1026700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>167100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
-        <v>101100</v>
-      </c>
       <c r="F14" s="3">
+        <v>100800</v>
+      </c>
+      <c r="G14" s="3">
         <v>4200</v>
       </c>
-      <c r="G14" s="3">
-        <v>100300</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>99600</v>
       </c>
       <c r="I14" s="3">
-        <v>37800</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>37600</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>50500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>58100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>17600</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>334400</v>
+        <v>335700</v>
       </c>
       <c r="E15" s="3">
-        <v>325100</v>
+        <v>333400</v>
       </c>
       <c r="F15" s="3">
-        <v>325800</v>
+        <v>324200</v>
       </c>
       <c r="G15" s="3">
-        <v>210500</v>
+        <v>324800</v>
       </c>
       <c r="H15" s="3">
-        <v>317300</v>
+        <v>320600</v>
       </c>
       <c r="I15" s="3">
-        <v>318600</v>
+        <v>316400</v>
       </c>
       <c r="J15" s="3">
+        <v>317600</v>
+      </c>
+      <c r="K15" s="3">
         <v>311300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>229500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>350500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>373300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>399800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>610900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>308800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>619800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>310000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>614800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1264100</v>
+        <v>1332900</v>
       </c>
       <c r="E17" s="3">
-        <v>1210100</v>
+        <v>1260300</v>
       </c>
       <c r="F17" s="3">
-        <v>1227800</v>
+        <v>1206500</v>
       </c>
       <c r="G17" s="3">
-        <v>1038000</v>
+        <v>1224100</v>
       </c>
       <c r="H17" s="3">
-        <v>1192600</v>
+        <v>1221000</v>
       </c>
       <c r="I17" s="3">
-        <v>1174600</v>
+        <v>1188900</v>
       </c>
       <c r="J17" s="3">
+        <v>1171100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1090900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1052900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1260300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1231800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1280900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2785300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1339700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2555600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1277700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2624300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1336300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>438000</v>
+        <v>357400</v>
       </c>
       <c r="E18" s="3">
-        <v>342700</v>
+        <v>436700</v>
       </c>
       <c r="F18" s="3">
-        <v>349900</v>
+        <v>341700</v>
       </c>
       <c r="G18" s="3">
-        <v>268400</v>
+        <v>348800</v>
       </c>
       <c r="H18" s="3">
-        <v>430400</v>
+        <v>377500</v>
       </c>
       <c r="I18" s="3">
-        <v>357600</v>
+        <v>429100</v>
       </c>
       <c r="J18" s="3">
+        <v>356500</v>
+      </c>
+      <c r="K18" s="3">
         <v>357800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>288500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>435200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>391900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>423200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>778100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>424600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>701900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>334400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>707200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>366600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-118500</v>
+        <v>-139800</v>
       </c>
       <c r="E20" s="3">
-        <v>-149300</v>
+        <v>-118100</v>
       </c>
       <c r="F20" s="3">
-        <v>-57700</v>
+        <v>-148800</v>
       </c>
       <c r="G20" s="3">
-        <v>-177700</v>
+        <v>-57600</v>
       </c>
       <c r="H20" s="3">
-        <v>-141200</v>
+        <v>-183700</v>
       </c>
       <c r="I20" s="3">
-        <v>-164500</v>
+        <v>-140700</v>
       </c>
       <c r="J20" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-134500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-116900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-95700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-132500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-103000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-152100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-60800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-164100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-83800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-136400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-66600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>653900</v>
+        <v>552900</v>
       </c>
       <c r="E21" s="3">
-        <v>518600</v>
+        <v>652000</v>
       </c>
       <c r="F21" s="3">
-        <v>617900</v>
+        <v>517000</v>
       </c>
       <c r="G21" s="3">
-        <v>441900</v>
+        <v>616100</v>
       </c>
       <c r="H21" s="3">
-        <v>644500</v>
+        <v>543900</v>
       </c>
       <c r="I21" s="3">
-        <v>548900</v>
+        <v>642500</v>
       </c>
       <c r="J21" s="3">
+        <v>547200</v>
+      </c>
+      <c r="K21" s="3">
         <v>571800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>523000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>690000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>632700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>720000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1236800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>672600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1157600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>560600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1211100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>630800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1463,8 +1502,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1475,126 +1514,135 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>319500</v>
+        <v>217600</v>
       </c>
       <c r="E23" s="3">
-        <v>193400</v>
+        <v>318600</v>
       </c>
       <c r="F23" s="3">
-        <v>292100</v>
+        <v>192800</v>
       </c>
       <c r="G23" s="3">
-        <v>90800</v>
+        <v>291200</v>
       </c>
       <c r="H23" s="3">
-        <v>289200</v>
+        <v>193800</v>
       </c>
       <c r="I23" s="3">
-        <v>193100</v>
+        <v>288400</v>
       </c>
       <c r="J23" s="3">
+        <v>192500</v>
+      </c>
+      <c r="K23" s="3">
         <v>223300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>171500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>339500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>259400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>320200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>625900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>363900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>537800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>250600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>570800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>74800</v>
+        <v>16000</v>
       </c>
       <c r="E24" s="3">
-        <v>60700</v>
+        <v>74600</v>
       </c>
       <c r="F24" s="3">
-        <v>61100</v>
+        <v>60500</v>
       </c>
       <c r="G24" s="3">
-        <v>22100</v>
+        <v>60900</v>
       </c>
       <c r="H24" s="3">
-        <v>74900</v>
+        <v>40800</v>
       </c>
       <c r="I24" s="3">
-        <v>41500</v>
+        <v>74700</v>
       </c>
       <c r="J24" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K24" s="3">
         <v>49400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>82400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>54600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>75000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>177400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>85200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>114800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>56600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>127800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>244700</v>
+        <v>201500</v>
       </c>
       <c r="E26" s="3">
-        <v>132700</v>
+        <v>244000</v>
       </c>
       <c r="F26" s="3">
-        <v>231100</v>
+        <v>132300</v>
       </c>
       <c r="G26" s="3">
-        <v>68700</v>
+        <v>230400</v>
       </c>
       <c r="H26" s="3">
-        <v>214400</v>
+        <v>153100</v>
       </c>
       <c r="I26" s="3">
-        <v>151600</v>
+        <v>213700</v>
       </c>
       <c r="J26" s="3">
+        <v>151100</v>
+      </c>
+      <c r="K26" s="3">
         <v>174000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>163900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>257100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>204800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>245200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>448500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>278600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>423000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>194000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>443000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>235800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>242400</v>
+        <v>199300</v>
       </c>
       <c r="E27" s="3">
-        <v>130800</v>
+        <v>241700</v>
       </c>
       <c r="F27" s="3">
-        <v>228700</v>
+        <v>130400</v>
       </c>
       <c r="G27" s="3">
-        <v>66100</v>
+        <v>228000</v>
       </c>
       <c r="H27" s="3">
-        <v>210800</v>
+        <v>150500</v>
       </c>
       <c r="I27" s="3">
-        <v>149400</v>
+        <v>210100</v>
       </c>
       <c r="J27" s="3">
+        <v>148900</v>
+      </c>
+      <c r="K27" s="3">
         <v>171000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>163000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>248200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>202800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>243500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>444000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>276500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>419000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>192200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>439200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,64 +1874,70 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E29" s="3">
         <v>5800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>24200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>5200</v>
       </c>
-      <c r="G29" s="3">
-        <v>7000</v>
-      </c>
       <c r="H29" s="3">
-        <v>31900</v>
+        <v>-77600</v>
       </c>
       <c r="I29" s="3">
-        <v>18200</v>
+        <v>31800</v>
       </c>
       <c r="J29" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K29" s="3">
         <v>61100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>24600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-738700</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-61000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-43900</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>118500</v>
+        <v>139800</v>
       </c>
       <c r="E32" s="3">
-        <v>149300</v>
+        <v>118100</v>
       </c>
       <c r="F32" s="3">
-        <v>57700</v>
+        <v>148800</v>
       </c>
       <c r="G32" s="3">
-        <v>177700</v>
+        <v>57600</v>
       </c>
       <c r="H32" s="3">
-        <v>141200</v>
+        <v>183700</v>
       </c>
       <c r="I32" s="3">
-        <v>164500</v>
+        <v>140700</v>
       </c>
       <c r="J32" s="3">
+        <v>164000</v>
+      </c>
+      <c r="K32" s="3">
         <v>134500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>116900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>95700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>132500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>103000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>152100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>60800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>164100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>83800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>136400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>66600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>248200</v>
+        <v>172300</v>
       </c>
       <c r="E33" s="3">
-        <v>155000</v>
+        <v>247500</v>
       </c>
       <c r="F33" s="3">
-        <v>234000</v>
+        <v>154600</v>
       </c>
       <c r="G33" s="3">
-        <v>73200</v>
+        <v>233300</v>
       </c>
       <c r="H33" s="3">
-        <v>242600</v>
+        <v>72900</v>
       </c>
       <c r="I33" s="3">
-        <v>167600</v>
+        <v>241900</v>
       </c>
       <c r="J33" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K33" s="3">
         <v>232100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>187700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-490500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>202800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>243500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>444000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>276500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>419000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>192200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>378100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>248200</v>
+        <v>172300</v>
       </c>
       <c r="E35" s="3">
-        <v>155000</v>
+        <v>247500</v>
       </c>
       <c r="F35" s="3">
-        <v>234000</v>
+        <v>154600</v>
       </c>
       <c r="G35" s="3">
-        <v>73200</v>
+        <v>233300</v>
       </c>
       <c r="H35" s="3">
-        <v>242600</v>
+        <v>72900</v>
       </c>
       <c r="I35" s="3">
-        <v>167600</v>
+        <v>241900</v>
       </c>
       <c r="J35" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K35" s="3">
         <v>232100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>187700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-490500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>202800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>243500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>444000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>276500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>419000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>192200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>378100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1090100</v>
+        <v>1123100</v>
       </c>
       <c r="E41" s="3">
-        <v>1296000</v>
+        <v>1086800</v>
       </c>
       <c r="F41" s="3">
-        <v>1334300</v>
+        <v>1292000</v>
       </c>
       <c r="G41" s="3">
-        <v>502100</v>
+        <v>1330300</v>
       </c>
       <c r="H41" s="3">
-        <v>692700</v>
+        <v>500600</v>
       </c>
       <c r="I41" s="3">
-        <v>675900</v>
+        <v>690600</v>
       </c>
       <c r="J41" s="3">
+        <v>673800</v>
+      </c>
+      <c r="K41" s="3">
         <v>875100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1114000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1340200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>813500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>898800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>471000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>360800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>527800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>390400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>280400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>553900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>658900</v>
+        <v>623400</v>
       </c>
       <c r="E42" s="3">
-        <v>620200</v>
+        <v>656900</v>
       </c>
       <c r="F42" s="3">
-        <v>672300</v>
+        <v>618300</v>
       </c>
       <c r="G42" s="3">
-        <v>529900</v>
+        <v>670300</v>
       </c>
       <c r="H42" s="3">
-        <v>485000</v>
+        <v>528300</v>
       </c>
       <c r="I42" s="3">
-        <v>496200</v>
+        <v>483500</v>
       </c>
       <c r="J42" s="3">
+        <v>494700</v>
+      </c>
+      <c r="K42" s="3">
         <v>600700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>878500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>933000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>591400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>416100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>781700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>933200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1017900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>685700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>131400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>177400</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>913300</v>
+        <v>988800</v>
       </c>
       <c r="E43" s="3">
-        <v>838300</v>
+        <v>910600</v>
       </c>
       <c r="F43" s="3">
-        <v>972800</v>
+        <v>835700</v>
       </c>
       <c r="G43" s="3">
-        <v>776800</v>
+        <v>969900</v>
       </c>
       <c r="H43" s="3">
-        <v>803100</v>
+        <v>774400</v>
       </c>
       <c r="I43" s="3">
-        <v>751900</v>
+        <v>800600</v>
       </c>
       <c r="J43" s="3">
+        <v>749600</v>
+      </c>
+      <c r="K43" s="3">
         <v>669700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>756900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>795600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>503300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>364200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>329000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>228600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>244700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>202700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>198900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>210600</v>
+        <v>199900</v>
       </c>
       <c r="E44" s="3">
-        <v>238300</v>
+        <v>210000</v>
       </c>
       <c r="F44" s="3">
-        <v>194900</v>
+        <v>237600</v>
       </c>
       <c r="G44" s="3">
-        <v>204600</v>
+        <v>194300</v>
       </c>
       <c r="H44" s="3">
-        <v>217600</v>
+        <v>204000</v>
       </c>
       <c r="I44" s="3">
-        <v>192900</v>
+        <v>217000</v>
       </c>
       <c r="J44" s="3">
+        <v>192300</v>
+      </c>
+      <c r="K44" s="3">
         <v>220000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>247200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>262800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>245800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>210300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>153900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>181600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>173500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>188300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>217500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>197600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>76100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>74200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>72800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>83400</v>
+      </c>
+      <c r="I45" s="3">
         <v>76300</v>
       </c>
-      <c r="E45" s="3">
-        <v>74400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>73000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>83600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>76500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>70500</v>
-      </c>
       <c r="J45" s="3">
+        <v>70200</v>
+      </c>
+      <c r="K45" s="3">
         <v>75300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>109200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>77000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>87400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>79500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>81900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>71900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>77700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>78500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3434500</v>
+        <v>3450000</v>
       </c>
       <c r="E46" s="3">
-        <v>3549800</v>
+        <v>3424100</v>
       </c>
       <c r="F46" s="3">
-        <v>3751700</v>
+        <v>3539000</v>
       </c>
       <c r="G46" s="3">
-        <v>2566600</v>
+        <v>3740300</v>
       </c>
       <c r="H46" s="3">
-        <v>2775900</v>
+        <v>2558800</v>
       </c>
       <c r="I46" s="3">
-        <v>2675600</v>
+        <v>2767500</v>
       </c>
       <c r="J46" s="3">
+        <v>2667400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2909300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3563400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3769600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2667400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2409700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2248900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2290600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2525400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1982300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1381300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1683100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1302800</v>
+        <v>1275300</v>
       </c>
       <c r="E47" s="3">
-        <v>1231200</v>
+        <v>1298800</v>
       </c>
       <c r="F47" s="3">
-        <v>1278600</v>
+        <v>1227500</v>
       </c>
       <c r="G47" s="3">
-        <v>1169700</v>
+        <v>1274700</v>
       </c>
       <c r="H47" s="3">
-        <v>1131400</v>
+        <v>1166100</v>
       </c>
       <c r="I47" s="3">
-        <v>1063800</v>
+        <v>1128000</v>
       </c>
       <c r="J47" s="3">
+        <v>1060600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1002500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>902800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>796300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>273400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>260100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>312600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>461900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>483900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>478000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>978200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>950200</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5351700</v>
+        <v>5486100</v>
       </c>
       <c r="E48" s="3">
-        <v>5333300</v>
+        <v>5335500</v>
       </c>
       <c r="F48" s="3">
-        <v>5369600</v>
+        <v>5317100</v>
       </c>
       <c r="G48" s="3">
-        <v>5372000</v>
+        <v>5353300</v>
       </c>
       <c r="H48" s="3">
-        <v>5707500</v>
+        <v>5355800</v>
       </c>
       <c r="I48" s="3">
-        <v>5642300</v>
+        <v>5690200</v>
       </c>
       <c r="J48" s="3">
+        <v>5625200</v>
+      </c>
+      <c r="K48" s="3">
         <v>5603000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5666100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5597800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5785300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6290300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4057400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4044900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4071700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4045000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4146800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4190200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1627800</v>
+        <v>1685100</v>
       </c>
       <c r="E49" s="3">
-        <v>1586800</v>
+        <v>1622900</v>
       </c>
       <c r="F49" s="3">
-        <v>1586300</v>
+        <v>1582000</v>
       </c>
       <c r="G49" s="3">
-        <v>1561700</v>
+        <v>1581500</v>
       </c>
       <c r="H49" s="3">
-        <v>1777800</v>
+        <v>1557000</v>
       </c>
       <c r="I49" s="3">
-        <v>1781100</v>
+        <v>1772400</v>
       </c>
       <c r="J49" s="3">
+        <v>1775700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1744900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1789700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1709300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1840100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1994200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1750600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1635500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1636200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1642600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1651800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1620100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>211200</v>
+        <v>191000</v>
       </c>
       <c r="E52" s="3">
-        <v>202100</v>
+        <v>210500</v>
       </c>
       <c r="F52" s="3">
-        <v>204000</v>
+        <v>201500</v>
       </c>
       <c r="G52" s="3">
-        <v>197300</v>
+        <v>203400</v>
       </c>
       <c r="H52" s="3">
-        <v>244400</v>
+        <v>196700</v>
       </c>
       <c r="I52" s="3">
-        <v>228400</v>
+        <v>243600</v>
       </c>
       <c r="J52" s="3">
+        <v>227700</v>
+      </c>
+      <c r="K52" s="3">
         <v>220600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>215000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>151400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>114900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>131300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>116900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>140000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>137800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>128600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>107000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11928000</v>
+        <v>12087500</v>
       </c>
       <c r="E54" s="3">
-        <v>11903200</v>
+        <v>11891900</v>
       </c>
       <c r="F54" s="3">
-        <v>12190200</v>
+        <v>11867100</v>
       </c>
       <c r="G54" s="3">
-        <v>10867400</v>
+        <v>12153200</v>
       </c>
       <c r="H54" s="3">
-        <v>11637000</v>
+        <v>10834400</v>
       </c>
       <c r="I54" s="3">
-        <v>11391100</v>
+        <v>11601700</v>
       </c>
       <c r="J54" s="3">
+        <v>11356600</v>
+      </c>
+      <c r="K54" s="3">
         <v>11480200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12136900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12024300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10681100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11085700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8486500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8573000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8855100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8276600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8265100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8552500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>918600</v>
+        <v>736600</v>
       </c>
       <c r="E57" s="3">
-        <v>1153600</v>
+        <v>915800</v>
       </c>
       <c r="F57" s="3">
-        <v>683600</v>
+        <v>1150100</v>
       </c>
       <c r="G57" s="3">
-        <v>947100</v>
+        <v>681600</v>
       </c>
       <c r="H57" s="3">
-        <v>865600</v>
+        <v>944300</v>
       </c>
       <c r="I57" s="3">
-        <v>1111900</v>
+        <v>862900</v>
       </c>
       <c r="J57" s="3">
+        <v>1108500</v>
+      </c>
+      <c r="K57" s="3">
         <v>638200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>710500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>734200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1322900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>666400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>745600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1162100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1201800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>595100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>645000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1132500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>537000</v>
+        <v>661500</v>
       </c>
       <c r="E58" s="3">
-        <v>377400</v>
+        <v>535400</v>
       </c>
       <c r="F58" s="3">
-        <v>682500</v>
+        <v>376300</v>
       </c>
       <c r="G58" s="3">
-        <v>1147200</v>
+        <v>680400</v>
       </c>
       <c r="H58" s="3">
-        <v>1538800</v>
+        <v>1143700</v>
       </c>
       <c r="I58" s="3">
-        <v>1138700</v>
+        <v>1534100</v>
       </c>
       <c r="J58" s="3">
+        <v>1135200</v>
+      </c>
+      <c r="K58" s="3">
         <v>780600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>250100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>394600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1077500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1392200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>992900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>785100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>631000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>762100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>716600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>898700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2726600</v>
+        <v>2923200</v>
       </c>
       <c r="E59" s="3">
-        <v>2548000</v>
+        <v>2718300</v>
       </c>
       <c r="F59" s="3">
-        <v>2681900</v>
+        <v>2540300</v>
       </c>
       <c r="G59" s="3">
-        <v>2501800</v>
+        <v>2673800</v>
       </c>
       <c r="H59" s="3">
-        <v>2602300</v>
+        <v>2494200</v>
       </c>
       <c r="I59" s="3">
-        <v>2170300</v>
+        <v>2594400</v>
       </c>
       <c r="J59" s="3">
+        <v>2163800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2222700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2954400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2695000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>690200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>806400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>674200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>519200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>528000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>604200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>574600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>626700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4182200</v>
+        <v>4321300</v>
       </c>
       <c r="E60" s="3">
-        <v>4079100</v>
+        <v>4169500</v>
       </c>
       <c r="F60" s="3">
-        <v>4048000</v>
+        <v>4066700</v>
       </c>
       <c r="G60" s="3">
-        <v>4596100</v>
+        <v>4035700</v>
       </c>
       <c r="H60" s="3">
-        <v>5006600</v>
+        <v>4582200</v>
       </c>
       <c r="I60" s="3">
-        <v>4421000</v>
+        <v>4991400</v>
       </c>
       <c r="J60" s="3">
+        <v>4407600</v>
+      </c>
+      <c r="K60" s="3">
         <v>3641500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3915000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3823800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3090600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2865000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2412700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2466400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2360700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1961500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1936100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2657900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6959000</v>
+        <v>6966600</v>
       </c>
       <c r="E61" s="3">
-        <v>7039000</v>
+        <v>6937900</v>
       </c>
       <c r="F61" s="3">
-        <v>6989700</v>
+        <v>7017600</v>
       </c>
       <c r="G61" s="3">
-        <v>5429700</v>
+        <v>6968500</v>
       </c>
       <c r="H61" s="3">
-        <v>5591300</v>
+        <v>5413200</v>
       </c>
       <c r="I61" s="3">
-        <v>6014200</v>
+        <v>5574400</v>
       </c>
       <c r="J61" s="3">
+        <v>5996000</v>
+      </c>
+      <c r="K61" s="3">
         <v>6485600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6755000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6682000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5556600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5585300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3682100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3647600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3938600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3550100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3599400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3304700</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>387500</v>
+        <v>369800</v>
       </c>
       <c r="E62" s="3">
-        <v>379200</v>
+        <v>386300</v>
       </c>
       <c r="F62" s="3">
-        <v>393400</v>
+        <v>378100</v>
       </c>
       <c r="G62" s="3">
-        <v>361500</v>
+        <v>392200</v>
       </c>
       <c r="H62" s="3">
-        <v>410600</v>
+        <v>360400</v>
       </c>
       <c r="I62" s="3">
-        <v>421200</v>
+        <v>409300</v>
       </c>
       <c r="J62" s="3">
+        <v>420000</v>
+      </c>
+      <c r="K62" s="3">
         <v>420200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>439200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>564000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>436300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>490800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>478900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>530800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>543700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>540500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>544400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>538500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11579200</v>
+        <v>11710100</v>
       </c>
       <c r="E66" s="3">
-        <v>11545300</v>
+        <v>11544000</v>
       </c>
       <c r="F66" s="3">
-        <v>11477100</v>
+        <v>11510300</v>
       </c>
       <c r="G66" s="3">
-        <v>10431200</v>
+        <v>11442300</v>
       </c>
       <c r="H66" s="3">
-        <v>11062300</v>
+        <v>10399600</v>
       </c>
       <c r="I66" s="3">
-        <v>10906700</v>
+        <v>11028700</v>
       </c>
       <c r="J66" s="3">
+        <v>10873700</v>
+      </c>
+      <c r="K66" s="3">
         <v>10610200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11272000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11232700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9129500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9007600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6636500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6705300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6901300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6127900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6151500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6570400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3">
+        <v>1359700</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3">
-        <v>1151800</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="3">
+        <v>1148300</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="3">
-        <v>1221600</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="3">
+        <v>1217900</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="3">
-        <v>1269800</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="3">
+        <v>1266000</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1455900</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1971900</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2189700</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2103500</v>
       </c>
-      <c r="R72" s="3" t="s">
+      <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2119000</v>
       </c>
-      <c r="T72" s="3" t="s">
+      <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>348900</v>
+        <v>377400</v>
       </c>
       <c r="E76" s="3">
-        <v>357900</v>
+        <v>347800</v>
       </c>
       <c r="F76" s="3">
-        <v>713100</v>
+        <v>356900</v>
       </c>
       <c r="G76" s="3">
-        <v>436200</v>
+        <v>711000</v>
       </c>
       <c r="H76" s="3">
-        <v>574700</v>
+        <v>434800</v>
       </c>
       <c r="I76" s="3">
-        <v>484400</v>
+        <v>573000</v>
       </c>
       <c r="J76" s="3">
+        <v>482900</v>
+      </c>
+      <c r="K76" s="3">
         <v>870000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>864900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>791600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1551600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2078100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1849900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1867800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1953700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2148700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2113600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1982100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>248200</v>
+        <v>172300</v>
       </c>
       <c r="E81" s="3">
-        <v>155000</v>
+        <v>247500</v>
       </c>
       <c r="F81" s="3">
-        <v>234000</v>
+        <v>154600</v>
       </c>
       <c r="G81" s="3">
-        <v>73200</v>
+        <v>233300</v>
       </c>
       <c r="H81" s="3">
-        <v>242600</v>
+        <v>72900</v>
       </c>
       <c r="I81" s="3">
-        <v>167600</v>
+        <v>241900</v>
       </c>
       <c r="J81" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K81" s="3">
         <v>232100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>187700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-490500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>202800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>243500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>444000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>276500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>419000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>192200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>378100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>334400</v>
+        <v>335300</v>
       </c>
       <c r="E83" s="3">
-        <v>325100</v>
+        <v>333400</v>
       </c>
       <c r="F83" s="3">
-        <v>325800</v>
+        <v>324200</v>
       </c>
       <c r="G83" s="3">
-        <v>351200</v>
+        <v>324800</v>
       </c>
       <c r="H83" s="3">
-        <v>355200</v>
+        <v>350100</v>
       </c>
       <c r="I83" s="3">
-        <v>355800</v>
+        <v>354100</v>
       </c>
       <c r="J83" s="3">
+        <v>354700</v>
+      </c>
+      <c r="K83" s="3">
         <v>348500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>351500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>350500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>373300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>399800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>610900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>308800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>619800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>310000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>640300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>587700</v>
+        <v>609900</v>
       </c>
       <c r="E89" s="3">
-        <v>330600</v>
+        <v>586000</v>
       </c>
       <c r="F89" s="3">
-        <v>521100</v>
+        <v>329600</v>
       </c>
       <c r="G89" s="3">
-        <v>480100</v>
+        <v>519500</v>
       </c>
       <c r="H89" s="3">
-        <v>862500</v>
+        <v>478700</v>
       </c>
       <c r="I89" s="3">
-        <v>276400</v>
+        <v>859900</v>
       </c>
       <c r="J89" s="3">
+        <v>275500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-212300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>585200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>532100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>488000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>563600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1228400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>571400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>999100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>512900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1015400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>625800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-218100</v>
+        <v>-284900</v>
       </c>
       <c r="E91" s="3">
-        <v>-180600</v>
+        <v>-217400</v>
       </c>
       <c r="F91" s="3">
-        <v>-189400</v>
+        <v>-180000</v>
       </c>
       <c r="G91" s="3">
-        <v>-309500</v>
+        <v>-188800</v>
       </c>
       <c r="H91" s="3">
-        <v>-230700</v>
+        <v>-308600</v>
       </c>
       <c r="I91" s="3">
-        <v>-198600</v>
+        <v>-230000</v>
       </c>
       <c r="J91" s="3">
+        <v>-198000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-164300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-265900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-224000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-208100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-206800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-520500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-256600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-301300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-117700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-666100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-275400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-272100</v>
+        <v>-395000</v>
       </c>
       <c r="E94" s="3">
-        <v>-161200</v>
+        <v>-271300</v>
       </c>
       <c r="F94" s="3">
-        <v>-240600</v>
+        <v>-160700</v>
       </c>
       <c r="G94" s="3">
-        <v>42100</v>
+        <v>-239900</v>
       </c>
       <c r="H94" s="3">
-        <v>-269200</v>
+        <v>42000</v>
       </c>
       <c r="I94" s="3">
-        <v>-200800</v>
+        <v>-268400</v>
       </c>
       <c r="J94" s="3">
+        <v>-200200</v>
+      </c>
+      <c r="K94" s="3">
         <v>38100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-358700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-655000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-61100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-438100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-241700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-817200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-285300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-448800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,41 +5315,42 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-204800</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-479000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-301400</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-209900</v>
+      </c>
+      <c r="I96" s="3">
         <v>-480500</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-302300</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-210600</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-481900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-63700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-599500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5134,13 +5367,16 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-801600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-439400</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-563600</v>
+        <v>-158100</v>
       </c>
       <c r="E100" s="3">
-        <v>-177000</v>
+        <v>-561900</v>
       </c>
       <c r="F100" s="3">
-        <v>538300</v>
+        <v>-176400</v>
       </c>
       <c r="G100" s="3">
-        <v>-694200</v>
+        <v>536600</v>
       </c>
       <c r="H100" s="3">
-        <v>-580200</v>
+        <v>-692100</v>
       </c>
       <c r="I100" s="3">
-        <v>-274300</v>
+        <v>-578400</v>
       </c>
       <c r="J100" s="3">
+        <v>-273500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-40000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-464600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>59200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>147000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-89700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-844500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-492200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>67600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-99000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-637500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-435000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>42100</v>
+        <v>-19700</v>
       </c>
       <c r="E101" s="3">
-        <v>-30800</v>
+        <v>42000</v>
       </c>
       <c r="F101" s="3">
-        <v>13500</v>
+        <v>-30700</v>
       </c>
       <c r="G101" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H101" s="3">
         <v>-18600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-19600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>25200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-22500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-27500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-205800</v>
+        <v>37100</v>
       </c>
       <c r="E102" s="3">
-        <v>-38400</v>
+        <v>-205200</v>
       </c>
       <c r="F102" s="3">
-        <v>832200</v>
+        <v>-38300</v>
       </c>
       <c r="G102" s="3">
-        <v>-190600</v>
+        <v>829700</v>
       </c>
       <c r="H102" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="I102" s="3">
         <v>16800</v>
       </c>
-      <c r="I102" s="3">
-        <v>-199200</v>
-      </c>
       <c r="J102" s="3">
+        <v>-198600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-233800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-226200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>581000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>415900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-56800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-167000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>243400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>106000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-98500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>175100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>MBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1690300</v>
+        <v>1686800</v>
       </c>
       <c r="E8" s="3">
-        <v>1697000</v>
+        <v>1749400</v>
       </c>
       <c r="F8" s="3">
-        <v>1548100</v>
+        <v>1756300</v>
       </c>
       <c r="G8" s="3">
-        <v>1572800</v>
+        <v>1602300</v>
       </c>
       <c r="H8" s="3">
-        <v>1598500</v>
+        <v>1598800</v>
       </c>
       <c r="I8" s="3">
-        <v>1618000</v>
+        <v>1654500</v>
       </c>
       <c r="J8" s="3">
+        <v>1674600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1527600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1448700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1341400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1695400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1623700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1704100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3563400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1764300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3257400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1612100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3331500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1702900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>621400</v>
+        <v>640000</v>
       </c>
       <c r="E9" s="3">
-        <v>649100</v>
+        <v>643200</v>
       </c>
       <c r="F9" s="3">
-        <v>579800</v>
+        <v>671900</v>
       </c>
       <c r="G9" s="3">
-        <v>587900</v>
+        <v>600100</v>
       </c>
       <c r="H9" s="3">
-        <v>561400</v>
+        <v>578600</v>
       </c>
       <c r="I9" s="3">
-        <v>605300</v>
+        <v>581100</v>
       </c>
       <c r="J9" s="3">
+        <v>626500</v>
+      </c>
+      <c r="K9" s="3">
         <v>578400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>530500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>557300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>654700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>572900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>574300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1379600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>664200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1229200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>609400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1325300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>676300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1068900</v>
+        <v>1046800</v>
       </c>
       <c r="E10" s="3">
-        <v>1047800</v>
+        <v>1106300</v>
       </c>
       <c r="F10" s="3">
-        <v>968300</v>
+        <v>1084500</v>
       </c>
       <c r="G10" s="3">
-        <v>984900</v>
+        <v>1002200</v>
       </c>
       <c r="H10" s="3">
-        <v>1037100</v>
+        <v>1020200</v>
       </c>
       <c r="I10" s="3">
-        <v>1012700</v>
+        <v>1073400</v>
       </c>
       <c r="J10" s="3">
+        <v>1048100</v>
+      </c>
+      <c r="K10" s="3">
         <v>949200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>918200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>784100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1040700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1050800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1129900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2183800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1100200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2028300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1002700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2006200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1026700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>167100</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>173000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
-        <v>100800</v>
-      </c>
       <c r="G14" s="3">
-        <v>4200</v>
+        <v>104400</v>
       </c>
       <c r="H14" s="3">
-        <v>99600</v>
+        <v>4300</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>103100</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>37600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>50500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>58100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>17600</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>335700</v>
+        <v>364500</v>
       </c>
       <c r="E15" s="3">
-        <v>333400</v>
+        <v>347400</v>
       </c>
       <c r="F15" s="3">
-        <v>324200</v>
+        <v>345100</v>
       </c>
       <c r="G15" s="3">
-        <v>324800</v>
+        <v>335500</v>
       </c>
       <c r="H15" s="3">
-        <v>320600</v>
+        <v>335900</v>
       </c>
       <c r="I15" s="3">
-        <v>316400</v>
+        <v>331900</v>
       </c>
       <c r="J15" s="3">
+        <v>327400</v>
+      </c>
+      <c r="K15" s="3">
         <v>317600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>311300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>229500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>350500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>373300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>399800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>610900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>308800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>619800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>310000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>614800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1332900</v>
+        <v>1297900</v>
       </c>
       <c r="E17" s="3">
+        <v>1379600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1304400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1248700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1233100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1263800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1230500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1171100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1090900</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1052900</v>
+      </c>
+      <c r="N17" s="3">
         <v>1260300</v>
       </c>
-      <c r="F17" s="3">
-        <v>1206500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1224100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1221000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1188900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1171100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1090900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1052900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1260300</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1231800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1280900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2785300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1339700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2555600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1277700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2624300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1336300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>357400</v>
+        <v>389000</v>
       </c>
       <c r="E18" s="3">
-        <v>436700</v>
+        <v>369900</v>
       </c>
       <c r="F18" s="3">
-        <v>341700</v>
+        <v>452000</v>
       </c>
       <c r="G18" s="3">
-        <v>348800</v>
+        <v>353600</v>
       </c>
       <c r="H18" s="3">
-        <v>377500</v>
+        <v>365800</v>
       </c>
       <c r="I18" s="3">
-        <v>429100</v>
+        <v>390700</v>
       </c>
       <c r="J18" s="3">
+        <v>444100</v>
+      </c>
+      <c r="K18" s="3">
         <v>356500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>357800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>288500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>435200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>391900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>423200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>778100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>424600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>701900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>334400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>707200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>366600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-139800</v>
+        <v>-112500</v>
       </c>
       <c r="E20" s="3">
-        <v>-118100</v>
+        <v>-144700</v>
       </c>
       <c r="F20" s="3">
-        <v>-148800</v>
+        <v>-122300</v>
       </c>
       <c r="G20" s="3">
-        <v>-57600</v>
+        <v>-154100</v>
       </c>
       <c r="H20" s="3">
-        <v>-183700</v>
+        <v>-59400</v>
       </c>
       <c r="I20" s="3">
-        <v>-140700</v>
+        <v>-190100</v>
       </c>
       <c r="J20" s="3">
+        <v>-145700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-164000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-134500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-116900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-95700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-132500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-103000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-152100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-60800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-164100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-83800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-136400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-66600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>552900</v>
+        <v>641000</v>
       </c>
       <c r="E21" s="3">
-        <v>652000</v>
+        <v>572200</v>
       </c>
       <c r="F21" s="3">
-        <v>517000</v>
+        <v>674800</v>
       </c>
       <c r="G21" s="3">
-        <v>616100</v>
+        <v>535100</v>
       </c>
       <c r="H21" s="3">
-        <v>543900</v>
+        <v>642500</v>
       </c>
       <c r="I21" s="3">
-        <v>642500</v>
+        <v>563000</v>
       </c>
       <c r="J21" s="3">
+        <v>665000</v>
+      </c>
+      <c r="K21" s="3">
         <v>547200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>571800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>523000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>690000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>632700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>720000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1236800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>672600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1157600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>560600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1211100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>630800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1505,8 +1545,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1517,132 +1557,141 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>217600</v>
+        <v>276500</v>
       </c>
       <c r="E23" s="3">
-        <v>318600</v>
+        <v>225200</v>
       </c>
       <c r="F23" s="3">
-        <v>192800</v>
+        <v>329700</v>
       </c>
       <c r="G23" s="3">
-        <v>291200</v>
+        <v>199600</v>
       </c>
       <c r="H23" s="3">
-        <v>193800</v>
+        <v>306300</v>
       </c>
       <c r="I23" s="3">
-        <v>288400</v>
+        <v>200600</v>
       </c>
       <c r="J23" s="3">
+        <v>298500</v>
+      </c>
+      <c r="K23" s="3">
         <v>192500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>223300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>171500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>339500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>259400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>320200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>625900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>363900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>537800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>250600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>570800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16000</v>
+        <v>56000</v>
       </c>
       <c r="E24" s="3">
-        <v>74600</v>
+        <v>16600</v>
       </c>
       <c r="F24" s="3">
-        <v>60500</v>
+        <v>77200</v>
       </c>
       <c r="G24" s="3">
-        <v>60900</v>
+        <v>62700</v>
       </c>
       <c r="H24" s="3">
-        <v>40800</v>
+        <v>62800</v>
       </c>
       <c r="I24" s="3">
-        <v>74700</v>
+        <v>42200</v>
       </c>
       <c r="J24" s="3">
+        <v>77300</v>
+      </c>
+      <c r="K24" s="3">
         <v>41400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>49400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>82400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>54600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>75000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>177400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>85200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>114800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>56600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>127800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>201500</v>
+        <v>220500</v>
       </c>
       <c r="E26" s="3">
-        <v>244000</v>
+        <v>208600</v>
       </c>
       <c r="F26" s="3">
-        <v>132300</v>
+        <v>252500</v>
       </c>
       <c r="G26" s="3">
-        <v>230400</v>
+        <v>136900</v>
       </c>
       <c r="H26" s="3">
-        <v>153100</v>
+        <v>243500</v>
       </c>
       <c r="I26" s="3">
-        <v>213700</v>
+        <v>158400</v>
       </c>
       <c r="J26" s="3">
+        <v>221200</v>
+      </c>
+      <c r="K26" s="3">
         <v>151100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>174000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>163900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>257100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>204800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>245200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>448500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>278600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>423000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>194000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>443000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>235800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>199300</v>
+        <v>218100</v>
       </c>
       <c r="E27" s="3">
-        <v>241700</v>
+        <v>206300</v>
       </c>
       <c r="F27" s="3">
-        <v>130400</v>
+        <v>250200</v>
       </c>
       <c r="G27" s="3">
-        <v>228000</v>
+        <v>134900</v>
       </c>
       <c r="H27" s="3">
-        <v>150500</v>
+        <v>241100</v>
       </c>
       <c r="I27" s="3">
-        <v>210100</v>
+        <v>155800</v>
       </c>
       <c r="J27" s="3">
+        <v>217500</v>
+      </c>
+      <c r="K27" s="3">
         <v>148900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>171000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>163000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>248200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>202800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>243500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>444000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>276500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>419000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>192200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>439200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,67 +1935,73 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-27100</v>
+        <v>2000</v>
       </c>
       <c r="E29" s="3">
-        <v>5800</v>
+        <v>-28000</v>
       </c>
       <c r="F29" s="3">
-        <v>24200</v>
+        <v>6000</v>
       </c>
       <c r="G29" s="3">
-        <v>5200</v>
+        <v>25000</v>
       </c>
       <c r="H29" s="3">
-        <v>-77600</v>
+        <v>300</v>
       </c>
       <c r="I29" s="3">
-        <v>31800</v>
+        <v>-80300</v>
       </c>
       <c r="J29" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K29" s="3">
         <v>18100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>61100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>24600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-738700</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-61000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-43900</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>139800</v>
+        <v>112500</v>
       </c>
       <c r="E32" s="3">
-        <v>118100</v>
+        <v>144700</v>
       </c>
       <c r="F32" s="3">
-        <v>148800</v>
+        <v>122300</v>
       </c>
       <c r="G32" s="3">
-        <v>57600</v>
+        <v>154100</v>
       </c>
       <c r="H32" s="3">
-        <v>183700</v>
+        <v>59400</v>
       </c>
       <c r="I32" s="3">
-        <v>140700</v>
+        <v>190100</v>
       </c>
       <c r="J32" s="3">
+        <v>145700</v>
+      </c>
+      <c r="K32" s="3">
         <v>164000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>134500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>116900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>95700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>132500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>103000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>152100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>60800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>164100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>83800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>136400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>66600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>172300</v>
+        <v>220100</v>
       </c>
       <c r="E33" s="3">
-        <v>247500</v>
+        <v>178300</v>
       </c>
       <c r="F33" s="3">
-        <v>154600</v>
+        <v>256100</v>
       </c>
       <c r="G33" s="3">
-        <v>233300</v>
+        <v>160000</v>
       </c>
       <c r="H33" s="3">
-        <v>72900</v>
+        <v>241500</v>
       </c>
       <c r="I33" s="3">
-        <v>241900</v>
+        <v>75500</v>
       </c>
       <c r="J33" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K33" s="3">
         <v>167100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>232100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>187700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-490500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>202800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>243500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>444000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>276500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>419000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>192200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>378100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>172300</v>
+        <v>220100</v>
       </c>
       <c r="E35" s="3">
-        <v>247500</v>
+        <v>178300</v>
       </c>
       <c r="F35" s="3">
-        <v>154600</v>
+        <v>256100</v>
       </c>
       <c r="G35" s="3">
-        <v>233300</v>
+        <v>160000</v>
       </c>
       <c r="H35" s="3">
-        <v>72900</v>
+        <v>241500</v>
       </c>
       <c r="I35" s="3">
-        <v>241900</v>
+        <v>75500</v>
       </c>
       <c r="J35" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K35" s="3">
         <v>167100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>232100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>187700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-490500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>202800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>243500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>444000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>276500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>419000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>192200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>378100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1123100</v>
+        <v>779400</v>
       </c>
       <c r="E41" s="3">
-        <v>1086800</v>
+        <v>1162400</v>
       </c>
       <c r="F41" s="3">
-        <v>1292000</v>
+        <v>1124900</v>
       </c>
       <c r="G41" s="3">
-        <v>1330300</v>
+        <v>1337200</v>
       </c>
       <c r="H41" s="3">
-        <v>500600</v>
+        <v>1376800</v>
       </c>
       <c r="I41" s="3">
-        <v>690600</v>
+        <v>518100</v>
       </c>
       <c r="J41" s="3">
+        <v>714800</v>
+      </c>
+      <c r="K41" s="3">
         <v>673800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>875100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1114000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1340200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>813500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>898800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>471000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>360800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>527800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>390400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>280400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>553900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>623400</v>
+        <v>660500</v>
       </c>
       <c r="E42" s="3">
-        <v>656900</v>
+        <v>645200</v>
       </c>
       <c r="F42" s="3">
-        <v>618300</v>
+        <v>679800</v>
       </c>
       <c r="G42" s="3">
-        <v>670300</v>
+        <v>640000</v>
       </c>
       <c r="H42" s="3">
-        <v>528300</v>
+        <v>693700</v>
       </c>
       <c r="I42" s="3">
-        <v>483500</v>
+        <v>546800</v>
       </c>
       <c r="J42" s="3">
+        <v>500400</v>
+      </c>
+      <c r="K42" s="3">
         <v>494700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>600700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>878500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>933000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>591400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>416100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>781700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>933200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1017900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>685700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>131400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>177400</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>988800</v>
+        <v>1092300</v>
       </c>
       <c r="E43" s="3">
-        <v>910600</v>
+        <v>1023400</v>
       </c>
       <c r="F43" s="3">
-        <v>835700</v>
+        <v>942400</v>
       </c>
       <c r="G43" s="3">
-        <v>969900</v>
+        <v>865000</v>
       </c>
       <c r="H43" s="3">
-        <v>774400</v>
+        <v>1003800</v>
       </c>
       <c r="I43" s="3">
-        <v>800600</v>
+        <v>801500</v>
       </c>
       <c r="J43" s="3">
+        <v>828600</v>
+      </c>
+      <c r="K43" s="3">
         <v>749600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>669700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>756900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>795600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>503300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>364200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>329000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>228600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>244700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>202700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>198900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>199900</v>
+        <v>232900</v>
       </c>
       <c r="E44" s="3">
-        <v>210000</v>
+        <v>206900</v>
       </c>
       <c r="F44" s="3">
-        <v>237600</v>
+        <v>217400</v>
       </c>
       <c r="G44" s="3">
-        <v>194300</v>
+        <v>245900</v>
       </c>
       <c r="H44" s="3">
-        <v>204000</v>
+        <v>201100</v>
       </c>
       <c r="I44" s="3">
-        <v>217000</v>
+        <v>211200</v>
       </c>
       <c r="J44" s="3">
+        <v>224600</v>
+      </c>
+      <c r="K44" s="3">
         <v>192300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>220000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>247200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>262800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>245800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>210300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>153900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>181600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>173500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>188300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>217500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>197600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>82500</v>
+        <v>66800</v>
       </c>
       <c r="E45" s="3">
-        <v>76100</v>
+        <v>85400</v>
       </c>
       <c r="F45" s="3">
-        <v>74200</v>
+        <v>78800</v>
       </c>
       <c r="G45" s="3">
-        <v>72800</v>
+        <v>76800</v>
       </c>
       <c r="H45" s="3">
-        <v>83400</v>
+        <v>75300</v>
       </c>
       <c r="I45" s="3">
-        <v>76300</v>
+        <v>86300</v>
       </c>
       <c r="J45" s="3">
+        <v>79000</v>
+      </c>
+      <c r="K45" s="3">
         <v>70200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>75300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>109200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>77000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>87400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>79500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>81900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>71900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>77700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>78500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3450000</v>
+        <v>3302300</v>
       </c>
       <c r="E46" s="3">
-        <v>3424100</v>
+        <v>3570600</v>
       </c>
       <c r="F46" s="3">
-        <v>3539000</v>
+        <v>3543900</v>
       </c>
       <c r="G46" s="3">
-        <v>3740300</v>
+        <v>3662800</v>
       </c>
       <c r="H46" s="3">
-        <v>2558800</v>
+        <v>3871100</v>
       </c>
       <c r="I46" s="3">
-        <v>2767500</v>
+        <v>2648300</v>
       </c>
       <c r="J46" s="3">
+        <v>2864300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2667400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2909300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3563400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3769600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2667400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2409700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2248900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2290600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2525400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1982300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1381300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1683100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1275300</v>
+        <v>1433500</v>
       </c>
       <c r="E47" s="3">
-        <v>1298800</v>
+        <v>1319900</v>
       </c>
       <c r="F47" s="3">
-        <v>1227500</v>
+        <v>1344300</v>
       </c>
       <c r="G47" s="3">
-        <v>1274700</v>
+        <v>1270400</v>
       </c>
       <c r="H47" s="3">
-        <v>1166100</v>
+        <v>1319300</v>
       </c>
       <c r="I47" s="3">
-        <v>1128000</v>
+        <v>1206900</v>
       </c>
       <c r="J47" s="3">
+        <v>1167500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1060600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1002500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>902800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>796300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>273400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>260100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>312600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>461900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>483900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>478000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>978200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>950200</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5486100</v>
+        <v>5696100</v>
       </c>
       <c r="E48" s="3">
-        <v>5335500</v>
+        <v>5678000</v>
       </c>
       <c r="F48" s="3">
-        <v>5317100</v>
+        <v>5522100</v>
       </c>
       <c r="G48" s="3">
-        <v>5353300</v>
+        <v>5503100</v>
       </c>
       <c r="H48" s="3">
-        <v>5355800</v>
+        <v>5540600</v>
       </c>
       <c r="I48" s="3">
-        <v>5690200</v>
+        <v>5543100</v>
       </c>
       <c r="J48" s="3">
+        <v>5889300</v>
+      </c>
+      <c r="K48" s="3">
         <v>5625200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5603000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5666100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5597800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5785300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6290300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4057400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4044900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4071700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4045000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4146800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4190200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1685100</v>
+        <v>1733300</v>
       </c>
       <c r="E49" s="3">
-        <v>1622900</v>
+        <v>1744000</v>
       </c>
       <c r="F49" s="3">
-        <v>1582000</v>
+        <v>1679700</v>
       </c>
       <c r="G49" s="3">
-        <v>1581500</v>
+        <v>1637400</v>
       </c>
       <c r="H49" s="3">
-        <v>1557000</v>
+        <v>1636900</v>
       </c>
       <c r="I49" s="3">
-        <v>1772400</v>
+        <v>1611500</v>
       </c>
       <c r="J49" s="3">
+        <v>1834400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1775700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1744900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1789700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1709300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1840100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1994200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1750600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1635500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1636200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1642600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1651800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1620100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>191000</v>
+        <v>209000</v>
       </c>
       <c r="E52" s="3">
+        <v>197700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>217900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>208500</v>
+      </c>
+      <c r="H52" s="3">
         <v>210500</v>
       </c>
-      <c r="F52" s="3">
-        <v>201500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>203400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>196700</v>
-      </c>
       <c r="I52" s="3">
-        <v>243600</v>
+        <v>203600</v>
       </c>
       <c r="J52" s="3">
+        <v>252200</v>
+      </c>
+      <c r="K52" s="3">
         <v>227700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>220600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>215000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>151400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>114900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>131300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>116900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>140000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>137800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>128600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>107000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12087500</v>
+        <v>12374300</v>
       </c>
       <c r="E54" s="3">
-        <v>11891900</v>
+        <v>12510400</v>
       </c>
       <c r="F54" s="3">
-        <v>11867100</v>
+        <v>12307900</v>
       </c>
       <c r="G54" s="3">
-        <v>12153200</v>
+        <v>12282300</v>
       </c>
       <c r="H54" s="3">
-        <v>10834400</v>
+        <v>12578400</v>
       </c>
       <c r="I54" s="3">
-        <v>11601700</v>
+        <v>11213400</v>
       </c>
       <c r="J54" s="3">
+        <v>12007500</v>
+      </c>
+      <c r="K54" s="3">
         <v>11356600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11480200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12136900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12024300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10681100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11085700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8486500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8573000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8855100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8276600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8265100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8552500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>736600</v>
+        <v>681200</v>
       </c>
       <c r="E57" s="3">
-        <v>915800</v>
+        <v>762400</v>
       </c>
       <c r="F57" s="3">
-        <v>1150100</v>
+        <v>947800</v>
       </c>
       <c r="G57" s="3">
-        <v>681600</v>
+        <v>1190400</v>
       </c>
       <c r="H57" s="3">
-        <v>944300</v>
+        <v>705400</v>
       </c>
       <c r="I57" s="3">
-        <v>862900</v>
+        <v>977300</v>
       </c>
       <c r="J57" s="3">
+        <v>893100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1108500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>638200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>710500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>734200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1322900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>666400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>745600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1162100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1201800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>595100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>645000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1132500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>661500</v>
+        <v>748300</v>
       </c>
       <c r="E58" s="3">
-        <v>535400</v>
+        <v>684600</v>
       </c>
       <c r="F58" s="3">
-        <v>376300</v>
+        <v>554100</v>
       </c>
       <c r="G58" s="3">
-        <v>680400</v>
+        <v>389400</v>
       </c>
       <c r="H58" s="3">
-        <v>1143700</v>
+        <v>704200</v>
       </c>
       <c r="I58" s="3">
-        <v>1534100</v>
+        <v>1183700</v>
       </c>
       <c r="J58" s="3">
+        <v>1587800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1135200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>780600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>250100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>394600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1077500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1392200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>992900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>785100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>631000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>762100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>716600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>898700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2923200</v>
+        <v>2815800</v>
       </c>
       <c r="E59" s="3">
-        <v>2718300</v>
+        <v>3025400</v>
       </c>
       <c r="F59" s="3">
-        <v>2540300</v>
+        <v>2813400</v>
       </c>
       <c r="G59" s="3">
-        <v>2673800</v>
+        <v>2629200</v>
       </c>
       <c r="H59" s="3">
-        <v>2494200</v>
+        <v>2767300</v>
       </c>
       <c r="I59" s="3">
-        <v>2594400</v>
+        <v>2581500</v>
       </c>
       <c r="J59" s="3">
+        <v>2685100</v>
+      </c>
+      <c r="K59" s="3">
         <v>2163800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2222700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2954400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2695000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>690200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>806400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>674200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>519200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>528000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>604200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>574600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>626700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4321300</v>
+        <v>4245200</v>
       </c>
       <c r="E60" s="3">
-        <v>4169500</v>
+        <v>4472400</v>
       </c>
       <c r="F60" s="3">
-        <v>4066700</v>
+        <v>4315400</v>
       </c>
       <c r="G60" s="3">
-        <v>4035700</v>
+        <v>4209000</v>
       </c>
       <c r="H60" s="3">
-        <v>4582200</v>
+        <v>4176900</v>
       </c>
       <c r="I60" s="3">
-        <v>4991400</v>
+        <v>4742500</v>
       </c>
       <c r="J60" s="3">
+        <v>5166000</v>
+      </c>
+      <c r="K60" s="3">
         <v>4407600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3641500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3915000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3823800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3090600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2865000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2412700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2466400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2360700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1961500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1936100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2657900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6966600</v>
+        <v>7081600</v>
       </c>
       <c r="E61" s="3">
-        <v>6937900</v>
+        <v>7210300</v>
       </c>
       <c r="F61" s="3">
-        <v>7017600</v>
+        <v>7180600</v>
       </c>
       <c r="G61" s="3">
-        <v>6968500</v>
+        <v>7263100</v>
       </c>
       <c r="H61" s="3">
-        <v>5413200</v>
+        <v>7212200</v>
       </c>
       <c r="I61" s="3">
-        <v>5574400</v>
+        <v>5602600</v>
       </c>
       <c r="J61" s="3">
+        <v>5769400</v>
+      </c>
+      <c r="K61" s="3">
         <v>5996000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6485600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6755000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6682000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5556600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5585300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3682100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3647600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3938600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3550100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3599400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3304700</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>369800</v>
+        <v>378500</v>
       </c>
       <c r="E62" s="3">
-        <v>386300</v>
+        <v>382700</v>
       </c>
       <c r="F62" s="3">
-        <v>378100</v>
+        <v>399800</v>
       </c>
       <c r="G62" s="3">
-        <v>392200</v>
+        <v>391300</v>
       </c>
       <c r="H62" s="3">
-        <v>360400</v>
+        <v>405900</v>
       </c>
       <c r="I62" s="3">
-        <v>409300</v>
+        <v>373000</v>
       </c>
       <c r="J62" s="3">
+        <v>423700</v>
+      </c>
+      <c r="K62" s="3">
         <v>420000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>420200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>439200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>564000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>436300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>490800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>478900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>530800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>543700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>540500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>544400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>538500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11710100</v>
+        <v>11762100</v>
       </c>
       <c r="E66" s="3">
-        <v>11544000</v>
+        <v>12119700</v>
       </c>
       <c r="F66" s="3">
-        <v>11510300</v>
+        <v>11947900</v>
       </c>
       <c r="G66" s="3">
-        <v>11442300</v>
+        <v>11912900</v>
       </c>
       <c r="H66" s="3">
-        <v>10399600</v>
+        <v>11842600</v>
       </c>
       <c r="I66" s="3">
-        <v>11028700</v>
+        <v>10763400</v>
       </c>
       <c r="J66" s="3">
+        <v>11414500</v>
+      </c>
+      <c r="K66" s="3">
         <v>10873700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10610200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11272000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11232700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9129500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9007600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6636500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6705300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6901300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6127900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6151500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6570400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>1359700</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="3">
-        <v>1148300</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="E72" s="3">
+        <v>1407300</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="3">
-        <v>1217900</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="G72" s="3">
+        <v>1188500</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="I72" s="3">
+        <v>1260500</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>1266000</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1455900</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1971900</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2189700</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2103500</v>
       </c>
-      <c r="S72" s="3" t="s">
+      <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2119000</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>377400</v>
+        <v>612200</v>
       </c>
       <c r="E76" s="3">
-        <v>347800</v>
+        <v>390600</v>
       </c>
       <c r="F76" s="3">
-        <v>356900</v>
+        <v>360000</v>
       </c>
       <c r="G76" s="3">
-        <v>711000</v>
+        <v>369300</v>
       </c>
       <c r="H76" s="3">
-        <v>434800</v>
+        <v>735800</v>
       </c>
       <c r="I76" s="3">
-        <v>573000</v>
+        <v>450100</v>
       </c>
       <c r="J76" s="3">
+        <v>593000</v>
+      </c>
+      <c r="K76" s="3">
         <v>482900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>870000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>864900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>791600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1551600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2078100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1849900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1867800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1953700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2148700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2113600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1982100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>172300</v>
+        <v>220100</v>
       </c>
       <c r="E81" s="3">
-        <v>247500</v>
+        <v>178300</v>
       </c>
       <c r="F81" s="3">
-        <v>154600</v>
+        <v>256100</v>
       </c>
       <c r="G81" s="3">
-        <v>233300</v>
+        <v>160000</v>
       </c>
       <c r="H81" s="3">
-        <v>72900</v>
+        <v>241500</v>
       </c>
       <c r="I81" s="3">
-        <v>241900</v>
+        <v>75500</v>
       </c>
       <c r="J81" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K81" s="3">
         <v>167100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>232100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>187700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-490500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>202800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>243500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>444000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>276500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>419000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>192200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>378100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>335300</v>
+        <v>364500</v>
       </c>
       <c r="E83" s="3">
-        <v>333400</v>
+        <v>347100</v>
       </c>
       <c r="F83" s="3">
-        <v>324200</v>
+        <v>345100</v>
       </c>
       <c r="G83" s="3">
-        <v>324800</v>
+        <v>335500</v>
       </c>
       <c r="H83" s="3">
-        <v>350100</v>
+        <v>336200</v>
       </c>
       <c r="I83" s="3">
-        <v>354100</v>
+        <v>362400</v>
       </c>
       <c r="J83" s="3">
+        <v>366500</v>
+      </c>
+      <c r="K83" s="3">
         <v>354700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>348500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>351500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>350500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>373300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>399800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>610900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>308800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>619800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>310000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>640300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>609900</v>
+        <v>194900</v>
       </c>
       <c r="E89" s="3">
-        <v>586000</v>
+        <v>631200</v>
       </c>
       <c r="F89" s="3">
-        <v>329600</v>
+        <v>606500</v>
       </c>
       <c r="G89" s="3">
-        <v>519500</v>
+        <v>341100</v>
       </c>
       <c r="H89" s="3">
-        <v>478700</v>
+        <v>537600</v>
       </c>
       <c r="I89" s="3">
-        <v>859900</v>
+        <v>495400</v>
       </c>
       <c r="J89" s="3">
+        <v>890000</v>
+      </c>
+      <c r="K89" s="3">
         <v>275500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-212300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>585200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>532100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>488000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>563600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1228400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>571400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>999100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>512900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1015400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>625800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-284900</v>
+        <v>-248200</v>
       </c>
       <c r="E91" s="3">
-        <v>-217400</v>
+        <v>-294900</v>
       </c>
       <c r="F91" s="3">
-        <v>-180000</v>
+        <v>-225000</v>
       </c>
       <c r="G91" s="3">
-        <v>-188800</v>
+        <v>-186300</v>
       </c>
       <c r="H91" s="3">
-        <v>-308600</v>
+        <v>-195500</v>
       </c>
       <c r="I91" s="3">
-        <v>-230000</v>
+        <v>-319400</v>
       </c>
       <c r="J91" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-198000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-164300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-265900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-224000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-208100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-206800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-520500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-256600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-301300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-117700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-666100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-275400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-395000</v>
+        <v>-407600</v>
       </c>
       <c r="E94" s="3">
-        <v>-271300</v>
+        <v>-408900</v>
       </c>
       <c r="F94" s="3">
-        <v>-160700</v>
+        <v>-280800</v>
       </c>
       <c r="G94" s="3">
-        <v>-239900</v>
+        <v>-166400</v>
       </c>
       <c r="H94" s="3">
-        <v>42000</v>
+        <v>-248200</v>
       </c>
       <c r="I94" s="3">
-        <v>-268400</v>
+        <v>43500</v>
       </c>
       <c r="J94" s="3">
+        <v>-277800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>38100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-358700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-655000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-61100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-438100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-241700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-817200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-285300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-448800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,44 +5549,45 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-204800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-479000</v>
+        <v>-212000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-495800</v>
       </c>
       <c r="G96" s="3">
-        <v>-301400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-209900</v>
+        <v>-311900</v>
       </c>
       <c r="I96" s="3">
-        <v>-480500</v>
+        <v>-217300</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-497300</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-63700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-599500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5370,13 +5604,16 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-801600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-439400</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-158100</v>
+        <v>-173000</v>
       </c>
       <c r="E100" s="3">
-        <v>-561900</v>
+        <v>-163600</v>
       </c>
       <c r="F100" s="3">
-        <v>-176400</v>
+        <v>-581500</v>
       </c>
       <c r="G100" s="3">
-        <v>536600</v>
+        <v>-182600</v>
       </c>
       <c r="H100" s="3">
-        <v>-692100</v>
+        <v>555400</v>
       </c>
       <c r="I100" s="3">
-        <v>-578400</v>
+        <v>-716300</v>
       </c>
       <c r="J100" s="3">
+        <v>-598700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-273500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-40000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-464600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>59200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>147000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-89700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-844500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-492200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>67600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-99000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-637500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-435000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-19700</v>
+        <v>1900</v>
       </c>
       <c r="E101" s="3">
-        <v>42000</v>
+        <v>-20400</v>
       </c>
       <c r="F101" s="3">
-        <v>-30700</v>
+        <v>43500</v>
       </c>
       <c r="G101" s="3">
-        <v>13400</v>
+        <v>-31700</v>
       </c>
       <c r="H101" s="3">
-        <v>-18600</v>
+        <v>13900</v>
       </c>
       <c r="I101" s="3">
-        <v>3700</v>
+        <v>-19200</v>
       </c>
       <c r="J101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-19600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>25200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-22500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-27500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>37100</v>
+        <v>-383800</v>
       </c>
       <c r="E102" s="3">
-        <v>-205200</v>
+        <v>38400</v>
       </c>
       <c r="F102" s="3">
-        <v>-38300</v>
+        <v>-212400</v>
       </c>
       <c r="G102" s="3">
-        <v>829700</v>
+        <v>-39600</v>
       </c>
       <c r="H102" s="3">
-        <v>-190000</v>
+        <v>858700</v>
       </c>
       <c r="I102" s="3">
-        <v>16800</v>
+        <v>-196600</v>
       </c>
       <c r="J102" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-198600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-233800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-226200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>581000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>415900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-56800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-167000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>243400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>106000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-98500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>175100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBT_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1686800</v>
+        <v>1675700</v>
       </c>
       <c r="E8" s="3">
-        <v>1749400</v>
+        <v>1737900</v>
       </c>
       <c r="F8" s="3">
-        <v>1756300</v>
+        <v>1744700</v>
       </c>
       <c r="G8" s="3">
-        <v>1602300</v>
+        <v>1591700</v>
       </c>
       <c r="H8" s="3">
-        <v>1598800</v>
+        <v>1588300</v>
       </c>
       <c r="I8" s="3">
-        <v>1654500</v>
+        <v>1643500</v>
       </c>
       <c r="J8" s="3">
-        <v>1674600</v>
+        <v>1663600</v>
       </c>
       <c r="K8" s="3">
         <v>1527600</v>
@@ -821,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>640000</v>
+        <v>635800</v>
       </c>
       <c r="E9" s="3">
-        <v>643200</v>
+        <v>638900</v>
       </c>
       <c r="F9" s="3">
-        <v>671900</v>
+        <v>667400</v>
       </c>
       <c r="G9" s="3">
-        <v>600100</v>
+        <v>596200</v>
       </c>
       <c r="H9" s="3">
-        <v>578600</v>
+        <v>574800</v>
       </c>
       <c r="I9" s="3">
-        <v>581100</v>
+        <v>577200</v>
       </c>
       <c r="J9" s="3">
-        <v>626500</v>
+        <v>622400</v>
       </c>
       <c r="K9" s="3">
         <v>578400</v>
@@ -883,25 +883,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1046800</v>
+        <v>1039900</v>
       </c>
       <c r="E10" s="3">
-        <v>1106300</v>
+        <v>1099000</v>
       </c>
       <c r="F10" s="3">
-        <v>1084500</v>
+        <v>1077300</v>
       </c>
       <c r="G10" s="3">
-        <v>1002200</v>
+        <v>995500</v>
       </c>
       <c r="H10" s="3">
-        <v>1020200</v>
+        <v>1013500</v>
       </c>
       <c r="I10" s="3">
-        <v>1073400</v>
+        <v>1066300</v>
       </c>
       <c r="J10" s="3">
-        <v>1048100</v>
+        <v>1041200</v>
       </c>
       <c r="K10" s="3">
         <v>949200</v>
@@ -1096,19 +1096,19 @@
         <v>-100</v>
       </c>
       <c r="E14" s="3">
-        <v>173000</v>
+        <v>171800</v>
       </c>
       <c r="F14" s="3">
         <v>-300</v>
       </c>
       <c r="G14" s="3">
-        <v>104400</v>
+        <v>103700</v>
       </c>
       <c r="H14" s="3">
         <v>4300</v>
       </c>
       <c r="I14" s="3">
-        <v>103100</v>
+        <v>102400</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1155,25 +1155,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>364500</v>
+        <v>362100</v>
       </c>
       <c r="E15" s="3">
-        <v>347400</v>
+        <v>345200</v>
       </c>
       <c r="F15" s="3">
-        <v>345100</v>
+        <v>342800</v>
       </c>
       <c r="G15" s="3">
-        <v>335500</v>
+        <v>333300</v>
       </c>
       <c r="H15" s="3">
-        <v>335900</v>
+        <v>333600</v>
       </c>
       <c r="I15" s="3">
-        <v>331900</v>
+        <v>329700</v>
       </c>
       <c r="J15" s="3">
-        <v>327400</v>
+        <v>325300</v>
       </c>
       <c r="K15" s="3">
         <v>317600</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1297900</v>
+        <v>1289300</v>
       </c>
       <c r="E17" s="3">
-        <v>1379600</v>
+        <v>1370400</v>
       </c>
       <c r="F17" s="3">
-        <v>1304400</v>
+        <v>1295700</v>
       </c>
       <c r="G17" s="3">
-        <v>1248700</v>
+        <v>1240400</v>
       </c>
       <c r="H17" s="3">
-        <v>1233100</v>
+        <v>1224900</v>
       </c>
       <c r="I17" s="3">
-        <v>1263800</v>
+        <v>1255400</v>
       </c>
       <c r="J17" s="3">
-        <v>1230500</v>
+        <v>1222400</v>
       </c>
       <c r="K17" s="3">
         <v>1171100</v>
@@ -1300,25 +1300,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>389000</v>
+        <v>386400</v>
       </c>
       <c r="E18" s="3">
-        <v>369900</v>
+        <v>367400</v>
       </c>
       <c r="F18" s="3">
-        <v>452000</v>
+        <v>449000</v>
       </c>
       <c r="G18" s="3">
-        <v>353600</v>
+        <v>351300</v>
       </c>
       <c r="H18" s="3">
-        <v>365800</v>
+        <v>363400</v>
       </c>
       <c r="I18" s="3">
-        <v>390700</v>
+        <v>388100</v>
       </c>
       <c r="J18" s="3">
-        <v>444100</v>
+        <v>441200</v>
       </c>
       <c r="K18" s="3">
         <v>356500</v>
@@ -1386,25 +1386,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-112500</v>
+        <v>-111700</v>
       </c>
       <c r="E20" s="3">
+        <v>-143700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-121500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-188800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-144700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-122300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-154100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-59400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-190100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-145700</v>
       </c>
       <c r="K20" s="3">
         <v>-164000</v>
@@ -1448,25 +1448,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>641000</v>
+        <v>636800</v>
       </c>
       <c r="E21" s="3">
-        <v>572200</v>
+        <v>568400</v>
       </c>
       <c r="F21" s="3">
-        <v>674800</v>
+        <v>670300</v>
       </c>
       <c r="G21" s="3">
-        <v>535100</v>
+        <v>531600</v>
       </c>
       <c r="H21" s="3">
-        <v>642500</v>
+        <v>638300</v>
       </c>
       <c r="I21" s="3">
-        <v>563000</v>
+        <v>559200</v>
       </c>
       <c r="J21" s="3">
-        <v>665000</v>
+        <v>660600</v>
       </c>
       <c r="K21" s="3">
         <v>547200</v>
@@ -1572,25 +1572,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>276500</v>
+        <v>274700</v>
       </c>
       <c r="E23" s="3">
-        <v>225200</v>
+        <v>223700</v>
       </c>
       <c r="F23" s="3">
-        <v>329700</v>
+        <v>327500</v>
       </c>
       <c r="G23" s="3">
-        <v>199600</v>
+        <v>198300</v>
       </c>
       <c r="H23" s="3">
-        <v>306300</v>
+        <v>304300</v>
       </c>
       <c r="I23" s="3">
-        <v>200600</v>
+        <v>199300</v>
       </c>
       <c r="J23" s="3">
-        <v>298500</v>
+        <v>296500</v>
       </c>
       <c r="K23" s="3">
         <v>192500</v>
@@ -1634,25 +1634,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56000</v>
+        <v>55600</v>
       </c>
       <c r="E24" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="F24" s="3">
-        <v>77200</v>
+        <v>76700</v>
       </c>
       <c r="G24" s="3">
-        <v>62700</v>
+        <v>62200</v>
       </c>
       <c r="H24" s="3">
-        <v>62800</v>
+        <v>62400</v>
       </c>
       <c r="I24" s="3">
-        <v>42200</v>
+        <v>41900</v>
       </c>
       <c r="J24" s="3">
-        <v>77300</v>
+        <v>76800</v>
       </c>
       <c r="K24" s="3">
         <v>41400</v>
@@ -1758,25 +1758,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>220500</v>
+        <v>219100</v>
       </c>
       <c r="E26" s="3">
-        <v>208600</v>
+        <v>207200</v>
       </c>
       <c r="F26" s="3">
-        <v>252500</v>
+        <v>250800</v>
       </c>
       <c r="G26" s="3">
-        <v>136900</v>
+        <v>136000</v>
       </c>
       <c r="H26" s="3">
-        <v>243500</v>
+        <v>241900</v>
       </c>
       <c r="I26" s="3">
-        <v>158400</v>
+        <v>157400</v>
       </c>
       <c r="J26" s="3">
-        <v>221200</v>
+        <v>219700</v>
       </c>
       <c r="K26" s="3">
         <v>151100</v>
@@ -1820,25 +1820,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>218100</v>
+        <v>216700</v>
       </c>
       <c r="E27" s="3">
-        <v>206300</v>
+        <v>204900</v>
       </c>
       <c r="F27" s="3">
-        <v>250200</v>
+        <v>248500</v>
       </c>
       <c r="G27" s="3">
-        <v>134900</v>
+        <v>134100</v>
       </c>
       <c r="H27" s="3">
-        <v>241100</v>
+        <v>239500</v>
       </c>
       <c r="I27" s="3">
-        <v>155800</v>
+        <v>154700</v>
       </c>
       <c r="J27" s="3">
-        <v>217500</v>
+        <v>216000</v>
       </c>
       <c r="K27" s="3">
         <v>148900</v>
@@ -1947,22 +1947,22 @@
         <v>2000</v>
       </c>
       <c r="E29" s="3">
-        <v>-28000</v>
+        <v>-27900</v>
       </c>
       <c r="F29" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="G29" s="3">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="H29" s="3">
         <v>300</v>
       </c>
       <c r="I29" s="3">
-        <v>-80300</v>
+        <v>-79800</v>
       </c>
       <c r="J29" s="3">
-        <v>32900</v>
+        <v>32700</v>
       </c>
       <c r="K29" s="3">
         <v>18100</v>
@@ -2130,25 +2130,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>112500</v>
+        <v>111700</v>
       </c>
       <c r="E32" s="3">
+        <v>143700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>121500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>153000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>59000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>188800</v>
+      </c>
+      <c r="J32" s="3">
         <v>144700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>122300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>154100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>59400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>190100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>145700</v>
       </c>
       <c r="K32" s="3">
         <v>164000</v>
@@ -2192,25 +2192,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>220100</v>
+        <v>218600</v>
       </c>
       <c r="E33" s="3">
-        <v>178300</v>
+        <v>177100</v>
       </c>
       <c r="F33" s="3">
-        <v>256100</v>
+        <v>254400</v>
       </c>
       <c r="G33" s="3">
-        <v>160000</v>
+        <v>158900</v>
       </c>
       <c r="H33" s="3">
-        <v>241500</v>
+        <v>239900</v>
       </c>
       <c r="I33" s="3">
-        <v>75500</v>
+        <v>75000</v>
       </c>
       <c r="J33" s="3">
-        <v>250300</v>
+        <v>248700</v>
       </c>
       <c r="K33" s="3">
         <v>167100</v>
@@ -2316,25 +2316,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>220100</v>
+        <v>218600</v>
       </c>
       <c r="E35" s="3">
-        <v>178300</v>
+        <v>177100</v>
       </c>
       <c r="F35" s="3">
-        <v>256100</v>
+        <v>254400</v>
       </c>
       <c r="G35" s="3">
-        <v>160000</v>
+        <v>158900</v>
       </c>
       <c r="H35" s="3">
-        <v>241500</v>
+        <v>239900</v>
       </c>
       <c r="I35" s="3">
-        <v>75500</v>
+        <v>75000</v>
       </c>
       <c r="J35" s="3">
-        <v>250300</v>
+        <v>248700</v>
       </c>
       <c r="K35" s="3">
         <v>167100</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>779400</v>
+        <v>774200</v>
       </c>
       <c r="E41" s="3">
-        <v>1162400</v>
+        <v>1154700</v>
       </c>
       <c r="F41" s="3">
-        <v>1124900</v>
+        <v>1117400</v>
       </c>
       <c r="G41" s="3">
-        <v>1337200</v>
+        <v>1328400</v>
       </c>
       <c r="H41" s="3">
-        <v>1376800</v>
+        <v>1367700</v>
       </c>
       <c r="I41" s="3">
-        <v>518100</v>
+        <v>514700</v>
       </c>
       <c r="J41" s="3">
-        <v>714800</v>
+        <v>710000</v>
       </c>
       <c r="K41" s="3">
         <v>673800</v>
@@ -2555,25 +2555,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>660500</v>
+        <v>656100</v>
       </c>
       <c r="E42" s="3">
-        <v>645200</v>
+        <v>641000</v>
       </c>
       <c r="F42" s="3">
-        <v>679800</v>
+        <v>675400</v>
       </c>
       <c r="G42" s="3">
-        <v>640000</v>
+        <v>635700</v>
       </c>
       <c r="H42" s="3">
-        <v>693700</v>
+        <v>689100</v>
       </c>
       <c r="I42" s="3">
-        <v>546800</v>
+        <v>543200</v>
       </c>
       <c r="J42" s="3">
-        <v>500400</v>
+        <v>497100</v>
       </c>
       <c r="K42" s="3">
         <v>494700</v>
@@ -2617,25 +2617,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1092300</v>
+        <v>1085100</v>
       </c>
       <c r="E43" s="3">
-        <v>1023400</v>
+        <v>1016600</v>
       </c>
       <c r="F43" s="3">
-        <v>942400</v>
+        <v>936200</v>
       </c>
       <c r="G43" s="3">
-        <v>865000</v>
+        <v>859300</v>
       </c>
       <c r="H43" s="3">
-        <v>1003800</v>
+        <v>997200</v>
       </c>
       <c r="I43" s="3">
-        <v>801500</v>
+        <v>796200</v>
       </c>
       <c r="J43" s="3">
-        <v>828600</v>
+        <v>823200</v>
       </c>
       <c r="K43" s="3">
         <v>749600</v>
@@ -2679,25 +2679,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>232900</v>
+        <v>231400</v>
       </c>
       <c r="E44" s="3">
-        <v>206900</v>
+        <v>205600</v>
       </c>
       <c r="F44" s="3">
-        <v>217400</v>
+        <v>215900</v>
       </c>
       <c r="G44" s="3">
-        <v>245900</v>
+        <v>244300</v>
       </c>
       <c r="H44" s="3">
-        <v>201100</v>
+        <v>199800</v>
       </c>
       <c r="I44" s="3">
-        <v>211200</v>
+        <v>209800</v>
       </c>
       <c r="J44" s="3">
-        <v>224600</v>
+        <v>223100</v>
       </c>
       <c r="K44" s="3">
         <v>192300</v>
@@ -2741,25 +2741,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>66800</v>
+        <v>66400</v>
       </c>
       <c r="E45" s="3">
-        <v>85400</v>
+        <v>84800</v>
       </c>
       <c r="F45" s="3">
-        <v>78800</v>
+        <v>78200</v>
       </c>
       <c r="G45" s="3">
-        <v>76800</v>
+        <v>76300</v>
       </c>
       <c r="H45" s="3">
-        <v>75300</v>
+        <v>74800</v>
       </c>
       <c r="I45" s="3">
-        <v>86300</v>
+        <v>85700</v>
       </c>
       <c r="J45" s="3">
-        <v>79000</v>
+        <v>78400</v>
       </c>
       <c r="K45" s="3">
         <v>70200</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3302300</v>
+        <v>3280500</v>
       </c>
       <c r="E46" s="3">
-        <v>3570600</v>
+        <v>3547000</v>
       </c>
       <c r="F46" s="3">
-        <v>3543900</v>
+        <v>3520500</v>
       </c>
       <c r="G46" s="3">
-        <v>3662800</v>
+        <v>3638600</v>
       </c>
       <c r="H46" s="3">
-        <v>3871100</v>
+        <v>3845500</v>
       </c>
       <c r="I46" s="3">
-        <v>2648300</v>
+        <v>2630800</v>
       </c>
       <c r="J46" s="3">
-        <v>2864300</v>
+        <v>2845400</v>
       </c>
       <c r="K46" s="3">
         <v>2667400</v>
@@ -2865,25 +2865,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1433500</v>
+        <v>1424000</v>
       </c>
       <c r="E47" s="3">
-        <v>1319900</v>
+        <v>1311200</v>
       </c>
       <c r="F47" s="3">
-        <v>1344300</v>
+        <v>1335400</v>
       </c>
       <c r="G47" s="3">
-        <v>1270400</v>
+        <v>1262000</v>
       </c>
       <c r="H47" s="3">
-        <v>1319300</v>
+        <v>1310500</v>
       </c>
       <c r="I47" s="3">
-        <v>1206900</v>
+        <v>1199000</v>
       </c>
       <c r="J47" s="3">
-        <v>1167500</v>
+        <v>1159700</v>
       </c>
       <c r="K47" s="3">
         <v>1060600</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5696100</v>
+        <v>5658500</v>
       </c>
       <c r="E48" s="3">
-        <v>5678000</v>
+        <v>5640500</v>
       </c>
       <c r="F48" s="3">
-        <v>5522100</v>
+        <v>5485600</v>
       </c>
       <c r="G48" s="3">
-        <v>5503100</v>
+        <v>5466700</v>
       </c>
       <c r="H48" s="3">
-        <v>5540600</v>
+        <v>5504000</v>
       </c>
       <c r="I48" s="3">
-        <v>5543100</v>
+        <v>5506500</v>
       </c>
       <c r="J48" s="3">
-        <v>5889300</v>
+        <v>5850300</v>
       </c>
       <c r="K48" s="3">
         <v>5625200</v>
@@ -2989,25 +2989,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1733300</v>
+        <v>1721900</v>
       </c>
       <c r="E49" s="3">
-        <v>1744000</v>
+        <v>1732500</v>
       </c>
       <c r="F49" s="3">
-        <v>1679700</v>
+        <v>1668600</v>
       </c>
       <c r="G49" s="3">
-        <v>1637400</v>
+        <v>1626500</v>
       </c>
       <c r="H49" s="3">
-        <v>1636900</v>
+        <v>1626000</v>
       </c>
       <c r="I49" s="3">
-        <v>1611500</v>
+        <v>1600800</v>
       </c>
       <c r="J49" s="3">
-        <v>1834400</v>
+        <v>1822300</v>
       </c>
       <c r="K49" s="3">
         <v>1775700</v>
@@ -3175,25 +3175,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>209000</v>
+        <v>207700</v>
       </c>
       <c r="E52" s="3">
-        <v>197700</v>
+        <v>196400</v>
       </c>
       <c r="F52" s="3">
-        <v>217900</v>
+        <v>216400</v>
       </c>
       <c r="G52" s="3">
-        <v>208500</v>
+        <v>207200</v>
       </c>
       <c r="H52" s="3">
-        <v>210500</v>
+        <v>209100</v>
       </c>
       <c r="I52" s="3">
-        <v>203600</v>
+        <v>202200</v>
       </c>
       <c r="J52" s="3">
-        <v>252200</v>
+        <v>250500</v>
       </c>
       <c r="K52" s="3">
         <v>227700</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12374300</v>
+        <v>12292500</v>
       </c>
       <c r="E54" s="3">
-        <v>12510400</v>
+        <v>12427600</v>
       </c>
       <c r="F54" s="3">
-        <v>12307900</v>
+        <v>12226500</v>
       </c>
       <c r="G54" s="3">
-        <v>12282300</v>
+        <v>12201000</v>
       </c>
       <c r="H54" s="3">
-        <v>12578400</v>
+        <v>12495200</v>
       </c>
       <c r="I54" s="3">
-        <v>11213400</v>
+        <v>11139300</v>
       </c>
       <c r="J54" s="3">
-        <v>12007500</v>
+        <v>11928100</v>
       </c>
       <c r="K54" s="3">
         <v>11356600</v>
@@ -3409,25 +3409,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>681200</v>
+        <v>676700</v>
       </c>
       <c r="E57" s="3">
-        <v>762400</v>
+        <v>757300</v>
       </c>
       <c r="F57" s="3">
-        <v>947800</v>
+        <v>941500</v>
       </c>
       <c r="G57" s="3">
-        <v>1190400</v>
+        <v>1182500</v>
       </c>
       <c r="H57" s="3">
-        <v>705400</v>
+        <v>700700</v>
       </c>
       <c r="I57" s="3">
-        <v>977300</v>
+        <v>970800</v>
       </c>
       <c r="J57" s="3">
-        <v>893100</v>
+        <v>887200</v>
       </c>
       <c r="K57" s="3">
         <v>1108500</v>
@@ -3471,25 +3471,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>748300</v>
+        <v>743300</v>
       </c>
       <c r="E58" s="3">
-        <v>684600</v>
+        <v>680100</v>
       </c>
       <c r="F58" s="3">
-        <v>554100</v>
+        <v>550500</v>
       </c>
       <c r="G58" s="3">
-        <v>389400</v>
+        <v>386900</v>
       </c>
       <c r="H58" s="3">
-        <v>704200</v>
+        <v>699600</v>
       </c>
       <c r="I58" s="3">
-        <v>1183700</v>
+        <v>1175900</v>
       </c>
       <c r="J58" s="3">
-        <v>1587800</v>
+        <v>1577300</v>
       </c>
       <c r="K58" s="3">
         <v>1135200</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2815800</v>
+        <v>2797200</v>
       </c>
       <c r="E59" s="3">
-        <v>3025400</v>
+        <v>3005400</v>
       </c>
       <c r="F59" s="3">
-        <v>2813400</v>
+        <v>2794800</v>
       </c>
       <c r="G59" s="3">
-        <v>2629200</v>
+        <v>2611800</v>
       </c>
       <c r="H59" s="3">
-        <v>2767300</v>
+        <v>2749000</v>
       </c>
       <c r="I59" s="3">
-        <v>2581500</v>
+        <v>2564400</v>
       </c>
       <c r="J59" s="3">
-        <v>2685100</v>
+        <v>2667400</v>
       </c>
       <c r="K59" s="3">
         <v>2163800</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4245200</v>
+        <v>4217200</v>
       </c>
       <c r="E60" s="3">
-        <v>4472400</v>
+        <v>4442900</v>
       </c>
       <c r="F60" s="3">
-        <v>4315400</v>
+        <v>4286800</v>
       </c>
       <c r="G60" s="3">
-        <v>4209000</v>
+        <v>4181100</v>
       </c>
       <c r="H60" s="3">
-        <v>4176900</v>
+        <v>4149300</v>
       </c>
       <c r="I60" s="3">
-        <v>4742500</v>
+        <v>4711100</v>
       </c>
       <c r="J60" s="3">
-        <v>5166000</v>
+        <v>5131900</v>
       </c>
       <c r="K60" s="3">
         <v>4407600</v>
@@ -3657,25 +3657,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7081600</v>
+        <v>7034800</v>
       </c>
       <c r="E61" s="3">
-        <v>7210300</v>
+        <v>7162600</v>
       </c>
       <c r="F61" s="3">
-        <v>7180600</v>
+        <v>7133100</v>
       </c>
       <c r="G61" s="3">
-        <v>7263100</v>
+        <v>7215100</v>
       </c>
       <c r="H61" s="3">
-        <v>7212200</v>
+        <v>7164500</v>
       </c>
       <c r="I61" s="3">
-        <v>5602600</v>
+        <v>5565500</v>
       </c>
       <c r="J61" s="3">
-        <v>5769400</v>
+        <v>5731200</v>
       </c>
       <c r="K61" s="3">
         <v>5996000</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>378500</v>
+        <v>376000</v>
       </c>
       <c r="E62" s="3">
-        <v>382700</v>
+        <v>380200</v>
       </c>
       <c r="F62" s="3">
-        <v>399800</v>
+        <v>397200</v>
       </c>
       <c r="G62" s="3">
-        <v>391300</v>
+        <v>388700</v>
       </c>
       <c r="H62" s="3">
-        <v>405900</v>
+        <v>403200</v>
       </c>
       <c r="I62" s="3">
-        <v>373000</v>
+        <v>370500</v>
       </c>
       <c r="J62" s="3">
-        <v>423700</v>
+        <v>420900</v>
       </c>
       <c r="K62" s="3">
         <v>420000</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11762100</v>
+        <v>11684300</v>
       </c>
       <c r="E66" s="3">
-        <v>12119700</v>
+        <v>12039600</v>
       </c>
       <c r="F66" s="3">
-        <v>11947900</v>
+        <v>11868900</v>
       </c>
       <c r="G66" s="3">
-        <v>11912900</v>
+        <v>11834200</v>
       </c>
       <c r="H66" s="3">
-        <v>11842600</v>
+        <v>11764200</v>
       </c>
       <c r="I66" s="3">
-        <v>10763400</v>
+        <v>10692200</v>
       </c>
       <c r="J66" s="3">
-        <v>11414500</v>
+        <v>11339000</v>
       </c>
       <c r="K66" s="3">
         <v>10873700</v>
@@ -4304,19 +4304,19 @@
         <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>1407300</v>
+        <v>1398000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="3">
-        <v>1188500</v>
+        <v>1180600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="3">
-        <v>1260500</v>
+        <v>1252200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>612200</v>
+        <v>608100</v>
       </c>
       <c r="E76" s="3">
-        <v>390600</v>
+        <v>388000</v>
       </c>
       <c r="F76" s="3">
-        <v>360000</v>
+        <v>357600</v>
       </c>
       <c r="G76" s="3">
-        <v>369300</v>
+        <v>366900</v>
       </c>
       <c r="H76" s="3">
-        <v>735800</v>
+        <v>731000</v>
       </c>
       <c r="I76" s="3">
-        <v>450100</v>
+        <v>447100</v>
       </c>
       <c r="J76" s="3">
-        <v>593000</v>
+        <v>589100</v>
       </c>
       <c r="K76" s="3">
         <v>482900</v>
@@ -4740,25 +4740,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>220100</v>
+        <v>218600</v>
       </c>
       <c r="E81" s="3">
-        <v>178300</v>
+        <v>177100</v>
       </c>
       <c r="F81" s="3">
-        <v>256100</v>
+        <v>254400</v>
       </c>
       <c r="G81" s="3">
-        <v>160000</v>
+        <v>158900</v>
       </c>
       <c r="H81" s="3">
-        <v>241500</v>
+        <v>239900</v>
       </c>
       <c r="I81" s="3">
-        <v>75500</v>
+        <v>75000</v>
       </c>
       <c r="J81" s="3">
-        <v>250300</v>
+        <v>248700</v>
       </c>
       <c r="K81" s="3">
         <v>167100</v>
@@ -4826,25 +4826,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>364500</v>
+        <v>362100</v>
       </c>
       <c r="E83" s="3">
-        <v>347100</v>
+        <v>344800</v>
       </c>
       <c r="F83" s="3">
-        <v>345100</v>
+        <v>342800</v>
       </c>
       <c r="G83" s="3">
-        <v>335500</v>
+        <v>333300</v>
       </c>
       <c r="H83" s="3">
-        <v>336200</v>
+        <v>334000</v>
       </c>
       <c r="I83" s="3">
-        <v>362400</v>
+        <v>360000</v>
       </c>
       <c r="J83" s="3">
-        <v>366500</v>
+        <v>364100</v>
       </c>
       <c r="K83" s="3">
         <v>354700</v>
@@ -5198,25 +5198,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>194900</v>
+        <v>193600</v>
       </c>
       <c r="E89" s="3">
-        <v>631200</v>
+        <v>627100</v>
       </c>
       <c r="F89" s="3">
-        <v>606500</v>
+        <v>602500</v>
       </c>
       <c r="G89" s="3">
-        <v>341100</v>
+        <v>338900</v>
       </c>
       <c r="H89" s="3">
-        <v>537600</v>
+        <v>534100</v>
       </c>
       <c r="I89" s="3">
-        <v>495400</v>
+        <v>492100</v>
       </c>
       <c r="J89" s="3">
-        <v>890000</v>
+        <v>884100</v>
       </c>
       <c r="K89" s="3">
         <v>275500</v>
@@ -5284,25 +5284,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-248200</v>
+        <v>-246600</v>
       </c>
       <c r="E91" s="3">
-        <v>-294900</v>
+        <v>-293000</v>
       </c>
       <c r="F91" s="3">
-        <v>-225000</v>
+        <v>-223600</v>
       </c>
       <c r="G91" s="3">
-        <v>-186300</v>
+        <v>-185100</v>
       </c>
       <c r="H91" s="3">
-        <v>-195500</v>
+        <v>-194200</v>
       </c>
       <c r="I91" s="3">
-        <v>-319400</v>
+        <v>-317200</v>
       </c>
       <c r="J91" s="3">
-        <v>-238000</v>
+        <v>-236400</v>
       </c>
       <c r="K91" s="3">
         <v>-198000</v>
@@ -5470,25 +5470,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-407600</v>
+        <v>-404900</v>
       </c>
       <c r="E94" s="3">
-        <v>-408900</v>
+        <v>-406200</v>
       </c>
       <c r="F94" s="3">
-        <v>-280800</v>
+        <v>-278900</v>
       </c>
       <c r="G94" s="3">
-        <v>-166400</v>
+        <v>-165300</v>
       </c>
       <c r="H94" s="3">
-        <v>-248200</v>
+        <v>-246600</v>
       </c>
       <c r="I94" s="3">
-        <v>43500</v>
+        <v>43200</v>
       </c>
       <c r="J94" s="3">
-        <v>-277800</v>
+        <v>-275900</v>
       </c>
       <c r="K94" s="3">
         <v>-200200</v>
@@ -5559,22 +5559,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-212000</v>
+        <v>-210600</v>
       </c>
       <c r="F96" s="3">
-        <v>-495800</v>
+        <v>-492500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-311900</v>
+        <v>-309800</v>
       </c>
       <c r="I96" s="3">
-        <v>-217300</v>
+        <v>-215800</v>
       </c>
       <c r="J96" s="3">
-        <v>-497300</v>
+        <v>-494000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5804,25 +5804,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-173000</v>
+        <v>-171900</v>
       </c>
       <c r="E100" s="3">
-        <v>-163600</v>
+        <v>-162500</v>
       </c>
       <c r="F100" s="3">
-        <v>-581500</v>
+        <v>-577700</v>
       </c>
       <c r="G100" s="3">
-        <v>-182600</v>
+        <v>-181400</v>
       </c>
       <c r="H100" s="3">
-        <v>555400</v>
+        <v>551700</v>
       </c>
       <c r="I100" s="3">
-        <v>-716300</v>
+        <v>-711500</v>
       </c>
       <c r="J100" s="3">
-        <v>-598700</v>
+        <v>-594700</v>
       </c>
       <c r="K100" s="3">
         <v>-273500</v>
@@ -5869,19 +5869,19 @@
         <v>1900</v>
       </c>
       <c r="E101" s="3">
-        <v>-20400</v>
+        <v>-20200</v>
       </c>
       <c r="F101" s="3">
-        <v>43500</v>
+        <v>43200</v>
       </c>
       <c r="G101" s="3">
-        <v>-31700</v>
+        <v>-31500</v>
       </c>
       <c r="H101" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="I101" s="3">
-        <v>-19200</v>
+        <v>-19100</v>
       </c>
       <c r="J101" s="3">
         <v>3800</v>
@@ -5928,25 +5928,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-383800</v>
+        <v>-381300</v>
       </c>
       <c r="E102" s="3">
-        <v>38400</v>
+        <v>38100</v>
       </c>
       <c r="F102" s="3">
-        <v>-212400</v>
+        <v>-211000</v>
       </c>
       <c r="G102" s="3">
-        <v>-39600</v>
+        <v>-39300</v>
       </c>
       <c r="H102" s="3">
-        <v>858700</v>
+        <v>853000</v>
       </c>
       <c r="I102" s="3">
-        <v>-196600</v>
+        <v>-195300</v>
       </c>
       <c r="J102" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="K102" s="3">
         <v>-198600</v>

--- a/AAII_Financials/Quarterly/MBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>MBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1675700</v>
+        <v>1861100</v>
       </c>
       <c r="E8" s="3">
-        <v>1737900</v>
+        <v>1731900</v>
       </c>
       <c r="F8" s="3">
-        <v>1744700</v>
+        <v>1669500</v>
       </c>
       <c r="G8" s="3">
-        <v>1591700</v>
+        <v>1731400</v>
       </c>
       <c r="H8" s="3">
-        <v>1588300</v>
+        <v>1717500</v>
       </c>
       <c r="I8" s="3">
+        <v>1565700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1582400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1643500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1663600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1527600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1448700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1341400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1695400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1623700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1704100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3563400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1764300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3257400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1612100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3331500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1702900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>635800</v>
+        <v>722700</v>
       </c>
       <c r="E9" s="3">
-        <v>638900</v>
+        <v>646400</v>
       </c>
       <c r="F9" s="3">
-        <v>667400</v>
+        <v>633400</v>
       </c>
       <c r="G9" s="3">
-        <v>596200</v>
+        <v>636500</v>
       </c>
       <c r="H9" s="3">
-        <v>574800</v>
+        <v>644300</v>
       </c>
       <c r="I9" s="3">
+        <v>573000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>572700</v>
+      </c>
+      <c r="K9" s="3">
         <v>577200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>622400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>578400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>530500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>557300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>654700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>572900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>574300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1379600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>664200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1229200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>609400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1325300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>676300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1039900</v>
+        <v>1138400</v>
       </c>
       <c r="E10" s="3">
-        <v>1099000</v>
+        <v>1085500</v>
       </c>
       <c r="F10" s="3">
-        <v>1077300</v>
+        <v>1036100</v>
       </c>
       <c r="G10" s="3">
-        <v>995500</v>
+        <v>1094900</v>
       </c>
       <c r="H10" s="3">
-        <v>1013500</v>
+        <v>1073200</v>
       </c>
       <c r="I10" s="3">
+        <v>992700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1009700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1066300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1041200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>949200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>918200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>784100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1040700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1050800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1129900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2183800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1100200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2028300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1002700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2006200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1026700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1121,150 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>171800</v>
-      </c>
       <c r="F14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>171200</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3">
-        <v>103700</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>103300</v>
+      </c>
+      <c r="J14" s="3">
         <v>4300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>102400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>37600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>50500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>58100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>17600</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>362100</v>
+        <v>375300</v>
       </c>
       <c r="E15" s="3">
-        <v>345200</v>
+        <v>360500</v>
       </c>
       <c r="F15" s="3">
-        <v>342800</v>
+        <v>360800</v>
       </c>
       <c r="G15" s="3">
-        <v>333300</v>
+        <v>343900</v>
       </c>
       <c r="H15" s="3">
-        <v>333600</v>
+        <v>341200</v>
       </c>
       <c r="I15" s="3">
+        <v>331700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>332400</v>
+      </c>
+      <c r="K15" s="3">
         <v>329700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>325300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>317600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>311300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>229500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>350500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>373300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>399800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>610900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>308800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>619800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>310000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>614800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1289300</v>
+        <v>1410200</v>
       </c>
       <c r="E17" s="3">
-        <v>1370400</v>
+        <v>1322200</v>
       </c>
       <c r="F17" s="3">
-        <v>1295700</v>
+        <v>1284500</v>
       </c>
       <c r="G17" s="3">
-        <v>1240400</v>
+        <v>1365400</v>
       </c>
       <c r="H17" s="3">
-        <v>1224900</v>
+        <v>1265700</v>
       </c>
       <c r="I17" s="3">
+        <v>1210800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1220400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1255400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1222400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1171100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1090900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1052900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1260300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1231800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1280900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2785300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1339700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2555600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1277700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2624300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1336300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>386400</v>
+        <v>450900</v>
       </c>
       <c r="E18" s="3">
-        <v>367400</v>
+        <v>409700</v>
       </c>
       <c r="F18" s="3">
-        <v>449000</v>
+        <v>385000</v>
       </c>
       <c r="G18" s="3">
-        <v>351300</v>
+        <v>366100</v>
       </c>
       <c r="H18" s="3">
-        <v>363400</v>
+        <v>451900</v>
       </c>
       <c r="I18" s="3">
+        <v>354900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>362000</v>
+      </c>
+      <c r="K18" s="3">
         <v>388100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>441200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>356500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>357800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>288500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>435200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>391900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>423200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>778100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>424600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>701900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>334400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>707200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>366600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-111700</v>
+        <v>-143600</v>
       </c>
       <c r="E20" s="3">
-        <v>-143700</v>
+        <v>-105600</v>
       </c>
       <c r="F20" s="3">
-        <v>-121500</v>
+        <v>-111300</v>
       </c>
       <c r="G20" s="3">
-        <v>-153000</v>
+        <v>-143200</v>
       </c>
       <c r="H20" s="3">
-        <v>-59000</v>
+        <v>-120600</v>
       </c>
       <c r="I20" s="3">
+        <v>-152300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-188800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-144700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-164000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-134500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-116900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-95700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-132500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-103000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-152100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-60800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-164100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-83800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-136400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-66600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>636800</v>
+        <v>682600</v>
       </c>
       <c r="E21" s="3">
-        <v>568400</v>
+        <v>664500</v>
       </c>
       <c r="F21" s="3">
-        <v>670300</v>
+        <v>634400</v>
       </c>
       <c r="G21" s="3">
-        <v>531600</v>
+        <v>566300</v>
       </c>
       <c r="H21" s="3">
-        <v>638300</v>
+        <v>672800</v>
       </c>
       <c r="I21" s="3">
+        <v>534600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>635900</v>
+      </c>
+      <c r="K21" s="3">
         <v>559200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>660600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>547200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>571800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>523000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>690000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>632700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>720000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1236800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>672600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1157600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>560600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1211100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>630800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1548,11 +1628,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
@@ -1560,138 +1640,156 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>274700</v>
+        <v>307300</v>
       </c>
       <c r="E23" s="3">
-        <v>223700</v>
+        <v>304100</v>
       </c>
       <c r="F23" s="3">
-        <v>327500</v>
+        <v>273600</v>
       </c>
       <c r="G23" s="3">
-        <v>198300</v>
+        <v>222900</v>
       </c>
       <c r="H23" s="3">
-        <v>304300</v>
+        <v>331300</v>
       </c>
       <c r="I23" s="3">
+        <v>202500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>303200</v>
+      </c>
+      <c r="K23" s="3">
         <v>199300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>296500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>192500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>223300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>171500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>339500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>259400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>320200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>625900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>363900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>537800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>250600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>570800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>55600</v>
+        <v>83600</v>
       </c>
       <c r="E24" s="3">
-        <v>16500</v>
+        <v>69200</v>
       </c>
       <c r="F24" s="3">
-        <v>76700</v>
+        <v>55400</v>
       </c>
       <c r="G24" s="3">
+        <v>16400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>75800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>48400</v>
+      </c>
+      <c r="J24" s="3">
         <v>62200</v>
       </c>
-      <c r="H24" s="3">
-        <v>62400</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>41900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>76800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>41400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>49400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>7700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>82400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>54600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>75000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>177400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>85200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>114800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>56600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>127800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>219100</v>
+        <v>223700</v>
       </c>
       <c r="E26" s="3">
-        <v>207200</v>
+        <v>234800</v>
       </c>
       <c r="F26" s="3">
-        <v>250800</v>
+        <v>218200</v>
       </c>
       <c r="G26" s="3">
-        <v>136000</v>
+        <v>206400</v>
       </c>
       <c r="H26" s="3">
-        <v>241900</v>
+        <v>255500</v>
       </c>
       <c r="I26" s="3">
+        <v>154100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>241000</v>
+      </c>
+      <c r="K26" s="3">
         <v>157400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>219700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>151100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>174000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>163900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>257100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>204800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>245200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>448500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>278600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>423000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>194000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>443000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>235800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>216700</v>
+        <v>220500</v>
       </c>
       <c r="E27" s="3">
-        <v>204900</v>
+        <v>231500</v>
       </c>
       <c r="F27" s="3">
-        <v>248500</v>
+        <v>215900</v>
       </c>
       <c r="G27" s="3">
-        <v>134100</v>
+        <v>204200</v>
       </c>
       <c r="H27" s="3">
-        <v>239500</v>
+        <v>253200</v>
       </c>
       <c r="I27" s="3">
+        <v>152100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>238700</v>
+      </c>
+      <c r="K27" s="3">
         <v>154700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>216000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>148900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>171000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>163000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>248200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>202800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>243500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>444000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>276500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>419000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>192200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>439200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,70 +2054,82 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E29" s="3">
+        <v>400</v>
+      </c>
+      <c r="F29" s="3">
         <v>2000</v>
       </c>
-      <c r="E29" s="3">
-        <v>-27900</v>
-      </c>
-      <c r="F29" s="3">
-        <v>5900</v>
-      </c>
       <c r="G29" s="3">
-        <v>24800</v>
+        <v>-27700</v>
       </c>
       <c r="H29" s="3">
+        <v>400</v>
+      </c>
+      <c r="I29" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J29" s="3">
         <v>300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-79800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>32700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>18100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>61100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>24600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-738700</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-61000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-43900</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>111700</v>
+        <v>143600</v>
       </c>
       <c r="E32" s="3">
-        <v>143700</v>
+        <v>105600</v>
       </c>
       <c r="F32" s="3">
-        <v>121500</v>
+        <v>111300</v>
       </c>
       <c r="G32" s="3">
-        <v>153000</v>
+        <v>143200</v>
       </c>
       <c r="H32" s="3">
-        <v>59000</v>
+        <v>120600</v>
       </c>
       <c r="I32" s="3">
+        <v>152300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>58800</v>
+      </c>
+      <c r="K32" s="3">
         <v>188800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>144700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>164000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>134500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>116900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>95700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>132500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>103000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>152100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>60800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>164100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>83800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>136400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>66600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>218600</v>
+        <v>221800</v>
       </c>
       <c r="E33" s="3">
-        <v>177100</v>
+        <v>231900</v>
       </c>
       <c r="F33" s="3">
-        <v>254400</v>
+        <v>217800</v>
       </c>
       <c r="G33" s="3">
-        <v>158900</v>
+        <v>176400</v>
       </c>
       <c r="H33" s="3">
-        <v>239900</v>
+        <v>253500</v>
       </c>
       <c r="I33" s="3">
+        <v>158300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>239000</v>
+      </c>
+      <c r="K33" s="3">
         <v>75000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>248700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>167100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>232100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>187700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-490500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>202800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>243500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>444000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>276500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>419000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>192200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>378100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>218600</v>
+        <v>221800</v>
       </c>
       <c r="E35" s="3">
-        <v>177100</v>
+        <v>231900</v>
       </c>
       <c r="F35" s="3">
-        <v>254400</v>
+        <v>217800</v>
       </c>
       <c r="G35" s="3">
-        <v>158900</v>
+        <v>176400</v>
       </c>
       <c r="H35" s="3">
-        <v>239900</v>
+        <v>253500</v>
       </c>
       <c r="I35" s="3">
+        <v>158300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>239000</v>
+      </c>
+      <c r="K35" s="3">
         <v>75000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>248700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>167100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>232100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>187700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-490500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>202800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>243500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>444000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>276500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>419000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>192200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>378100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2659,622 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>774200</v>
+        <v>287400</v>
       </c>
       <c r="E41" s="3">
-        <v>1154700</v>
+        <v>570100</v>
       </c>
       <c r="F41" s="3">
-        <v>1117400</v>
+        <v>771400</v>
       </c>
       <c r="G41" s="3">
-        <v>1328400</v>
+        <v>1150400</v>
       </c>
       <c r="H41" s="3">
-        <v>1367700</v>
+        <v>1113300</v>
       </c>
       <c r="I41" s="3">
+        <v>1323500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1362700</v>
+      </c>
+      <c r="K41" s="3">
         <v>514700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>710000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>673800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>875100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1114000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1340200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>813500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>898800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>471000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>360800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>527800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>390400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>280400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>553900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>656100</v>
+        <v>701700</v>
       </c>
       <c r="E42" s="3">
-        <v>641000</v>
+        <v>669000</v>
       </c>
       <c r="F42" s="3">
-        <v>675400</v>
+        <v>653700</v>
       </c>
       <c r="G42" s="3">
-        <v>635700</v>
+        <v>638600</v>
       </c>
       <c r="H42" s="3">
-        <v>689100</v>
+        <v>672900</v>
       </c>
       <c r="I42" s="3">
+        <v>633400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>686600</v>
+      </c>
+      <c r="K42" s="3">
         <v>543200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>497100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>494700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>600700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>878500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>933000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>591400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>416100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>781700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>933200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1017900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>685700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>131400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>177400</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1085100</v>
+        <v>1805700</v>
       </c>
       <c r="E43" s="3">
-        <v>1016600</v>
+        <v>1715300</v>
       </c>
       <c r="F43" s="3">
-        <v>936200</v>
+        <v>1546600</v>
       </c>
       <c r="G43" s="3">
-        <v>859300</v>
+        <v>1455600</v>
       </c>
       <c r="H43" s="3">
-        <v>997200</v>
+        <v>1428300</v>
       </c>
       <c r="I43" s="3">
+        <v>1349000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1508500</v>
+      </c>
+      <c r="K43" s="3">
         <v>796200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>823200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>749600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>669700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>756900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>795600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>503300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>364200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>329000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>228600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>244700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>202700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>198900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>231400</v>
+        <v>191900</v>
       </c>
       <c r="E44" s="3">
-        <v>205600</v>
+        <v>216300</v>
       </c>
       <c r="F44" s="3">
-        <v>215900</v>
+        <v>230500</v>
       </c>
       <c r="G44" s="3">
-        <v>244300</v>
+        <v>204800</v>
       </c>
       <c r="H44" s="3">
-        <v>199800</v>
+        <v>215100</v>
       </c>
       <c r="I44" s="3">
+        <v>243400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>199100</v>
+      </c>
+      <c r="K44" s="3">
         <v>209800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>223100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>192300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>220000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>247200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>262800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>245800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>210300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>153900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>181600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>173500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>188300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>217500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>197600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>66400</v>
+        <v>86900</v>
       </c>
       <c r="E45" s="3">
-        <v>84800</v>
+        <v>74900</v>
       </c>
       <c r="F45" s="3">
-        <v>78200</v>
+        <v>66200</v>
       </c>
       <c r="G45" s="3">
-        <v>76300</v>
+        <v>84500</v>
       </c>
       <c r="H45" s="3">
-        <v>74800</v>
+        <v>78000</v>
       </c>
       <c r="I45" s="3">
+        <v>76000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>74600</v>
+      </c>
+      <c r="K45" s="3">
         <v>85700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>78400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>70200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>75300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>109200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>77000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>87400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>79500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>81900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>71900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>77700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>78500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>100700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3280500</v>
+        <v>3073600</v>
       </c>
       <c r="E46" s="3">
-        <v>3547000</v>
+        <v>3245600</v>
       </c>
       <c r="F46" s="3">
-        <v>3520500</v>
+        <v>3268400</v>
       </c>
       <c r="G46" s="3">
-        <v>3638600</v>
+        <v>3533900</v>
       </c>
       <c r="H46" s="3">
-        <v>3845500</v>
+        <v>3507500</v>
       </c>
       <c r="I46" s="3">
+        <v>3625200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3831300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2630800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2845400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2667400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2909300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3563400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3769600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2667400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2409700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2248900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2290600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2525400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1982300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1381300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1683100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1424000</v>
+        <v>1792400</v>
       </c>
       <c r="E47" s="3">
-        <v>1311200</v>
+        <v>1585700</v>
       </c>
       <c r="F47" s="3">
-        <v>1335400</v>
+        <v>1418700</v>
       </c>
       <c r="G47" s="3">
-        <v>1262000</v>
+        <v>1306300</v>
       </c>
       <c r="H47" s="3">
-        <v>1310500</v>
+        <v>1330400</v>
       </c>
       <c r="I47" s="3">
+        <v>1257400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1305700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1199000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1159700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1060600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1002500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>902800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>796300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>273400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>260100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>312600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>461900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>483900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>478000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>978200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>950200</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5658500</v>
+        <v>5859100</v>
       </c>
       <c r="E48" s="3">
-        <v>5640500</v>
+        <v>5793300</v>
       </c>
       <c r="F48" s="3">
-        <v>5485600</v>
+        <v>5637500</v>
       </c>
       <c r="G48" s="3">
-        <v>5466700</v>
+        <v>5619600</v>
       </c>
       <c r="H48" s="3">
-        <v>5504000</v>
+        <v>5465300</v>
       </c>
       <c r="I48" s="3">
+        <v>5446500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5483600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5506500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5850300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5625200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5603000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5666100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5597800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5785300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6290300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>4057400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>4044900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>4071700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>4045000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>4146800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>4190200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1721900</v>
+        <v>1886000</v>
       </c>
       <c r="E49" s="3">
-        <v>1732500</v>
+        <v>1830100</v>
       </c>
       <c r="F49" s="3">
-        <v>1668600</v>
+        <v>1715500</v>
       </c>
       <c r="G49" s="3">
-        <v>1626500</v>
+        <v>1726100</v>
       </c>
       <c r="H49" s="3">
-        <v>1626000</v>
+        <v>1662400</v>
       </c>
       <c r="I49" s="3">
+        <v>1620500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1620000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1600800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1822300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1775700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1744900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1789700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1709300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1840100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1994200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1750600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1635500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1636200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1642600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1651800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1620100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>207700</v>
+        <v>249000</v>
       </c>
       <c r="E52" s="3">
-        <v>196400</v>
+        <v>228400</v>
       </c>
       <c r="F52" s="3">
-        <v>216400</v>
+        <v>206900</v>
       </c>
       <c r="G52" s="3">
-        <v>207200</v>
+        <v>195700</v>
       </c>
       <c r="H52" s="3">
-        <v>209100</v>
+        <v>215600</v>
       </c>
       <c r="I52" s="3">
+        <v>206400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>208400</v>
+      </c>
+      <c r="K52" s="3">
         <v>202200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>250500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>227700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>220600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>215000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>151400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>114900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>131300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>116900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>140000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>137800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>128600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>107000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12292500</v>
+        <v>12860100</v>
       </c>
       <c r="E54" s="3">
-        <v>12427600</v>
+        <v>12683200</v>
       </c>
       <c r="F54" s="3">
-        <v>12226500</v>
+        <v>12247000</v>
       </c>
       <c r="G54" s="3">
-        <v>12201000</v>
+        <v>12381700</v>
       </c>
       <c r="H54" s="3">
-        <v>12495200</v>
+        <v>12181300</v>
       </c>
       <c r="I54" s="3">
+        <v>12155900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>12449000</v>
+      </c>
+      <c r="K54" s="3">
         <v>11139300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11928100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>11356600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11480200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12136900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12024300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10681100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11085700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8486500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>8573000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8855100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8276600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8265100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>8552500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3663,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>676700</v>
+        <v>922600</v>
       </c>
       <c r="E57" s="3">
-        <v>757300</v>
+        <v>1348900</v>
       </c>
       <c r="F57" s="3">
-        <v>941500</v>
+        <v>674200</v>
       </c>
       <c r="G57" s="3">
-        <v>1182500</v>
+        <v>754500</v>
       </c>
       <c r="H57" s="3">
-        <v>700700</v>
+        <v>938100</v>
       </c>
       <c r="I57" s="3">
+        <v>1178100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>698200</v>
+      </c>
+      <c r="K57" s="3">
         <v>970800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>887200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1108500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>638200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>710500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>734200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1322900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>666400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>745600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1162100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1201800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>595100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>645000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1132500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>743300</v>
+        <v>1142100</v>
       </c>
       <c r="E58" s="3">
-        <v>680100</v>
+        <v>944000</v>
       </c>
       <c r="F58" s="3">
-        <v>550500</v>
+        <v>740600</v>
       </c>
       <c r="G58" s="3">
-        <v>386900</v>
+        <v>677600</v>
       </c>
       <c r="H58" s="3">
-        <v>699600</v>
+        <v>548400</v>
       </c>
       <c r="I58" s="3">
+        <v>385400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>697000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1175900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1577300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1135200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>780600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>250100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>394600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1077500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1392200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>992900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>785100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>631000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>762100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>716600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>898700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2797200</v>
+        <v>3264500</v>
       </c>
       <c r="E59" s="3">
-        <v>3005400</v>
+        <v>3079000</v>
       </c>
       <c r="F59" s="3">
-        <v>2794800</v>
+        <v>2786800</v>
       </c>
       <c r="G59" s="3">
-        <v>2611800</v>
+        <v>2994300</v>
       </c>
       <c r="H59" s="3">
-        <v>2749000</v>
+        <v>2784500</v>
       </c>
       <c r="I59" s="3">
+        <v>2602100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2738800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2564400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2667400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2163800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2222700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2954400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2695000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>690200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>806400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>674200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>519200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>528000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>604200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>574600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>626700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4217200</v>
+        <v>5329200</v>
       </c>
       <c r="E60" s="3">
-        <v>4442900</v>
+        <v>5371900</v>
       </c>
       <c r="F60" s="3">
-        <v>4286800</v>
+        <v>4201600</v>
       </c>
       <c r="G60" s="3">
-        <v>4181100</v>
+        <v>4426400</v>
       </c>
       <c r="H60" s="3">
-        <v>4149300</v>
+        <v>4271000</v>
       </c>
       <c r="I60" s="3">
+        <v>4165700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4133900</v>
+      </c>
+      <c r="K60" s="3">
         <v>4711100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5131900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4407600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3641500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3915000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3823800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3090600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2865000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2412700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2466400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2360700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1961500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1936100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2657900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7034800</v>
+        <v>6962700</v>
       </c>
       <c r="E61" s="3">
-        <v>7162600</v>
+        <v>6786400</v>
       </c>
       <c r="F61" s="3">
-        <v>7133100</v>
+        <v>7008800</v>
       </c>
       <c r="G61" s="3">
-        <v>7215100</v>
+        <v>7136100</v>
       </c>
       <c r="H61" s="3">
-        <v>7164500</v>
+        <v>7106800</v>
       </c>
       <c r="I61" s="3">
+        <v>7188400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>7138000</v>
+      </c>
+      <c r="K61" s="3">
         <v>5565500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5731200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5996000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>6485600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>6755000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>6682000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5556600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5585300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3682100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3647600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3938600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>3550100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>3599400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>3304700</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>376000</v>
+        <v>528300</v>
       </c>
       <c r="E62" s="3">
-        <v>380200</v>
+        <v>417700</v>
       </c>
       <c r="F62" s="3">
-        <v>397200</v>
+        <v>374700</v>
       </c>
       <c r="G62" s="3">
-        <v>388700</v>
+        <v>378800</v>
       </c>
       <c r="H62" s="3">
-        <v>403200</v>
+        <v>395700</v>
       </c>
       <c r="I62" s="3">
+        <v>387300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>401700</v>
+      </c>
+      <c r="K62" s="3">
         <v>370500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>420900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>420000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>420200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>439200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>564000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>436300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>490800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>478900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>530800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>543700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>540500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>544400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>538500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11684300</v>
+        <v>12883600</v>
       </c>
       <c r="E66" s="3">
-        <v>12039600</v>
+        <v>12635500</v>
       </c>
       <c r="F66" s="3">
-        <v>11868900</v>
+        <v>11641100</v>
       </c>
       <c r="G66" s="3">
-        <v>11834200</v>
+        <v>11995100</v>
       </c>
       <c r="H66" s="3">
-        <v>11764200</v>
+        <v>11825000</v>
       </c>
       <c r="I66" s="3">
+        <v>11790400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>11720700</v>
+      </c>
+      <c r="K66" s="3">
         <v>10692200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11339000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10873700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10610200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11272000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11232700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9129500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9007600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6636500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6705300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6901300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6127900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6151500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6570400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4637,14 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4304,61 +4652,67 @@
         <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>1398000</v>
+        <v>1248700</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="3">
-        <v>1180600</v>
+        <v>1392800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="3">
-        <v>1252200</v>
+        <v>1176300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K72" s="3">
-        <v>1266000</v>
+        <v>1252200</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M72" s="3">
-        <v>1455900</v>
+        <v>1266000</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O72" s="3">
-        <v>1971900</v>
+        <v>1455900</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q72" s="3">
-        <v>2189700</v>
+        <v>1971900</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S72" s="3">
-        <v>2103500</v>
+        <v>2189700</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U72" s="3">
-        <v>2119000</v>
+        <v>2103500</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>2119000</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>608100</v>
+        <v>-23500</v>
       </c>
       <c r="E76" s="3">
-        <v>388000</v>
+        <v>47800</v>
       </c>
       <c r="F76" s="3">
-        <v>357600</v>
+        <v>605900</v>
       </c>
       <c r="G76" s="3">
-        <v>366900</v>
+        <v>386600</v>
       </c>
       <c r="H76" s="3">
-        <v>731000</v>
+        <v>356300</v>
       </c>
       <c r="I76" s="3">
+        <v>365500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>728300</v>
+      </c>
+      <c r="K76" s="3">
         <v>447100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>589100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>482900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>870000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>864900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>791600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1551600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2078100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1849900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1867800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1953700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2148700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2113600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1982100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>218600</v>
+        <v>221800</v>
       </c>
       <c r="E81" s="3">
-        <v>177100</v>
+        <v>231900</v>
       </c>
       <c r="F81" s="3">
-        <v>254400</v>
+        <v>217800</v>
       </c>
       <c r="G81" s="3">
-        <v>158900</v>
+        <v>176400</v>
       </c>
       <c r="H81" s="3">
-        <v>239900</v>
+        <v>253500</v>
       </c>
       <c r="I81" s="3">
+        <v>158300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>239000</v>
+      </c>
+      <c r="K81" s="3">
         <v>75000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>248700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>167100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>232100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>187700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-490500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>202800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>243500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>444000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>276500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>419000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>192200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>378100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>362100</v>
+        <v>375300</v>
       </c>
       <c r="E83" s="3">
-        <v>344800</v>
+        <v>360500</v>
       </c>
       <c r="F83" s="3">
-        <v>342800</v>
+        <v>360800</v>
       </c>
       <c r="G83" s="3">
-        <v>333300</v>
+        <v>343500</v>
       </c>
       <c r="H83" s="3">
-        <v>334000</v>
+        <v>341500</v>
       </c>
       <c r="I83" s="3">
+        <v>332000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>332700</v>
+      </c>
+      <c r="K83" s="3">
         <v>360000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>364100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>354700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>348500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>351500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>350500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>373300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>399800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>610900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>308800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>619800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>310000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>640300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>193600</v>
+        <v>532900</v>
       </c>
       <c r="E89" s="3">
-        <v>627100</v>
+        <v>456800</v>
       </c>
       <c r="F89" s="3">
-        <v>602500</v>
+        <v>192900</v>
       </c>
       <c r="G89" s="3">
-        <v>338900</v>
+        <v>624700</v>
       </c>
       <c r="H89" s="3">
-        <v>534100</v>
+        <v>600200</v>
       </c>
       <c r="I89" s="3">
+        <v>337600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>532100</v>
+      </c>
+      <c r="K89" s="3">
         <v>492100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>884100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>275500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-212300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>585200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>532100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>488000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>563600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1228400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>571400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>999100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>512900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1015400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>625800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-246600</v>
+        <v>-288800</v>
       </c>
       <c r="E91" s="3">
-        <v>-293000</v>
+        <v>-235200</v>
       </c>
       <c r="F91" s="3">
-        <v>-223600</v>
+        <v>-245700</v>
       </c>
       <c r="G91" s="3">
-        <v>-185100</v>
+        <v>-291900</v>
       </c>
       <c r="H91" s="3">
-        <v>-194200</v>
+        <v>-222700</v>
       </c>
       <c r="I91" s="3">
+        <v>-184400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-193400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-317200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-236400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-198000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-164300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-265900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-224000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-208100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-206800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-520500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-256600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-301300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-117700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-666100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-275400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-404900</v>
+        <v>-473900</v>
       </c>
       <c r="E94" s="3">
-        <v>-406200</v>
+        <v>-398800</v>
       </c>
       <c r="F94" s="3">
-        <v>-278900</v>
+        <v>-403400</v>
       </c>
       <c r="G94" s="3">
-        <v>-165300</v>
+        <v>-404700</v>
       </c>
       <c r="H94" s="3">
-        <v>-246600</v>
+        <v>-277900</v>
       </c>
       <c r="I94" s="3">
+        <v>-164600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-245700</v>
+      </c>
+      <c r="K94" s="3">
         <v>43200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-275900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>38100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-358700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-17500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-655000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-61100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-438100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-241700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-817200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-285300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-448800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,50 +6016,52 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-596700</v>
       </c>
       <c r="E96" s="3">
-        <v>-210600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-492500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-209800</v>
       </c>
       <c r="H96" s="3">
-        <v>-309800</v>
+        <v>-490700</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-308700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-215800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-494000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-63700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-599500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5607,13 +6075,19 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-801600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-439400</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6284,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-171900</v>
+        <v>-343300</v>
       </c>
       <c r="E100" s="3">
-        <v>-162500</v>
+        <v>-255500</v>
       </c>
       <c r="F100" s="3">
-        <v>-577700</v>
+        <v>-171200</v>
       </c>
       <c r="G100" s="3">
-        <v>-181400</v>
+        <v>-161900</v>
       </c>
       <c r="H100" s="3">
-        <v>551700</v>
+        <v>-575600</v>
       </c>
       <c r="I100" s="3">
+        <v>-180700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>549700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-711500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-594700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-273500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-40000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-464600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>59200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>147000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-89700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-844500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-492200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>67600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-99000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-637500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-435000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F101" s="3">
         <v>1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-20200</v>
       </c>
-      <c r="F101" s="3">
-        <v>43200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-31500</v>
-      </c>
       <c r="H101" s="3">
-        <v>13800</v>
+        <v>43000</v>
       </c>
       <c r="I101" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-19100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-19600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>11900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>7300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>25200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>3100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-2500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-4500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-6200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-22500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-27500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-381300</v>
+        <v>-282700</v>
       </c>
       <c r="E102" s="3">
-        <v>38100</v>
+        <v>-201300</v>
       </c>
       <c r="F102" s="3">
-        <v>-211000</v>
+        <v>-379900</v>
       </c>
       <c r="G102" s="3">
-        <v>-39300</v>
+        <v>38000</v>
       </c>
       <c r="H102" s="3">
-        <v>853000</v>
+        <v>-210200</v>
       </c>
       <c r="I102" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>849900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-195300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>17200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-198600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-233800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-226200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>581000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>5200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>415900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-56800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-167000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>243400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>106000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-98500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>175100</v>
       </c>
     </row>
